--- a/nlp/corpos.xlsx
+++ b/nlp/corpos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="945">
   <si>
     <t>filePath</t>
   </si>
@@ -574,15 +574,48 @@
     <t>../project-dev/judicature/src/main/resources/case/txt\judgment\高海峰高语贵犯职务侵占罪一审刑事判决书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\上海三六零融资担保有限公司与王俊追偿权纠纷民事一审案件民事调解书(FBM-CLI-C-408108012).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\东安县舜皇商品混凝土有限公司、东安经济开发区物流园有限公司等买卖合同纠纷民事一审民事调解书(FBM-CLI-C-408054818).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\个旧市农村信用合作联社潍坊农村商业银行股份有限公司侵权责任纠纷二审民事调解书.txt</t>
   </si>
   <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\中南建设集团有限公司与宁德市蕉城宏鑫交通工程投资有限公司建设工程施工合同纠纷申请再审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\中国太平洋财产保险股份有限公司绥化中心支公司、张和追偿权纠纷民事一审民事调解书(FBM-CLI-C-408091026).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\中国工商银行股份有限公司营口经济技术开发区支行、王丽等金融借款合同纠纷民事一审民事调解书(FBM-CLI-C-408136707).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\中国某份有限公司栖霞市支公司、许某人身保险合同纠纷民事一审民事调解书(FBM-CLI-C-407274242).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\临夏县某某乡某某建材厂、马某2等买卖合同纠纷民事一审民事调解书(FBM-CLI-C-408214546).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\任某、吕某民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407780364).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\余小清浙江省义乌市人民政府再审行政调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\修进芬、王同兴民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407711998).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\冯某、潘某同居关系子女抚养纠纷民事一审民事调解书(FBM-CLI-C-408259469).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\刘某某、周某某买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407844811).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\刘某某、朱某某继承纠纷民事一审民事调解书(FBM-CLI-C-407985641).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\北京中坤投资集团有限公司轮台县人民政府合同纠纷再审民事调解书.txt</t>
   </si>
   <si>
@@ -595,27 +628,294 @@
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\吴同宇侯玉伟等买卖合同纠纷民事再审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\周某、刘某离婚纠纷民事一审民事调解书(FBM-CLI-C-407712230).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\周玉芳、宋宝山等相邻用水、排水纠纷民事一审民事调解书(FBM-CLI-C-408047806).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\哈尔滨市香坊区乐佳超市宁波市诺曼电子科技有限公司侵害实用新型专利权纠纷二审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\唐某、龙某离婚纠纷民事一审民事调解书(FBM-CLI-C-407240521).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\姜某、施某1离婚纠纷民事一审民事调解书(FBM-CLI-C-408068667).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\姜某、柳某凭样品买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407192901).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\孙全文、侯小强房屋租赁合同纠纷民事一审民事调解书(FBM-CLI-C-408295038).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\孙某1、孙某2民事一审民事调解书(FBM-CLI-C-408331087).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\孙某某、孙某某1抚养费纠纷民事一审民事调解书(FBM-CLI-C-407603003).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\孙香梅、山东宝库生物科技有限公司劳动争议民事一审民事调解书(FBM-CLI-C-407709282).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\宁某、赵某离婚纠纷民事一审民事调解书(FBM-CLI-C-407805135).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\安吉县兴华竹制品有限公司、竺勇买卖合同纠纷一审民事调解书(FBM-CLI-C-408147953).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\宿佩国、康平民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408120290).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\尹某某、王某某变更抚养关系纠纷民事一审民事调解书(FBM-CLI-C-407354592).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\山东宁津农村商业银行股份有限公司吴国强等金融借款合同纠纷民事再审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\岳某、侯某1等继承纠纷民事一审民事调解书(FBM-CLI-C-407048025).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\庆安县自然资源局、庆安县东城加油站等恢复原状纠纷民事一审民事调解书(FBM-CLI-C-408052131).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\弓长岭区国成汽车修理厂、张树睿等修理合同纠纷其他民事民事调解书(FBM-CLI-C-408196582).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\张某1、张某2离婚纠纷民事一审民事调解书(FBM-CLI-C-408456689).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\张某1、张某2等继承纠纷民事一审民事调解书(FBM-CLI-C-408410589).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\张某、毛某1变更抚养关系纠纷民事一审民事调解书(FBM-CLI-C-407843591).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\张锐与郑钧仁民间借贷纠纷民事一审民事案件调解书(FBM-CLI-C-408247876).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\彭文静、王勋民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408064194).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\彭玉兰、车洪全等民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408392177).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\徐士东、庆安县坤源房地产开发有限公司等房屋买卖合同纠纷民事一审民事调解书(FBM-CLI-C-408068873).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\徐玉芳、施乾安等借款合同纠纷一审民事调解书(FBM-CLI-C-407649187).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\房某某、周某某等买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407877225).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\文某、任某等机动车交通事故责任纠纷民事一审民事调解书(FBM-CLI-C-407764248).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\新疆昌吉市政建设集团有限公司罗在伟建设工程施工合同纠纷再审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\时晓华、围场满族蒙古族自治县育才小学民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408258163).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\曲某1、曲某2等继承纠纷民事一审民事调解书(FBM-CLI-C-408435505).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\曹某、赵某离婚纠纷民事一审民事调解书(FBM-CLI-C-408476522).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\曾祥琼、曾友荣民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408097519).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\朝阳市双塔区农村信用合作联社、孙国喜等金融借款合同纠纷民事一审民事调解书(FBM-CLI-C-407912511).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李宁北京知达客信息技术有限公司计算机软件开发合同纠纷二审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李某1、李某2继承纠纷民事一审民事调解书(FBM-CLI-C-408448689).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李某、吴某1变更抚养关系纠纷民事一审民事调解书(FBM-CLI-C-408398783).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李某、张某离婚纠纷民事一审民事调解书(FBM-CLI-C-407872141).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李某、营口经济技术开发区芦屯沙岗台农机配件商店修理合同纠纷民事一审民事调解书(FBM-CLI-C-407686159).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李秀华、李建雄承包地征收补偿费用分配纠纷民事一审民事调解书(FBM-CLI-C-408195133).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杨哉勇、毕节精神病康复医院等健康权纠纷民事一审民事调解书(FBM-CLI-C-408080706).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杨某、单某民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407370827).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杨某、齐某等机动车交通事故责任纠纷民事一审民事调解书(FBM-CLI-C-407579852).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杨某某、孟某某运输合同纠纷民事一审民事调解书(FBM-CLI-C-407585997).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杨某某、杨某某1等遗赠纠纷民事一审民事调解书(FBM-CLI-C-407961781).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杨秀梅、宋足桂民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408281838).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\杭州某钢结构安装有限公司、某钢构集团有限公司建设工程合同纠纷民事一审民事调解书(FBM-CLI-C-407240904).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\林某、王某离婚纠纷民事一审民事调解书(FBM-CLI-C-407180931).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\栖霞某银某某村镇银行有限公司、刘某某民事一审民事调解书(FBM-CLI-C-407359855).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\毛某某、李某某离婚纠纷民事一审民事调解书(FBM-CLI-C-407344154).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\民事一审民事调解书(FBM-CLI-C-407943035).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\汉金牛经济发展有限公司中国机械工业建设集团有限公司与武汉金牛经济发展有限公司中国机械工业建设集团有.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\汪瑞芳、陈小林等机动车交通事故责任纠纷民事一审民事调解书(FBM-CLI-C-408000166).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\津市天源物业服务有限公司、鲁礼春物业服务合同纠纷民事一审民事调解书(FBM-CLI-C-408063610).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\深圳市金鼠影视传媒有限公司、深圳鲲鹏影视文化传媒有限公司等借款合同纠纷民事一审民事调解书(FBM-CLI-C-408216958).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\湖南省红人建筑装饰有限公司、酒泉马记手工挂面生态文化村开发有限公司建设工程施工合同纠纷民事一审民事调解书(FBM-CLI-C-407263365).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\烟台大明凯顿建筑防水有限责任公司、烟台市莱山区万卷培训学校有限公司房屋租赁合同纠纷民事一审民事调解书(FBM-CLI-C-407680202).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\烟台艾瑞叉车销售有限公司、张伟等民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407816219).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\特变电工沈阳变压器集团有限公司、新东北电气集团超高压有限公司买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407909745).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\王某1、马某同居关系纠纷民事一审民事调解书(FBM-CLI-C-407711200).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\王某、郭某1等婚约财产纠纷民事一审民事调解书(FBM-CLI-C-408485815).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\王某某、王某某1等农村房屋买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407988179).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\王某涉侵犯公民个人信息罪刑事一审案件刑事附带民事调解书(FBM-CLI-C-407952282).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\王梓烨、马娇民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408033236).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\田佑祥、何汉志等追偿权纠纷民事一审民事调解书(FBM-CLI-C-407956796).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\田某某、张某某离婚纠纷民事一审民事调解书(FBM-CLI-C-407707952).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\罗某、刘某民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408103409).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\耿德才、陈树桐劳务合同纠纷民事一审民事调解书(FBM-CLI-C-407223225).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\苏某、高某1等继承纠纷民事一审民事调解书(FBM-CLI-C-408393051).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\营口港务集团有限公司、鲁嘉珉等企业借贷纠纷民事一审民事调解书(FBM-CLI-C-407842566).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\董某1、梁某返还原物纠纷民事一审民事调解书(FBM-CLI-C-407197298).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\蔡某某、烟台某酒店管理有限公司劳动争议民事一审民事调解书(FBM-CLI-C-407955487).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\蔡礼连、王东来等民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407807118).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\薛顶儿、郑吉凯劳务合同纠纷民事一审民事调解书(FBM-CLI-C-407759810).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\袁刚、胡涛买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407185313).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\诸暨镭尔福机械科技有限公司圣东尼上海针织机器有限公司侵害发明专利权纠纷二审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\贾晓东、杨春林等民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408049033).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\赵某、邱某等民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407783931).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\辛某、王某民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407798523).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\辽宁海城农村商业银行股份有限公司、高敏等借款合同纠纷民事一审民事调解书(FBM-CLI-C-405820961).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\邓某、虎某财产损害赔偿纠纷民事一审民事调解书(FBM-CLI-C-408460856).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\郎某某、郎某某1等继承纠纷民事一审民事调解书(FBM-CLI-C-407982308).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\郑州元发置业有限公司房屋买卖合同纠纷民事一审民事调解书(FBM-CLI-C-408429083).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\金宪畅、李龙民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408162718).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\闫某、肖某等机动车交通事故责任纠纷民事一审民事调解书(FBM-CLI-C-407825175).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\陈振东、朱小平民间借贷纠纷民事一审民事调解书(FBM-CLI-C-408385970).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\陈某、周某买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407885266).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\陈某、李某买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407706344).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\陈某、祝某民间借贷纠纷民事一审民事调解书(FBM-CLI-C-407791517).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\雷某某、梁某某离婚纠纷民事一审民事调解书(FBM-CLI-C-407789344).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\mediate\青岛培诺教育科技股份有限公司武汉震旦法商专修学院等侵害商标权纠纷民事二审民事调解书.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\韩某、王某买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407730856).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\马培文、张妮等财产损害赔偿纠纷民事一审民事调解书(FBM-CLI-C-407864729).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\马文祥、马忠祥买卖合同纠纷民事一审民事调解书(FBM-CLI-C-407274657).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\马某、鞍山某某公司劳务合同纠纷民事一审民事调解书(FBM-CLI-C-408041889).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\龙云根、邓浩加工合同纠纷一审民事调解书(FBM-CLI-C-408425112).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\notification\中国信达资产管理股份有限公司山东省分公司与莱芜市东方彩印有限公司等信用证纠纷执行销案通知书.txt</t>
   </si>
   <si>
@@ -790,15 +1090,144 @@
     <t>../project-dev/judicature/src/main/resources/case/txt\order\上海亚致力物流有限公司青岛分公司申请大连闻达化工股份有限公司支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\严红娟、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令(FBM-CLI-C-405526679).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国农业银行股份有限公司临潭县支行、杨主毛金融借款合同纠纷申请支付令审查民事令(FBM-CLI-C-408397241).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国农业银行股份有限公司白朗嘎东营业所、边某申请支付令督促民事令(FBM-CLI-C-404654969).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书(FBM-CLI-C-407172910).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书(FBM-CLI-C-407174936).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书(FBM-CLI-C-407197243).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书(FBM-CLI-C-407215135).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国邮政储蓄银行股份有限公司延长县支行与任军鹏申请支付令督促程序(支付令)支付令[C](FBM-CLI-C-407142826).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国邮政储蓄银行股份有限公司延长县支行与刘帅申请支付令督促程序(支付令)支付令[C](FBM-CLI-C-407114226).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国邮政储蓄银行股份有限公司延长县支行与孙瑜娥申请支付令督促程序(支付令)支付令[C](FBM-CLI-C-407137671).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\中国邮政储蓄银行股份有限公司延长县支行与薛对对申请支付令督促程序(支付令)支付令[C](FBM-CLI-C-407086856).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\刘丽芳对闫平才申请支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\刘智云与黄陵县人民医院遗留问题办协调处理办公室申请支付令督促程序(支付令)支付令(FBM-CLI-C-405842139).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\和政县农村信用合作联社、马某2等金融借款合同纠纷督促民事令(FBM-CLI-C-405842281).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\和政县农村信用合作联社、马某2等金融借款合同纠纷督促民事令1(FBM-CLI-C-405850225).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\唐博与刘帅申请支付令督促程序(支付令)支付令[C](FBM-CLI-C-407120637).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\唐雪峰对张雷申请支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\四川法奥（绵阳）律师事务所、陈烈国等委托合同纠纷申请支付令审查民事令(FBM-CLI-C-407677675).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\大连乾丰物业管理有限公司兴隆分公司、曹政申请支付令申请支付令审查民事令(FBM-CLI-C-408266530).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\大连亿诚物业管理有限公司、周长明申请支付令申请支付令审查民事令(FBM-CLI-C-405597158).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\大连亿诚物业管理有限公司、姜嘉庆申请支付令申请支付令审查民事令(FBM-CLI-C-407154224).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\大连长海美丽家园物业管理有限公司、计红娟申请支付令申请支付令审查民事令(FBM-CLI-C-407899136).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\大连长海美丽家园物业管理有限公司、许陆军申请支付令申请支付令审查民事令(FBM-CLI-C-407646748).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\孙永青、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C](FBM-CLI-C-405484579).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\孙萍、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C](FBM-CLI-C-407866800).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\察布查尔锡伯自治县中天锦宏物业服务有限公司、何孝军申请支付令督促民事令(FBM-CLI-C-407901992).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\察布查尔锡伯自治县中天锦宏物业服务有限公司、姜辉申请支付令督促民事令(FBM-CLI-C-407856142).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\察布查尔锡伯自治县中天锦宏物业服务有限公司、漆亮申请支付令督促民事令(FBM-CLI-C-407802450).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\张群与郭明月申请支付令督促程序(支付令)支付令[C](FBM-CLI-C-407646435).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、于福臣借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407918376).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、刘守富借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407710422).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、吕忠元借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407664271).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、吕忠元借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407785426).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、杜思发借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407864730).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、王庆芳借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407371462).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\扶余市农村信用合作联社、魏武英借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407661642).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\曹某、尹某申请支付令民事审判监督民事令(FBM-CLI-C-407116222).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\李景立、安新县朱公堤村卓航制鞋厂承揽合同纠纷申请支付令审查民事令(FBM-CLI-C-408244226).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\杜彦强对张成慧申请支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\杨明、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C](FBM-CLI-C-405455410).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\杨晓凤、谭永峰借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407659947).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\林仁礼、白桂珍等申请支付令民事审判监督民事令(FBM-CLI-C-407847605).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\某某银行某某有限公司某某分行、李某某都等借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407124899).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\某某银行某某有限公司某某分行、马某苏等借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407090536).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\某某银行某某有限公司某某分行、马某龙等借款合同纠纷申请支付令审查民事令(FBM-CLI-C-407103282).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\浙江台州黄岩恒升村镇银行股份有限公司头陀支行、吴浴智等申请支付令申请支付令审查民事令(FBM-CLI-C-408437718).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\淮安市郊区农村信用合作社联合社尚文中等申请支付令民事支付令.txt</t>
   </si>
   <si>
@@ -811,12 +1240,105 @@
     <t>../project-dev/judicature/src/main/resources/case/txt\order\焦运现对王照红申请支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\王某、马某等申请支付令民事审判监督民事令(FBM-CLI-C-408122772).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\王玲对杨新宏申请支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\王飞、四川久新建筑劳务有限公司借款合同纠纷申请支付令审查民事令(FBM-CLI-C-408496697).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407148368).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407148671).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407175712).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407195614).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407195863).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407197516).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407212134).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407216355).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407218098).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407220049).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\申请支付令审查民事通知书(FBM-CLI-C-407223421).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\白玛桑珠与罗布曲达买卖合同纠纷支付令.txt</t>
   </si>
   <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\胡普中与程波申请支付令督促程序(支付令)支付令(FBM-CLI-C-407965156).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\脱某、席某民间借贷纠纷督促民事令(FBM-CLI-C-408068519).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\蒋某、周某1等装饰装修合同纠纷民事审判监督民事令(FBM-CLI-C-405706967).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、冷庆娥等申请支付令申请支付令审查民事令(FBM-CLI-C-408023970).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、刘俊宝等申请支付令申请支付令审查民事令(FBM-CLI-C-408019699).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、姜焕玲申请支付令申请支付令审查民事令(FBM-CLI-C-408018810).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、孙海玲申请支付令申请支付令审查民事令(FBM-CLI-C-408160791).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、张志明等申请支付令申请支付令审查民事令(FBM-CLI-C-408166241).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、张齐申请支付令申请支付令审查民事令(FBM-CLI-C-408032435).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、李丽玲等申请支付令申请支付令审查民事令(FBM-CLI-C-408132125).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、李壮等申请支付令申请支付令审查民事令(FBM-CLI-C-408126654).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、李德成等申请支付令申请支付令审查民事令(FBM-CLI-C-408126661).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、殷敬珍等申请支付令申请支付令审查民事令(FBM-CLI-C-408148054).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、裴海月等申请支付令申请支付令审查民事令(FBM-CLI-C-408030389).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、谷学森申请支付令申请支付令审查民事令(FBM-CLI-C-408164694).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、贾立秋申请支付令申请支付令审查民事令(FBM-CLI-C-408044153).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\辽宁兴城农村商业银行股份有限公司、韩宝侠等申请支付令申请支付令审查民事令(FBM-CLI-C-408129403).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陆朋、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C](FBM-CLI-C-407661981).txt</t>
+  </si>
+  <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对王学宏事情支付令.txt</t>
   </si>
   <si>
@@ -839,6 +1361,84 @@
   </si>
   <si>
     <t>../project-dev/judicature/src/main/resources/case/txt\order\马志云与边巴次仁买卖合同纠纷支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-405218253).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-405268075).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-405496221).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-405521734).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-405524149).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-405559030).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407649762).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407662746).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407746795).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407754347).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407758238).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407761000).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407763683).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407763822).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407765479).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407767699).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407770484).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407778864).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407786937).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407841242).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407843865).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407849648).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407858587).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407861464).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407892122).txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\鸡泽县人和电脑门市申请支付令审查民事通知书(FBM-CLI-C-407930495).txt</t>
   </si>
   <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
@@ -6072,6 +6672,66 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408108012
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce118773dae6e8f8d41ff51dee1610aeedbbdfb.html
+上海三六零融资担保有限公司与王俊追偿权纠纷民事一审案件民事调解书
+上海三六零融资担保有限公司与王俊追偿权纠纷民事一审案件民事调解书
+上海市普陀区人民法院
+民事调解书(2021)沪0107民初30023号
+当事人　　原告：上海三六零融资担保有限公司，住所地上海市普陀区同普路800弄4号201室。
+　　法定代表人：郭世君，执行董事。
+　　委托诉讼代理人：张志超，上海铸达律师事务所律师。
+　　委托诉讼代理人：庄逸飞，上海铸达律师事务所律师。
+　　被告：王俊。
+　　原告上海三六零融资担保有限公司诉被告王俊追偿权纠纷一案，本院于2021年11月9日立案后，依法适用简易程序进行了审理。
+　　审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告王俊应支付原告上海三六零融资担保有限公司代偿本息及罚息6,098.11元，该款被告应于2022年2月至2022年11月的每月28日前各归还原告600元，余款98.11元应于2022年12月28日前向原告付清；
+　　二、若被告王俊有任意一期款项未按时足额支付，原告上海三六零融资担保有限公司可就剩余未付款项立即向人民法院申请强制执行；
+　　三、本案诉讼费50元，减半收取计25元，由被告王俊负担，该款被告应于2022年12月28日之前一并支付原告上海三六零融资担保有限公司；
+　　四、双方就本案《个人消费贷款合同》、《个人委托担保合同》项下所涉的权利义务再无其他争议。
+　　上述协议，不违反法律规定，本院予以确认，该调解协议已于2021年12月28日经双方当事人签字后生效。本调解书与调解协议具有相同的法律效力。
+落款
+审 判 员　刘 晶
+二〇二一年十二月二十八日
+法官助理　李飞翔
+书 记 员　王 城
+附法律依据附：相关法律条文
+无法律条文            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408054818
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce114c91dac6e794c0b3d848370f3c9ef9cbdfb.html
+东安县舜皇商品混凝土有限公司、东安经济开发区物流园有限公司等买卖合同纠纷民事一审民事调解书
+东安县舜皇商品混凝土有限公司、东安经济开发区物流园有限公司等买卖合同纠纷民事一审民事调解书
+湖南省东安县人民法院
+民事调解书(2021)湘1122民初3095号
+当事人　　原告：东安县舜皇商品混凝土有限公司。
+　　法定代表人：龙小军。
+　　委托诉讼代理人(特别授权)：唐子建。
+　　被告：东安经济开发区物流园有限公司。
+　　法定代表人：张育根。
+　　委托诉讼代理人(特别授权)：陈辉攀。
+　　被告：蒋其林。
+　　委托诉讼代理人(特别授权)：毛学金。
+审理经过　　原告东安县舜皇商品混凝土有限公司(以下简称舜皇混凝土公司)与被告东安经济开发区物流园有限公司(以下简称东安物流园公司)、蒋其林买卖合同纠纷一案，本院于2021年12月15日立案后，依法适用简易程序，公开开庭进行了审理。原告舜皇混凝土公司的特别授权委托诉讼代理人唐子建，被告东安物流园公司的特别授权委托诉讼代理人陈辉攀、被告蒋其林的特别授权委托诉讼代理人毛学金到庭参加诉讼。本案现已审理终结。
+原告诉称　　原告舜皇混凝土公司向本院提出诉讼请求：1.依法判令二被告连带给付下欠原告的商品混凝土货款1,069,815元；2.判令二被告以1,069,815元为基数按年利率6%从2020年11月1日起，支付原告占用期间的利息至支付完毕之日止。(资金占用期间的利息暂计至2021年11月1日起诉之日，利息为64,188.9元)；3.本案诉讼费由二被告承担。事实和理由：2019年5月至2019年9月，被告东安县经济开发区物流园有限公司向原告购买混凝土，用于其厂房建设。经对账，被告东安经济开发区物流园有限公司总共向原告购买混凝土货款为1,169,815元。2019年8月2日支付货款100,000元，还下欠原告混凝土货款1,069,815元。被告东安经济开发区物流园有限公司盖章，法定代表人张育根签名确认，被告蒋其林签名属实。后经原告多次催收，二被告拖延至今未付。综上，二被告拖欠原告货款，应共同连带支付。同时还应承担拖欠货款资金占用期间的利息。据此，为保护原告的合法权益，根据有关法律的规定，特备文具状，向法院提起诉讼，敬请依法判决支持原告的诉请。
+被告辩称　　被告东安物流园公司辩称，原告所说是事实，但买卖合同不是原告跟物流园签订的，原告是跟永州市正中工程有限公司东安分公司签订的买卖合同，对欠的货款没有异议。
+　　被告蒋其林辩称，对于欠款是有这回事，但跟蒋其林没有关系，对账单物流园公司有签字盖章，应当由物流园付款，蒋其林只是证明人。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告东安经济开发区物流园有限公司下欠原告东安县舜皇商品混凝土有限公司混凝土货款1,069,815元。由被告东安经济开发区物流园有限公司在2022年1月30日前还款150,000元，2022年4月30日前还款306,605元，2022年6月30日前还款306,605元，2022年8月30日前还款306,605元。如被告东安经济开发区物流园有限公司未按上述期限还款，则原告东安县舜皇商品混凝土有限公司可就本案全部欠款申请执行，被告东安经济开发区物流园有限公司另需向原告东安县舜皇商品混凝土有限公司支付以未付货款为基数，按年利率15.4%自2020年11月1日起至货款付清之日止的逾期付款利息；
+　　二、被告蒋其林不承担责任。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费15,006元，减半收取7503元，由被告东安经济开发区物流园有限公司负担。
+　　本调解协议经各方当事人在笔录上签名或盖章，本院予以确认后即具有法律效力。
+落款
+审 判 员 邓青南
+二〇二一年十二月三十一日
+法官助理 陈 琳
+书 记 员 唐 霞
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
 民 事 调 解 书
 （2018）最高法民终201号
@@ -6137,6 +6797,132 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408091026
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12a7cb861e941742db3a849405e23df89bdfb.html
+中国太平洋财产保险股份有限公司绥化中心支公司、***追偿权纠纷民事一审民事调解书
+中国太平洋财产保险股份有限公司绥化中心支公司、***追偿权纠纷民事一审民事调解书
+黑龙江省庆安县人民法院
+民事调解书(2021)黑1224民初611号
+当事人　　原告：中国太平洋财产保险股份有限公司绥化中心支公司，住所地绥化市北林区南二西路1号。
+　　负责人；刘天颖，职务经理。
+　　委托诉讼代理人：耿东磊。
+　　被告：***。
+　　原告中国太平洋财产保险股份有限公司绥化中心支公司诉被告***追偿权纠纷一案，本院于2021年3月8日立案后，依法适用简易程序公开进行了审理。
+原告诉称　　原告向本院提出诉讼请求：1.请求被告***给付原告保险赔偿金51,686.22元；2.本案诉讼费用由被告负担。事实与理由：2016年10月1日16时20分许，被告***无证驾驶黑MU5948号微型货车在庆发公路由北向南行驶至庆发路梁家屯南时，与王顺驾驶的由南向北行驶的无号牌两轮摩托车发生相撞，造成两车损坏，王顺身体受伤的交通事故。事故发生后，王顺将原告及被告诉至本院，该案经上诉发回重审再次上诉后，绥化市中级人民法院作出(2020)黑12民终691号民事判决书。判决原告在交强险限额内赔偿王顺各项经济损失49,114.47元，一、二审案件受理费2571.75元，原告有权向侵权人***主张追偿权。原告向王顺履行赔偿义务后向被告追偿，经协商未果，原告诉至法院。
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告***给付原告中国太平洋财产保险股份有限公司绥化中心支公司垫付保险赔偿款40,000.00元。此款于2021年12月31日前给付20,000.00元，其余20,000.00元于2022年5月31日前给付；
+　　二、如被告***未按上述第一项约定自动履行，则原告中国太平洋财产保险股份有限公司绥化中心支公司按垫付保险赔偿款总额51,686.22元向法院申请执行。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费减半收取546.00元，由被告***负担。
+　　双方当事人一致同意本调解协议的内容，自双方在调解协议笔录上签名或捺印后即具有法律效力。
+落款
+审判员 李 平
+二〇二一年十二月二十七日
+书记员 李玮娜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408136707
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e79261e45c30ee06033e8476fe9c73f6bdfb.html
+中国工商银行股份有限公司营口经济技术开发区支行、王丽等金融借款合同纠纷民事一审民事调解书
+中国工商银行股份有限公司营口经济技术开发区支行、王丽等金融借款合同纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初5394号
+当事人　　原告：中国工商银行股份有限公司营口经济技术开发区支行，住所地：营口市鲅鱼圈区08新闻大厦东塔楼一层A区B区二层A区B区。
+　　负责人：曲国生。
+　　委托诉讼代理人：包容华，辽宁宫丹律师事务所律师。
+　　被告一：王丽。
+　　委托诉讼代理人：胡永源，营口市鲅鱼圈区公正法律服务所法律工作者。
+　　被告二：杨军。
+　　委托诉讼代理人：胡永源，营口市鲅鱼圈区公正法律服务所法律工作者。
+　　被告三：营口嘉和房地产开发有限公司，住所地：熊岳镇厢黄旗村嘉和山海大厦。
+　　法定代表人：谷润江。
+审理经过　　原告中国工商银行股份有限公司营口经济技术开发区支行与被告王丽、杨军、营口嘉和房地产开发有限公司金融借款合同纠纷一案，本院立案受理后，依法适用简易程序进行了审理。本院审理过程中，原告中国工商银行股份有限公司营口经济技术开发区支行于2021年12月10日申请撤回对被告营口嘉和房地产开发有限公司的起诉，本院认为其有权在法律范围内处分自己的诉讼权利，且其他被告对此没有异议，故本院准许其对被告营口嘉和房地产开发有限公司撤诉。
+原告诉称　　原告中国工商银行股份有限公司营口经济技术开发区支行向本院提出诉讼请求：1、判令被告一偿还剩余借款本金374047.54元及截止到2021年03月23日的利息3516.68元，本息合计377564.22元。2、判令被告一按照《个人购房借款、担保合同》的约定给付2021年03月24日开始至实际清偿完毕之日止的利息，罚息。具体数额以原告个人信贷管理系统记录为准。3、判令原告对抵押的辽宁省营口市鲅鱼圈区熊岳镇火山村(嘉和山海D区2号楼2单元602号)，建筑面积124.58平的房屋享有抵押优先受偿权。4、请求法院依法判令被告二承担连带清偿责任。5、诉讼费用由被告承担。
+　　事实与理由：2018年10月19日，原告与被告王丽、杨军签订《个人购房借款／担保合同》。合同中约定被告一以辽宁省营口市鲅鱼圈区熊岳镇火山村(嘉和山海D区2号楼2单元602号)，建筑面积124.58平的房屋作为抵押在原告处借
+　　款人民币400000元。贷款期限240个月，2018年10月23日原告向被告王丽、杨军发放贷款人民币400000元，贷款到期日为2038年10月23日，还款方式为按月等额本息。双方对利息及逾期还款产生的罚息等违约责任作出约定。抵押房屋已办理抵押登记。合同签订后，被告王丽、杨军未按照合同约定履行还款义务，截止到2021年03月累计逾期18期。通过原告个人信贷管理系统记录体现，截止到2021年03月23日，被告一尚欠本金374047.54元，利息3516.68元。根据《个人购房借款／担保合同》第十四条的约定，被告王丽、杨军的行为已构成违约，原告有权要求被告王丽、杨军立即清偿未偿还款项以及所产生的利息、罚息及其他费用。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告王丽、杨军尚欠原告中国工商银行股份有限公司营口经济技术开发区支行借款本金362567.94元。被告王丽、杨军继续履行与原告签订的《个人购房借款担保合同》，自2022年1月22日起每月23日前偿还2782.14元(本息合计)至清偿本息之日止。
+　　二、若被告王丽、杨军有任意一期未按期偿还贷款，则合同加速到期，剩余贷款利息按年利率7.889%计算(利率随国家利率调整政策而变动)，原告中国工商银行股份有限公司营口经济技术开发区支行可以将剩余贷款本息一次性申请执行。
+　　三、若被告王丽、杨军有任意一期未履行还款义务，则原告中国工商银行股份有限公司营口经济技术开发区支行对登记在王丽、杨军名下坐落于辽宁省营口市鲅鱼圈区熊岳镇火山村(嘉和山海D区2号楼2单元602号)(建筑面积124.58平)的房屋享有优先受偿权。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费6963元，减半收取3481.5元，由被告王丽、杨军承担。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审 判 员 于永威
+二〇二一年十二月二十八日
+法官助理 董凌霏
+书 记 员 单丽如
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407274242
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12bc44dd1810a41481f95b1de94cf9e58bdfb.html
+中国某份有限公司栖霞市支公司、许某人身保险合同纠纷民事一审民事调解书
+中国某份有限公司栖霞市支公司、许某人身保险合同纠纷民事一审民事调解书
+山东省栖霞市人民法院
+民事调解书(2021)鲁0686民初3271号
+当事人　　原告：中国某份有限公司栖霞市支公司。
+　　被告：许某。
+审理经过　　原告与被告人身保险合同纠纷一案，本院于2021年12月29日立案后，依法适用简易程序公开开庭进行了审理，现已审理终结。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　调解协议不公开
+落款
+审判员　李翔飞
+二〇二一年十二月二十九日
+书记员　孙瑞霞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408214546
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce183b17db385964cdfd8d4444a6fdc864cbdfb.html
+临夏县某某乡某某建材厂、马某2等买卖合同纠纷民事一审民事调解书
+临夏县某某乡某某建材厂、马某2等买卖合同纠纷民事一审民事调解书
+甘肃省临夏县人民法院
+民事调解书(2021)甘2921民初3483号
+当事人　　原告:临夏县某某乡某某建材厂。
+　　地址:临夏县某某乡何家村
+　　法定代表人:关洪章，该公司经理。
+　　被告：马某2。
+　　被告:马某3。
+　　原告临夏县某某乡某某建材厂与被告马某3、马某2买卖合同纠纷一案，本院于2021年12月23日立案后，依法适用简易程序公开进行了审理。
+原告诉称　　原告临夏县某某乡某某建材厂向本院提出诉讼请求：1、判令被告返还所欠原告的欠款11200元。2、本案诉讼费用由被告承担。事实与理由:原告在2020年承包临夏县某某乡某某建材厂时，被告以本砖厂占地14亩土地为由(见附件1)，以市场价低于每块砖0.2元的价格强行拉走机砖，折合人民币14000元，原告被逼无奈的情况下，只得让二被告写成借条，原告后来多次找被告催要无果，只得起诉至贵院讨要。被告在本砖厂的土地为1.4亩，按合同(附件1)的约定，每亩每年800斤小麦的价格计算。且有本砖厂付给各农户的租金为每年每亩土地1000元的凭据，故被告的租赁费为1000元/亩X1.4亩=1400元，2020、2021两年的租金为2800元，故被告应返还原告11200元。综上所述，原告为维护自身的合法权益，特依照《中华人民共和国民法典》等相关法律的规定，恳请贵院依法判决被告返还原告的诉讼请求。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下调解协议：
+裁判结果　　被告马某3、马某2偿还原告临夏县某某乡某某建材厂欠款10000元。(于2022年1月30日前一次性付清)
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费80元减半收取，40元由原告负担。
+　　本调解书经双方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 员 徐自信
+二〇二一年十二月三十一日
+法官助理 韩平桃
+书 记 员 张美宇
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407780364
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15a48177024a8f87c8cbe993c826abb89bdfb.html
+任某、吕某民间借贷纠纷民事一审民事调解书
+任某、吕某民间借贷纠纷民事一审民事调解书
+甘肃省成县人民法院
+民事调解书(2021)甘1221民初1685号
+当事人　　原告：任某。
+　　委托诉讼代理人：田某(任某女婿)。
+　　被告：吕某。
+审理经过　　原告任某与被告吕某民间借贷纠纷一案，本院于2021年12月28日立案后，依法适用简易程序公开开庭进行了审理，原告任某的委托诉讼代理人田某、被告吕某到庭参加诉讼，本案现已审理终结。
+原告诉称　　原告任某店向本院提出诉讼请求：1．依法判令被告偿还原告借款20000元；2．依法判令被告以本金20000元，月利率1％向原告支付自2013年11月23日至借款清偿之日的利息；3．本案诉讼费由被告承担。事实和理由：2013年11月23日，被告因资金周转困难向原告借款，被告于当日向原告出具借条，借条载明：借款金额为20000元，借款期限为2013年11月23日至2013年12月23日。借款到期后，原告多次催促被告还款，但被告一直拖延。综上，原被告之间的借款真实有效，被告在借款到期后一直拖延不向原告还款的行为不仅违背诚实信用，更给原告的生活造成了严重的影响。现依据相关规定提起诉讼，请求判如所请。
+　　经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　由被告吕某在2022年6月1日之前偿还原告任某借款本金20000元。
+　　上述协议不违反法律规定，本院予以确认。
+　　案件受理费300元，减半收取150元，原告任某自愿负担。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审判员　王访宾
+二〇二一年十二月二十九日
+书记员刘瑶瑶
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
 行 政 调 解 书
 （2020）最高法行再382号
@@ -6161,6 +6947,99 @@
 二〇二〇年十二月二十一日
 　　法官助理谭敏娟
 　　书记员朱萌
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407711998
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15e8ccebba92e7fcb8db3997ad2a269d9bdfb.html
+修进芬、王同兴民间借贷纠纷民事一审民事调解书
+修进芬、王同兴民间借贷纠纷民事一审民事调解书
+山东省海阳市人民法院
+民事调解书(2021)鲁0687民初5632号
+当事人　　原告：修进芬。
+　　委托代理人：黄宇航。
+　　被告：王同兴。
+　　原告修进芬与被告王同兴民间借贷纠纷一案，本院于2021年11月16日立案后，依法适用简易程序公开开庭进行了审理。
+原告诉称　　原告修进芬向本院提出诉讼请求：请求责令被告王同兴立即付清所欠本金1.8万及违约金5千元。
+　　事实和理由：原告修进芬、被告王同兴原系熟人，被告王同兴先后借原告修进芬共计三万五千元。事后几次共还原告修进芬一万九千元，本金尚欠一万六千元。按照双方当时约定的利息2000元，截止2021年九月份，共欠原告修进芬本金和利息一万八千元。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　被告王同兴欠原告修进芬借款本金16000元，利息2000元，共计18000元，于2022年1月12日前支付原告2000元，剩余16000元于2023年1月21日前付清。
+　　案件受理费减半收取为188元，由被告王同兴承担。
+　　各方当事人同意在调解协议上签名或者盖章后发生法律效力的。
+落款
+审 判 员 于洪进
+二〇二一年十二月二十八日
+法官助理 王 雯
+书 记 员 孙丽娜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408259469
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13f09f20b3b7acb69c4cb8cc1968880f5bdfb.html
+冯某、潘某同居关系子女抚养纠纷民事一审民事调解书
+冯某、潘某同居关系子女抚养纠纷民事一审民事调解书
+广东省开平市人民法院
+民事调解书(2021)粤0783民初6954号
+当事人　　原告：冯某。香港公民身份证号码：M9xxx33(5).
+　　被告：潘某。公民身份证号码:44xxx49.
+　　原告冯伟坚诉被告潘嘉仪同居关系子女抚养纠纷一案，本院于2021年12月10日立案后，依法适用普通程序，于2021年12月29日开庭进行了审理。
+原告诉称　　原告冯伟坚向本院提出诉讼请求：
+　　一、请求判令被告的亲生女儿冯梓滢由原告抚养教育；
+　　二、本案诉讼费用由原告承担；
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、原告冯伟坚与被告潘嘉仪的非婚生女儿冯梓滢由原告冯伟坚负责抚养教育；
+　　二、本案受理费100元，减半收取50元，由原告冯伟坚负担。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 长 陈德展
+审 判 员 张妙君
+审 判 员 高万丽
+二〇二一年十二月二十九日
+法官助理 郭雪银
+书 记 员 黄浩存
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407844811
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce19f6b3184bd23e2e7338886aad026505bbdfb.html
+刘某某、周某某买卖合同纠纷民事一审民事调解书
+刘某某、周某某买卖合同纠纷民事一审民事调解书
+海城市人民法院
+民事调解书(2021)辽0381民初11103号
+当事人　　原告：刘某某。
+　　被告：周某某。
+　　原告刘某某诉被告周某某买卖合同纠纷一案，本院受理后，依法适用普通程序，公开进行审理。
+本院查明　　经查，被告周某某于2021年1月至5月期间购买原告经销的饲料，拖欠原告刘某某货款合计30099元未付，原告多次找被告索要货款未果，故原告诉至本院，经询问被告表示同意。
+　　本案在审理过程中，原、被告双方自愿达成和解，请求法院确认调解协议如下：
+裁判结果　　一、原、被告双方一致确认被告周某某欠原告刘某某饲料款30099元，此款被告于2022年1月8日前给付原告10099元，于2022年6月1日前给付原告10000元，于2022年12月1日前给付原告10000元；
+　　二、如被告未按以上日期偿还欠款，原告可就剩余全部款项申请一次性执行；
+　　三、其他无争执。
+　　案件受理费552元，减半收取276元，保全费321元，合计597元，由被告周某某承担。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议上签名、捺印起生效。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审 判 长　于 颖
+审 判 员　于倩倩
+人民陪审员　刘 楠
+二〇二一年十二月二十八日
+书 记 员　宋 涛
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407985641
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15d0504338f207cdd700118cbcb40ab53bdfb.html
+刘某某、朱某某继承纠纷民事一审民事调解书
+刘某某、朱某某继承纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8655号
+当事人　　原告：刘某某。
+　　被告：朱某某。
+　　原告刘某某与被告朱某某继承纠纷一案，因本案以调解方式结案，不予上网公开。
+落款
+审 判 员　李 昕
+二〇二一年十二月三十日
+法官助理　锁巧娜
+书 记 员　李 静
 </t>
   </si>
   <si>
@@ -6281,6 +7160,57 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407712230
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d61e071822475af8225743d75824100abdfb.html
+周某、刘某离婚纠纷民事一审民事调解书
+周某、刘某离婚纠纷民事一审民事调解书
+甘肃省临夏县人民法院
+民事调解书(2021)甘2921民初3043号
+当事人　　原告：周某。
+　　委托诉讼代理人：杨海清，系甘肃王云律师事务所律师，代理人权限：一般代理。
+　　被告：刘某。
+　　委托诉讼代理人：王某某春，系甘肃春昊律师事务所律师，代理权限：一般代理。
+　　原告周某与被告刘某离婚纠纷一案，本院于2021年11月17日立案后，依法适用简易程序公开进行了审理。
+　　周某向本院提出的诉讼请求：1.请求判令原、被告离婚；2.判令女孩刘X1由原告抚养，男孩刘X2由被告抚养，被告给付原告抚养费5万元；3.本案诉讼费用由被告承担。事实与理由：原、被告经人介绍于2013年2月14日按照当地风俗举行了婚礼，2014年9月19日补领结婚证。婚后夫妻感情一般育男孩刘X2，现随被告一起生活育女孩刘X1，现随原告一起生活。在共同生活期间，原、被告因生活琐事发生过矛盾，2021年3月1日原、被告又因故发生矛盾后分居至今。
+　　本案经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、原告周某与被告刘某离婚；
+　　二、女孩刘X1由原告抚养，男孩刘X2由被告抚养；
+　　三、原告给付被告经济帮助3万元(本民事调解书生效后五日内付清)。
+　　案件受理费100元，减半收取计50元，由周某负担。
+　　本调解协议经双方当事人在调解笔录上签名或者盖章后，即具有法律效力。
+落款
+审 判 员 黄万胜
+二〇二一年十二月二十七日
+法官助理 王维霞
+书 记 员 王正芳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408047806
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ab05adf34ecab5bbde997851dfcf9c0abdfb.html
+周玉芳、宋宝山等相邻用水、排水纠纷民事一审民事调解书
+周玉芳、宋宝山等相邻用水、排水纠纷民事一审民事调解书
+黑龙江省庆安县人民法院
+民事调解书(2021)黑1224民初3566号
+当事人　　原告：周玉芳。
+　　被告：宋宝山。
+　　委托诉讼代理人：崔艳梅(宋宝山妻子)。
+　　被告：崔艳梅。
+　　原告周玉芳诉被告宋宝山、崔艳梅相邻用水、排水纠纷一案，本院于2021年12月8日立案后，依法适用简易程序公开开庭进行了审理。
+原告诉称　　原告周玉芳向本院提出如下诉讼请求：1.要求宋宝山、崔艳梅给付维修下水管道公摊费1100.00元;2.诉讼费由宋宝山、崔艳梅承担。事实与理由：周玉芳住在庆安县聋哑学校小区1号楼1单元203室，2021年10月2日下水管道堵了，返脏物。周玉芳找物业，物业小吕说：你找通下水的修，楼内的管道由你们6家自己花钱修。我找1-6楼的各家问摊钱修下水道。一楼说：头几年我家的堵了，上面几家不掏钱，我自己修的单独走的管道，花3000.00元，这次我不管。后在周玉芳要求下，一楼同意并要求周玉芳给出2500.00元。且该单元1-6楼均同意修下水管道均摊费用。下水管道修好共支付费用5500.00元(修下水师傅3000.00元、给一楼2500.00元)，2-6楼每户均摊1100.00元，现2楼、3楼、4楼、6楼对公摊费均已支付，宋宝山、崔艳梅至今未给付。故周玉芳诉至法院。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告宋宝山、崔艳梅于2021年12月27日给付原告周玉芳维修下水管道公摊费920.00元；
+　　二、原告周玉芳自愿放弃其他诉讼请求。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费减半收取为为25.00元，由原告周玉芳负担。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审判员　孟祥艳
+二〇二一年十二月二十七日
+书记员　姚立影
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
 民 事 调 解 书
 （2020）最高法知民终1716号
@@ -6307,6 +7237,243 @@
 二〇二〇年十二月五日
 　　法官助理陈文琳
 　　书记员管众
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407240521
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1c67eb70bd28d7b15f8e50f2f748d90a5bdfb.html
+唐某、龙某离婚纠纷民事一审民事调解书
+唐某、龙某离婚纠纷民事一审民事调解书
+甘肃省康县人民法院
+民事调解书(2021)甘1224民初1001号
+当事人　　原告：唐某。
+　　被告：龙某，女1985年4月16日生，汉族。
+　　本院于2021年12月28日立案受理了原告唐某诉被告某某离婚纠纷一案。依法由审判员郭红适用简易程序公开进行审理。
+原告诉称　　唐某向本院提出诉讼请求：判令原告与被告离婚。事实与理由：原、被告于2013年网上聊天相识，2014年2月26日在康县民政局登记结婚，婚后感情良好。2014年后半年，被告经常在外不回家，对家里的事情不管不顾，也不管原告的生活起居；在家时经常找各种借口与原告吵架。原告一直忍让，认为被告可以理解原告的苦衷，被告不但不体谅原告，反而变本加利。2015年7月4日，原告曾向法院起诉离婚，以调解原告撤回了起诉。但被告一直没有悔意。被告的所作所为导致双方夫妻感情破裂，双方已无和好的可能。现原告特将本案诉至法院，请求依法支持原告的诉讼请求。
+　　根据最高人民法院《关于适用简易程序审理民事案件的若干规定》第十四条的规定，本案经委派本院特邀调解员张步均主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、唐某与某某自愿离婚；
+　　二、双方无其他争议。
+　　案件受理费100元，减半收取50元，由唐某负担。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审判员 郭 红
+二〇二一年十二月二十九日
+书记员 李雅聪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408068667
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1136bbcc074df6fedabbd2a52ca5bb30cbdfb.html
+姜某、施某1离婚纠纷民事一审民事调解书
+姜某、施某1离婚纠纷民事一审民事调解书
+云南省洱源县人民法院
+民事调解书(2021)云2930民初1178号
+当事人　　原告：姜某。
+　　委托诉讼代理人：于廷彪、鲁春苹，系云南朝云律师事务所律师。一般授权。(鲁春苹未出庭)
+　　被告：施某1。
+　　原告姜某与被告施某1离婚纠纷一案，本院于2021年12月17日立案后，依法适用简易程序，不公开开庭进行了审理。
+原告诉称　　姜某向本院提出诉讼请求：1.判决原、被告离婚；2.判决婚生子施某2由被告自行抚养；3.判决被告支付原告欠款12000元、补偿金28000元；4.判决案件受理费由被告承担。经审理查明：原、被告于2019年6月相互认识后便同居生活，××××年××月××日双方自愿登记结婚。婚后，共同生育儿子施某2。无夫妻共同财产及债权、债务，被告个人欠原告12000元债务。因双方婚前缺乏了解，草率结婚，婚后在日常生活中，不能和睦相处，常为生活琐事发生吵打。2021年12月17日原告诉至本院，要求与被告离婚。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、原告姜某与被告施某1均同意离婚；
+　　二、婚生子施某2由被告施某1自行抚养，小孩成年后随父随母由其自行选择；
+　　三、由被告施某1于2022年3月28日前偿还原告姜某借款12000元，同时由原告姜某于当日将双方结婚时被告施某1赠予原告姜某的玉手镯三只返还被告施某1。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费300元，减半收取计150元，由原告姜某负担。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审判员 马 丽
+二〇二一年十二月二十九日
+书记员 吴成霖
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407192901
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12509a96a834235c51232852456262efbbdfb.html
+姜某、柳某凭样品买卖合同纠纷民事一审民事调解书
+姜某、柳某凭样品买卖合同纠纷民事一审民事调解书
+山东省栖霞市人民法院
+民事调解书(2021)鲁0686民初3261号
+当事人　　原告：姜某，男
+　　被告：柳某，男
+　　原告姜某与被告柳某凭样品买卖合同纠纷一案，本院于2021年12月27日立案后，依法适用简易程序公开开庭进行了审理。
+原告诉称　　原告姜某向本院提出诉讼请求：
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　调解协议不公开
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人同意在调解协议上签名或者盖章后发生法律效力。
+落款
+审判员　李翔飞
+二〇二一年十二月二十七日
+书记员　孙瑞霞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408295038
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f4f906870cd335d226e33c1c19479821bdfb.html
+孙全文、侯小强房屋租赁合同纠纷民事一审民事调解书
+孙全文、侯小强房屋租赁合同纠纷民事一审民事调解书
+甘肃省康乐县人民法院
+民事调解书(2021)甘2922民初2470号
+当事人　　原告：孙全文，农民。
+　　被告：侯小强。住康乐县，农民。
+审理经过　　原告孙全文与被告侯小强房屋租赁合同纠纷一案，本院于2021年12月15日立案后，依法适用简易程序，公开进行了审理。本案现已审理终结。
+原告诉称　　原告孙全文向本院提出的诉讼请求是：1、请求法院判令被告一次性支付原告欠款4135元；2、法院的诉讼费用由被告承担。事实与理由：被告租住原告的房子共9个月，每月房租300元，共计租费2700元，电费共计835元，暖气费600元，以上共计4135元，原告要求被告按时付清租费及电费、暖气费时，被告均以种种借口推拖，2021年2月26日被告退房时，原告要求被告付清以上费用，被告承诺2021年4月1日付清，并写了借据一份。后经原告多次催要被告至今未付。
+　　本案在审理过程中经本院主持调解，双方当事人自愿达成协议如下：
+裁判结果　　原告孙全文同意被告侯小强于2022年1月30日前一次性付清房屋租赁费、电费及暖气费总计4135元。
+　　上述协议不违反法律规定，本院予以确认。
+　　案件受理费50元减半收取25元，由被告侯小强负担。
+　　本调解协议经双方当事人在调解笔录上签名或盖章，本院予以确认后，既具有法律效力。
+落款
+审判员　陈仲祥
+二〇二一年十二月三十日
+书记员　孙丽萍
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408331087
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce122c524e39871c84898a4ed3c2a71b56fbdfb.html
+孙某1、孙某2民事一审民事调解书
+孙某1、孙某2民事一审民事调解书
+烟台市牟平区人民法院
+民事调解书(2021)鲁0612民初4005号
+当事人　　原告：孙某1。
+　　委托诉讼代理人：李敏，山东天之润律师事务所律师。
+　　被告：孙某2。
+　　原告孙某1与被告孙某2XX纠纷一案，本院于2021年12月27日立案后，依法适用简易程序公开进行了审理。
+　　调解内容不公开。
+落款
+审 判 员　林 燕
+二〇二一年十二月二十七日
+法官助理　刘 婧
+书 记 员　吕力苇
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407603003
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1b0f5f3055cc76b52e6d30b432c841e5dbdfb.html
+孙某某、孙某某1抚养费纠纷民事一审民事调解书
+孙某某、孙某某1抚养费纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8605号
+当事人　　原告：孙某某。
+　　法定代理人：李某某，系原告母某。
+　　被告：孙某某1。
+　　原告孙某某与被告孙某某1抚养费纠纷一案，因本案以调解方式结案，内容不予公开。
+落款
+审 判 员　孙 磊
+二〇二一年十二月二十七日
+法官助理　姜宇萱
+书 记 员　侯玥超
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407709282
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1717205a1f0165aabc64b1c81e82f429bbdfb.html
+孙香梅、山东宝库生物科技有限公司劳动争议民事一审民事调解书
+孙香梅、山东宝库生物科技有限公司劳动争议民事一审民事调解书
+山东省烟台市莱山区人民法院
+民事调解书(2021)鲁0613民初2817号
+当事人　　原告山东宝库生物科技有限公司与被告孙香梅劳动争议一案，本案调解结案，调解内容不公开。
+落款
+审判员 王 丹
+二〇二一年十二月三十日
+书记员 宋晓萃
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407805135
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce14d588f38de5453ef1a8393847e974755bdfb.html
+宁某、赵某离婚纠纷民事一审民事调解书
+宁某、赵某离婚纠纷民事一审民事调解书
+山西省稷山县人民法院
+民事调解书(2021)晋0824民初3223号
+当事人　　原告：宁某。
+　　被告：赵某。
+　　原告宁某与被告赵某离婚纠纷一案，本院于2021年12月29日编立(2021)晋0824诉前调2074号案件，同日转(2021)晋0824民初3223号，依法适用简易程序进行审理。
+原告诉称　　原告向本院提出诉讼请求为：1、判令原、被告离婚；2、双方所生女孩赵某2随被告生活。事实与理由：原、被告于2013年10月30日结婚登记，同年10月30日生女孩赵欣诺。由于双方性格不和，经常因生活琐事发生矛盾，原告曾于2020年11月20日提起诉讼被驳回，故再次提起诉讼。
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　原告宁某与被告赵某离婚；
+　　双方所生女孩赵欣诺随被告生活；原告从2021年起，逐年12月30日前预付被告孩子下年度抚养费5000元，至孩子18周岁(2031年10月30日)止；若原告逾期给付，本年度孩子抚养费按8000元一次性给付被告；
+　　原告有探视孩子的权利，具体事宜双方协商，协商不成，另案起诉；
+　　双方其他财产在谁处归谁所有，各自经手的债权、债务归个自享有、归还；
+　　原、被告再无任何纠纷；
+　　如原告未按本调解书指定的期间履行给付金钱义务，应当按照《中华人民共和国民事诉讼法》第二百五十三条之规定，加倍支付迟延履行期间的债务利息；
+　　七、案件受理费减半收取100元，原、被告各负担50元。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议笔录上签名、捺印起生效。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员　侯彦登
+二〇二一年十二月二十九日
+调解员张经宇
+书记员　邢高阳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408147953
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15a87c8f465ebd58120b31e99550a90a1bdfb.html
+安吉县兴华竹制品有限公司、竺勇买卖合同纠纷一审民事调解书
+安吉县兴华竹制品有限公司、竺勇买卖合同纠纷一审民事调解书
+浙江省安吉县人民法院
+民事调解书(2021)浙0523民初5405号
+当事人　　原告：安吉县兴华竹制品有限公司，住安吉县天荒坪镇白水湾村1-5幢，统一社会信用代码91330523733792412L。
+　　法定代表人：竺青。
+　　被告：竺勇。
+　　原告安吉县兴华竹制品有限公司与被告竺勇买卖合同纠纷一案，本院于2021年12月23日立案受理后，依法适用简易程序进行审理。安吉县兴华竹制品有限公司向本院提出诉讼请求：1．竺勇支付货款329200元；2．本案诉讼费由竺勇承担。
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、经双方结算确认，竺勇给付安吉县兴华竹制品有限公司货款329200元，自2022年1月起至2027年5月于每月月底前支付5000元，余款4200元于2027年6月30日前付清；
+　　二、若竺勇按上述约定足额履行给付义务的，则安吉县兴华竹制品有限公司自愿放弃其他诉讼请求，否则，安吉县兴华竹制品有限公司有权自任一期逾期之日起就未履行部分一并申请强制执行；
+　　三、本案受理费3120元(已减半、已预缴)，由竺勇承担，于2021年12月30日前直接给付安吉县兴华竹制品有限公司。
+　　双方当事人一致同意本调解协议经双方当事人在调解笔录上签名或者捺印起生效。
+　　上述协议，不违反法律规定，本院予以确认。 
+落款
+审判员
+蒋彬炜
+二〇二一年十二月二十七日
+书记员
+罗晓萌
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408120290
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce16fdaf0073e367e11b69b825e76e9c821bdfb.html
+宿佩国、康平民间借贷纠纷民事一审民事调解书
+宿佩国、康平民间借贷纠纷民事一审民事调解书
+黑龙江省庆安县人民法院
+民事调解书(2021)黑1224民初2878号
+当事人　　原告：宿佩国。身份证号码23xxx57。
+　　被告：康平。身份证号码23xxx19。
+　　本院于2021年7月9日立案审理了原告宿佩国与被告康平民间借贷纠纷一案。依法适用普通程序公开进行了审理。
+　　宿佩国向本院提出如下诉讼请求：1.请求康平偿还借款120,000.00元及利息。2.诉讼费用由康平负担。事实与理由：康平于2020年7月22日向宿佩国借款200,000.00元，7月26日向宿佩国借款40,000.00元，共计240,000.00元，经宿佩国多次向康平索要，康平分三次偿还借款120,000.00元，现尚欠120,000.00元本金至今没有偿还。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告康平于2022年1月10日前一次性偿还原告宿佩国借款本息共计60,000.00元；
+　　二、被告康平于2022年3月30日前一次性偿还原告宿佩国借款本息共计70,000.00元。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费减半收取1350.00元,由被告康平负担。
+　　本调解书经双方当事人签收，即具有法律效力。
+落款
+审 判 长　计 红
+人民陪审员　刘桂锡
+人民陪审员　孙海峰
+二〇二一年十二月二十九日
+书 记 员　胡佳序
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407354592
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce14561e827ea1612eeb7b437fe74f9c4a7bdfb.html
+尹某某、王某某变更抚养关系纠纷民事一审民事调解书
+尹某某、王某某变更抚养关系纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8622号
+当事人　　原告：尹某某。
+　　被告：王某某。
+　　原告尹某某与被告王某某变更抚养关系纠纷一案，因本案以调解方式结案，内容不予公开。
+落款
+审 判 员　孙 磊
+二〇二一年十二月二十七日
+法官助理　姜宇萱
+书 记 员　侯玥超
 </t>
   </si>
   <si>
@@ -6347,6 +7514,328 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407048025
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce183c691c216d40362285aaeb09f9ff375bdfb.html
+岳某、侯某1等继承纠纷民事一审民事调解书
+岳某、侯某1等继承纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6663号
+当事人　　原告：岳某。
+　　被告：侯某1。
+　　被告：侯某2。
+　　原告岳某与被告侯某1、侯某2继承纠纷一案。
+落款
+审 判 员 宫家思
+二〇二一年十二月二十七日
+法官助理 董凌霏
+书 记 员 单丽如
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408052131
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13c5e8046ebb59a21ce0d8138bc3fd396bdfb.html
+庆安县自然资源局、庆安县东城加油站等恢复原状纠纷民事一审民事调解书
+庆安县自然资源局、庆安县东城加油站等恢复原状纠纷民事一审民事调解书
+黑龙江省庆安县人民法院
+民事调解书(2021)黑1224民初3403号
+当事人　　原告：庆安县自然资源局。
+　　住所地：庆安县中央大街东段。
+　　统一社会信用代码：11xxx001865997U
+　　法定代表人：原庆祥，职务局长。
+　　委托诉讼代理人：董德胜。身份证号码23xxx1X。
+　　委托诉讼代理人：王玉英，黑龙江千叶律师事务所律师。
+　　被告：庆安县东城加油站。
+　　住所地：黑龙江省绥化市庆安县庆发路86号。
+　　统一社会信用代码：912312247418423011。
+　　法定代表人：赵建颖，职务站长。
+　　委托诉讼代理人：周建中。身份证号码23xxx15。
+　　被告：赵建颖。身份证号码23xxx24。
+　　原告庆安县自然资源局与被告庆安县东城加油站恢复原状纠纷一案，本院于2021年11月12日立案后，依法适用普通程序公开进行了审理。
+原告诉称　　庆安县自然资源局向本院提出诉讼请求：1.请求判令被告自行拆除在原告租赁土地上所建的构造物，恢复土地原状；2.本案的诉讼费由被告承担。在审理中，原告增加一项诉讼请求：被告恢复原状后，将案涉土地的土地使用证和房屋产权证照原件交付原告。事实与理由：2002年7月18日被告庆安县东城加油站(以下简称东城加油站)与庆安县啤酒原料有限责任公司(以下简称啤酒公司)签订《土地租赁合同》，将啤酒公司租赁的国有土地出租给被告东城加油站用于建设加油站，合同约定租赁期限为18年，自2002年8月1日至2020年7月31日止，并约定了每年租金的数额及交付方式。同时还约定了其他事项。被告东城加油站在租用土地后办理了土地使用证，在租赁土地上建设了办公用房及加油站应有的固定设施并办理了房屋产权及相关手续。2009年12月16日原庆安县经济计划局与东城加油站签订了《租赁合同续签协议》，在原租赁合同不变的情况下，租期自2020年7月31日至2040年7月31日。2000年4月26日啤酒公司被庆安县人民法院宣告进入破产程序，后被宣告破产。2019年8月庆安县工信局提起诉讼要求依法确认原庆安县经济计划局与东城加油站签订的《租赁合同续签协议》无效。2019年8月7日庆安县人民法院作出(2019)黑1224民初797号民事判决书，判决解除原庆安县经济计划局与东城加油站签订的《租赁合同续签协议》。判决后东城加油站不服提出上诉，该案被绥化市中级人民法院发回重审，重审后本院于2020年5月12日作出(2020)黑1224民初186号民事判决书，判决：原庆安县经济计划局与被告庆安县东城加油站于2009年12月16日签订的《租赁合同续签协议》无效。判决后东城加油站不服提出上诉，绥化市中级人民法院于2020年12月2日作出(2020)黑12民终840号民事判决书，判决驳回上诉，维持原判。2020年7月31日《土地租赁合同》到期，被告没有依法申请续期。2021年3月1日原告依据《中华人民共和国土地管理法》的规定，决定收回国有土地使用权，并向二被告送达《关于收回赵建颖(东城加油站)国有土地使用权告知书》告知该土地使用权租赁期限已到，按期限内办理国有土地使用权收回和注销手续；2021年3月30日向二被告送达了《关于注销赵建颖(东城加油站)国有土地使用权登记公告》；2021年7月30日向二被告送达了庆自然资催字(2021)01号《催告书》，催告赵建颖(东城加油站)自觉履行退出土地，如不履行，该局将向庆安县人民法院申请强制执行。现案涉土地已经被依法收回。现原告诉至法院。
+被告辩称　　东城加油站辩称，原告主张被告东城加油站没有申请延期租赁合同是错误的，被告方已经申请，被告与原庆安县经济计划局于2009年12月16日已经签订了《租赁合同续签协议》。法院处理解除《租赁合同续签协议》及确认无效的过程属实，但是在此期间始终处于诉讼状态，2021年3月份被告向庆安县自然资源局提出了续租申请，2021年6月份被告再次向原告送达续租使用土地申请，原告没有接收被告的续租申请。被告不同意拆除东城加油站地上的房屋及附属设施，因为被告与原啤酒公司签订的租赁合同第八条第5款中约定：“在租期满后，如承租人不再续租，承租人在租用土地上所建设施处理，由双方协商解决”。如果原告收回土地，让被告停业，搬出加油站可以，但是根据双方签订的协议内容及相关法律规定的公平原则，被告地上的房屋及附属设施原告应当给予经济补偿；对原告诉状中的其它事实认可。
+本院查明　　经审理查明：2002年7月18日啤酒公司与被告东城加油站签订了《土地租赁合同》，将啤酒公司租赁的国有土地出租给被告东城加油站用于建设加油站，合同约定租赁期限为18年，自2002年8月1日至2020年7月31日止，并约定了每年租金的数额及交付方式，合同第八条第5款中约定：“在租期满后，如承租人不再续租，承租人在租用土地上所建设施处理，由双方协商解决”。同时还约定了其他事项。租赁合同签订后，被告东城加油站办理了案涉土地的土地使用证，在租赁的土地上建设了办公用房及加油站应有的固定设施，并办理了房屋产权及相关手续，缴纳了土地租金。租赁合同履行至2009年12月16日，啤酒公司的主管机关原庆安县经济计划局与东城加油站又签订了《租赁合同续签协议》，协议约定：在原租赁合同不变的情况下，租期自2020年7月31日至2040年7月31日。2000年4月26日啤酒公司被庆安县人民法院宣告进入破产程序，后被宣告破产。2019年3月4日庆安县工业信息科技局提起诉讼要求依法确认原庆安县经济计划局与东城加油站签订的《租赁合同续签协议》无效。2019年8月7日庆安县人民法院作出(2019)黑1224民初797号民事判决书，判决解除原庆安县经济计划局与东城加油站签订的《租赁合同续签协议》。判决后东城加油站不服提出上诉，该案被绥化市中级人民法院发回重审，重审后庆安县人民法院于2020年5月12日作出(2020)黑1224民初186号民事判决书，判决：原庆安县经济计划局与被告庆安县东城加油站于2009年12月16日签订的《租赁合同续签协议》无效。判决后东城加油站不服提出上诉，绥化市中级人民法院于2020年12月2日作出(2020)黑12民终840号民事判决书，判决驳回上诉，维持原判。2020年7月31日《土地租赁合同》到期，2021年3月1日原告依据《中华人民共和国土地管理法》的规定，决定收回国有土地使用权，并向二被告送达《关于收回赵建颖(东城加油站)国有土地使用权告知书》告知该土地使用权租赁期限已到，按期限内办理国有土地使用权收回和注销手续；2021年3月30日向二被告送达了《关于注销赵建颖(东城加油站)国有土地使用权登记公告》；2021年7月30日向二被告送达了庆自然资催字(2021)01号《催告书》，催告赵建颖(东城加油站)自觉履行退出土地，如不履行，该局将向庆安县人民法院申请强制执行。现案涉土地已经被依法收回。现相关职能部门已经依法对被告东城加油站进行封存，封存期间不允许继续经营。后原、被告双方就租用土地上所建设施的补偿事宜协商未果，原告庆安县自然资源局委托山东信源土地房地产资产评估咨询有限公司及绥化融鑫致达资产评估事务所，对收回土地上的房屋及附属设施进行了价值评估。山东信源土地房地产资产评估咨询有限公司于2021年11月21日出具鲁信源评资字【2021】第0331号资产评估报告，结论为房屋建筑物评估值为1,084,007.00元；绥化融鑫致达资产评估事务所于2021年12月15日出具融达咨询评报字【2021】第0094号市场价值咨询报告书，结论为地上附着物价值1,184,790.00元。以上两项合计评估结论为2,268,797.00元。二被告对上述评估结论予以认可。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、原告庆安县自然资源局于2022年1月15日前给付被告庆安县东城加油站及赵建颖房屋及地上附着物补偿款2,268,000.00元；
+　　二、原告庆安县自然资源局将上述补偿款存入对公账户后，通知被告庆安县东城加油站及赵建颖二日内从庆安县东城加油站搬出。在搬迁过程中对评估作价物如有损毁，从2,268,000.00元补偿款中扣除相应价款，剩余补偿款由原告庆安县自然资源局一次性给付被告庆安县东城加油站及赵建颖；
+　　三、庆安县东城加油站房屋及地上附着物归原告庆安县自然资源局所有，被告庆安县东城加油站补偿款收到后，将案涉土地的房屋所有权证原件及土地使用证原件交付给原告庆安县自然资源局；
+　　四、被告庆安县东城加油站如异地迁建，由原告庆安县自然资源局依法协助被告庆安县东城加油站办理相关用地审批手续；
+　　五、以上协议双方应认真履行，如一方违约，违约方应按照协议总价款，即2,268,000.00元的20%承担违约金。
+　　案件受理费减半收取100.00元，由原告庆安县自然资源局负担。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议笔录上签名、捺印起生效。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审 判 长　乔永艳
+审 判 员　赵永辉
+人民陪审员　刘桂锡
+二〇二一年十二月三十日
+书 记 员　张丽维
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408196582
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1df1881da77d95df21c5c0a69223ac819bdfb.html
+弓长岭区国成汽车修理厂、张树睿等修理合同纠纷其他民事民事调解书
+弓长岭区国成汽车修理厂、张树睿等修理合同纠纷其他民事民事调解书
+辽宁省辽阳市弓长岭区人民法院
+民事调解书(2021)辽1005民542号
+当事人　　原告：弓长岭区国成汽车修理厂，住所地：辽阳市弓长岭区安平街。
+　　经营者：冯国成。
+　　委托诉讼代理人：王连洋，辽宁丛和律师事务所律师。
+　　被告：张树睿。
+　　被告：张树春。
+　　案由：修理合同纠纷。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+　　被告张树睿给付原告弓长岭区国成汽车修配厂修理费16,155.00元。
+裁判结果　　给付时间：2022年1月28日前给付完毕。
+　　案件受理费102.00元，由被告张树睿承担(原告已付，与欠款同时给付原告)。
+　　上述协议，不违反法律规定，本院予以确定。
+　　双方当事人一致同意本调解协议的内容自双方在调解协议上签名或捺印后具有法律效力。
+落款
+审 判 员 黄录新
+二〇二一年十二月二十八日
+法官助理 戚 新
+书 记 员 陈明珠
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408456689
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15be2b884b40a1dd7860c8651dc41311bbdfb.html
+张某1、张某2离婚纠纷民事一审民事调解书
+张某1、张某2离婚纠纷民事一审民事调解书
+甘肃省宕昌县人民法院
+民事调解书(2021)甘1223民初1751号
+当事人　　原告：张某1。
+　　被告：张某2。
+　　原告张某1诉被告张某2离婚纠纷一案，本院于2021年11月22日立案。
+　　本案审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、原告张某1与被告张某2自愿同意离婚；
+　　二、婚生长女张怡然、长子张怡乐由被告张某2抚养，抚养费自行负担，待孩子成年后随父随母由其自择；
+　　三、本案诉讼费100元，因适用调解减半收取50元由原告张永霞负担。
+落款
+审 判 员 祁　玉　斌
+二〇二二年一月六日
+法官助理     肖朋兵
+书 记 员      陈曦
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408410589
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13995fcfb4dd87da5c165377954a901f0bdfb.html
+张某1、张某2等继承纠纷民事一审民事调解书
+张某1、张某2等继承纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6723号
+当事人　　原告：张某1。
+　　被告：张某2。
+　　被告：张某3。
+　　被告：张某4。
+　　被告：张某5。
+　　原告张某1与被告张某2、张某3、张某4、张某5继承纠纷一案。
+落款
+审 判 员 宫家思
+二〇二一年十二月二十九日
+法官助理 董凌霏
+书 记 员 单丽如
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407843591
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1fca9bb34a8aed238f5b51427d4324d58bdfb.html
+张某、毛某1变更抚养关系纠纷民事一审民事调解书
+张某、毛某1变更抚养关系纠纷民事一审民事调解书
+新民市人民法院
+民事调解书(2021)辽0181民初8441号
+当事人　　原告：张某。
+　　被告：毛某1。
+　　案由：变更抚养关系纠纷
+　　原告张某诉求被告毛某1判令女儿毛某3由原告抚养，被告每月给付抚养费500元。
+审理经过　　本院于2021年12月29日受理了原告张某诉被告毛某1变更抚养关系纠纷一案，并依法由审判员王旌棘担任审判长，与审判员张武、人民陪审员朱晓野组成合议庭进行了审理。经审理查明，原告张某与被告毛某1原系夫妻关系，二人于2018年2月23日在新民市民政局婚姻登记处离婚，离婚时约定婚生子女毛某2(女，××××年××月××日出生)归男方。现原告要求变更抚养关系。
+　　本案在审理过程中，经本院主持调解，原、被告双方自愿达成如下调解协议：
+裁判结果　　一、原告张某与被告毛某1的未成年子女毛某2(2006年10月7日出生)变更由张某直接抚养，至毛某2满十八周岁时止。被告毛某1从2022年1月开始每月给付原告张某子女抚育费500元，此款于当月的10日前一次性给付)。
+　　二、其他无纠纷。
+　　案件受理费50元，由原告张某自愿承担。
+　　上述协议，符合有关法律规定，本院予以确认。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审 判 长　王旌棘
+审 判 员　张 武
+人民陪审员　朱晓野
+二〇二一年十二月二十九日
+书 记 员　张海林
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408247876
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f08670d83bea188668d9fbcd6b9b79aabdfb.html
+张锐与郑钧仁民间借贷纠纷民事一审民事案件调解书
+张锐与郑钧仁民间借贷纠纷民事一审民事案件调解书
+云南省宁洱哈尼族彝族自治县人民法院
+民事调解书(2021)云0821民初805号
+当事人　　原告：张锐。
+　　被告：郑钧仁。
+审理经过　　原告张锐与被告郑钧仁民间借贷纠纷一案，本院于2021年12月28日立案后，依法适用简易程序公开开庭进行了审理。原告张锐与被告郑钧仁到庭参加了诉讼，本案现已审理终结。
+原告诉称　　原告张锐向本院提出诉讼请求：1.请求依法判令被告向原告偿还借款2000元。2.本案诉讼费依法承担。事实与理由：2021年10月1日，原告应约帮被告建盖猪圈，包工包料，期间，被告向原告借款2000元，后被告一直未归还借款。为维护原告合法权益不受损害，请求人民法院依法支持原告的诉讼请求。
+　　本案在审理过程，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　被告郑钧仁自愿向原告张锐偿还借款2000元，于2022年1月31日前付清。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费50元，依法减半收取25元，原告张锐自愿负担。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 员 王建军
+二〇二一年十二月二十九日
+法官助理 梅 超
+书 记 员 杨 娇
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408064194
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1fa8c05fc4e59bc200a53d459f1b51a44bdfb.html
+彭文静、王勋民间借贷纠纷民事一审民事调解书
+彭文静、王勋民间借贷纠纷民事一审民事调解书
+贵州省黔西市人民法院
+民事调解书(2021)黔0581民初6811号
+当事人　　原告：彭文静。
+　　委托代理人：李纪衡，贵州霄逸律师事务所律师，委托权限为特别授权。
+　　委托代理人：彭进。系黔西市杜鹃街道育才社区推荐代理人，委托权限为特别授权。
+　　被告：王勋。
+　　原告彭文静诉被告王勋民间借贷纠纷一案，经调解达成协议，根据《最高人民法院关于人民法院在互联网公布裁判文书的规定》第四条第(三)、(四)项之规定，不在互联网公布。
+落款
+审判员 于 娟
+二〇二一年十二月三十日
+书记员 王小芳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408392177
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13cf3dc7a31a1db8d44beca67b865205bbdfb.html
+彭玉兰、车洪全等民间借贷纠纷民事一审民事调解书
+彭玉兰、车洪全等民间借贷纠纷民事一审民事调解书
+河北省景县人民法院
+民事调解书(2021)冀1127民初3394号
+当事人　　原告：彭玉兰。
+　　被告：车洪全。
+　　被告：倪广华。
+　　原告彭玉兰与被告车洪全、倪广华民间借贷纠纷一案，本院于2021年12月29日立案受理后，依法适用简易程序，公开进行了审理。原告向本院提出诉讼请求：要求二被告立即偿还借款467145元，诉讼费由二被告承担。二被告对原告所诉均无异议，均表示愿调解解决。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告车洪全、倪广华于2022年1月10日前偿还原告彭玉兰借款467145元。
+　　二、原、被告双方就本案再无其他争议。
+　　三、案件受理费4154元，由被告车洪全、倪广华负担。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解协议经双方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 员　刘 宁
+二〇二一年十二月二十九日
+法官助理　李炳阳
+书 记 员　吴思鹏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408068873
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce181ed37e90a98c36e20a0025b9670807dbdfb.html
+徐士东、庆安县坤源房地产开发有限公司等房屋买卖合同纠纷民事一审民事调解书
+徐士东、庆安县坤源房地产开发有限公司等房屋买卖合同纠纷民事一审民事调解书
+黑龙江省庆安县人民法院
+民事调解书(2021)黑1224民初1411号
+当事人　　原告：徐士东。身份证号：23xxx5X。(未出庭)。
+　　委托诉讼代理人：郭云福。身份证号：23xxx33。
+　　被告：庆安县坤源房地产开发有限公司。
+　　法定代表人：董喜。职务：总经理(未出庭)。
+　　委托诉讼代理人：孙广旭。身份证号：23xxx30。
+　　被告：苗强。身份证号：23xxx38(未出庭)。
+　　委托诉讼代理人：张春富。身份证号：23xxx11。
+　　原告徐士东诉被告庆安县坤源房地产开发有限公司、苗强房屋买卖合同纠纷一案，本院于2021年5月18日立案后，依法适用普通程序公开开庭进行了审理。
+原告诉称　　徐士东向本院提出诉讼请求：1.请求二被告履行《房屋买卖合同》中规定的义务，交付位于庆安县雲水家园10号楼下东六门商服，并办理产权证；2.诉讼费由被告承担。事实与理由：2019年4月1日原告以400,000.00元的价格购买了被告苗强的、被告庆安县坤源房地产开发有限公司开发的给建筑商抵顶人工费的位于庆安县雲水家园10号楼下东六门商服，并签订了房屋买卖合同。原告交款后，被告苗强将被告庆安县坤源房地产开发有限公司于2018年11月23日为被告苗强开具的9、10号楼人工费售楼收据交给原告，但被告至今未将案涉楼房交付给原告。原告多次找被告庆安县坤源地产开发有限公司要求办理入户手续，其以建筑商没有交税为由拒绝告办理入住手续。原告认为，被告庆安县坤源地产开发有限公司与建筑商是否交税，与原告无关，原告系无辜的善意第三人，被告所出具的售楼收据是其真实意思表示，应当依法履行义务，为原告办理入住手续，同时办理产权登记。原告为维护自己的利益，故诉至法院。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、原告徐士东购买的被告苗强名下的庆安县雲水家园10号楼下东六门商服归庆安县坤源房地产开发有限公司所有；庆安县坤源房地产开发有限公司于2022年5月1日前给付原告徐士东购房款300,000.00元。
+　　二、如被告庆安县坤源房地产开发有限公司到期未给付300,000.00元，被告庆安县坤源房地产开发有限公司为原告徐士东办理庆安县雲水家园10号楼下东六门商服入住手续，原告承担契税和入住后的物业费和取暖费。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费减半收取为3,650.00元，由原告徐士东、被告庆安县坤源房地产开发有限公司各负担1,825.00元。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 长　李慧颖
+审 判 员　刘 力
+人民陪审员　常 波
+二〇二一年十二月二十八日
+书 记 员　曲志涛
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407649187
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a851cebc651a304735c503ce6e15e503bdfb.html
+徐玉芳、施乾安等借款合同纠纷一审民事调解书
+徐玉芳、施乾安等借款合同纠纷一审民事调解书
+浙江省长兴县人民法院
+民事调解书(2021)浙0522民初7576号
+当事人　　原告：徐玉芳。
+　　被告：施乾安。
+　　被告：浙江长兴明贵安然园林绿化有限公司，住所地浙江省长兴县水口乡徽州庄村。
+　　法定代表人：施明贵，董事长。
+审理经过　　原告徐玉芳诉被告施乾安、浙江长兴明贵安然园林绿化有限公司借款合同纠纷一案，本院于2021年12月27日立案后，依法由审判长丁一、审判员张华、人民陪审员陈敏适用普通程序，并于开庭前组织双方进行调解。原告徐玉芳及被告施乾安、浙江长兴明贵安然园林绿化有限公司均到庭参加调解。本案现已审理终结。
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告施乾安归还原告徐玉芳借款本金400万元及利息698.6万元，合计1098.6万元，于2021年12月28日前支付500万元，于2022年1月20日前支付200万元，于2022年3月20日前支付100万元，于2022年5月20日前支付298.6万元；
+　　二、如被告施乾安未按照上述第一项约定的期限和金额履行付款义务，原告徐玉芳有权就本案标的的未付部分向法院申请执行；
+　　三、被告浙江长兴明贵安然园林绿化有限公司对上述一、二款项承担连带清偿责任；
+　　四、原告徐玉芳自愿放弃其他诉讼请求，双方就本案别无其他争议。
+　　本案受理费43858元，由原、被告各半承担，由原告徐玉芳预交，被告施乾安于2021年12月28日前径直支付原告徐玉芳。
+　　双方当事人一致同意本调解协议自双方在调解协议笔录上签名或捺印后即具有法律效力。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本判决生效后，权利人申请执行的时效为两年。超过申请执行时效申请执行，义务人提出异议的，法院不再执行。 
+落款
+审判长丁一
+审判员张华
+人民陪审员陈敏
+二O二一年十二月二十八日
+法官助理
+叶洁
+书记员陶婷婷
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407877225
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ff134445c69185c5d13b8a8d68dc842bbdfb.html
+房某某、周某某等买卖合同纠纷民事一审民事调解书
+房某某、周某某等买卖合同纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初5832号
+当事人　　原告：房某某。
+　　被告：周某某。
+　　被告：席某某。
+　　原告房某某诉被告周某某、席某某买卖合同纠纷一案。
+落款
+审判员　刘楠
+二〇二一年十二月二十八日
+书记员　王丽
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407764248
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a5b13729c1731e34099cc7e2b942535ebdfb.html
+文某、任某等机动车交通事故责任纠纷民事一审民事调解书
+文某、任某等机动车交通事故责任纠纷民事一审民事调解书
+山西省稷山县人民法院
+民事调解书(2021)晋0824民初3045号
+当事人　　原告：文某。
+　　委托诉讼代理人：乔某。
+　　被告：任某。
+　　被告：山西鑫润通运业有限公司。
+　　委托诉讼代理人：史某。
+　　被告：永安财产保险股份有限公司运城中心支公司。
+　　法定代表人：张某。
+　　委托诉讼代理人：荆某。
+　　案由：机动车交通事故责任纠纷
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告永安财产保险股份有限公司运城中心支公司于2022年1月20日前在晋M53748解放牌重型仓栅式货车交强险限额内一次性赔偿原告文某因交通事故造成的各项损失等共计114000元(含被告山西鑫润通运业有限公司先行给原告垫付的5000元，扣除该公司应负担的鉴定费、诉讼费共计2000元给付原告，剩余3000元，由被告永安财产保险股份有限公司运城中心支公司直接支付给被告山西鑫润通运业有限公司)；
+　　二、原告放弃对被告任某承担民事责任的诉讼请求；
+　　三、案件受理费减半收取460元，鉴定费2500元，共计2960元，由原告文某负担。
+　　上述协议，不违反法律规定，本院予以确认。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议上签名、捺印起生效。
+落款
+审判员　侯彦登
+二〇二一年十二月二十九日
+书记员　胡绍军
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
 民 事 调 解 书
 （2017）最高法民再221号
@@ -6378,6 +7867,118 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408258163
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1472622eb5f92d6ba2c1760889a24d9adbdfb.html
+时晓华、围场满族蒙古族自治县育才小学民间借贷纠纷民事一审民事调解书
+时晓华、围场满族蒙古族自治县育才小学民间借贷纠纷民事一审民事调解书
+河北省围场满族蒙古族自治县人民法院
+民事调解书(2021)冀0828民初5624号
+当事人　　原告：时晓华。
+　　委托诉讼代理人：吴若熙，河北冀律律师事务所律师。
+　　被告：围场满族蒙古族自治县育才小学，住所地：河北省承德市围场满族蒙古族自治县围场镇北大桥一公里，统一社会信用代码：5213082867418634XR。
+　　法定代表人：曹玉龙，职务：校长。
+　　委托诉讼代理人：刘巍。
+　　委托诉讼代理人：高立。
+　　原告时晓华与被告围场满族蒙古族自治县育才小学民间借贷纠纷一案，本院于2021年12月8日立案后，依法适用简易程序公开进行了审理。
+原告诉称　　原告时晓华向本院提出诉讼请求：一、请求依法判令被告偿还借款本金人民币98,000.00元及按照年息10%计算利息至本息偿还完毕之日止。(暂计算利息自2020年6月1日至2021年8月2日，利息13,767.00元)本息合计111,767.00元。二、由被告承担本案诉讼费用。事实与理由：被告为投资学校发展建设，多次在原告处借款，后被告偿还了部分本金及利息，仍下欠原告借款本金98,000.00元，并于2020年11月20日为原告出具了借条一张，约定年息为10%，借款期限为2020年6月1日至2021年6月1日。后经原告多次催要，被告始终推托拒不给付。现原告为维护自身合法权益，故具状起诉，请求依法判决支持原告诉讼请求。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　被告围场满族蒙古族自治县育才小学于2022年6月1日前一次性偿还原告借款本金人民币98,000.00元，并以借款本金118,000.00元为基数按年利率10%支付自2020年6月1日起至2021年8月2日止的利息；以借款本金98,000.00元为基数按年利率10%支付自2021年8月3日起至借款本金实际偿还完毕之日止的利息。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费1,355.57元，保全费1,195.00元，合计2,550.57元，由被告围场满族蒙古族自治县育才小学承担。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审判员 付 佐
+二〇二一年十二月二十八日
+书记员 张云凤
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408435505
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce181f6c0c2eed8a52b41759f04a022bd00bdfb.html
+曲某1、曲某2等继承纠纷民事一审民事调解书
+曲某1、曲某2等继承纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6671号
+当事人　　原告：曲某1。
+　　被告：曲某2。
+　　被告：曲某3。
+　　原告曲某1与被告曲某2、曲某3继承纠纷一案。
+落款
+审 判 员 宫家思
+二〇二一年十二月二十九日
+法官助理 董凌霏
+书 记 员 单丽如
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408476522
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f92bf59a3a42d9ccc15993ad46fb1764bdfb.html
+曹某、赵某离婚纠纷民事一审民事调解书
+曹某、赵某离婚纠纷民事一审民事调解书
+甘肃省宕昌县人民法院
+民事调解书(2021)甘1223民初1823号
+当事人　　原告：曹某。
+　　委托代理人：萧某，甘肃瑞芳律师事务所律师。
+　　被告：赵某。
+　　原告曹某诉被告赵某离婚纠纷一案，本院于2021年12月8日立案。
+　　本案审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、原告曹某与被告赵某自愿同意离婚；
+　　二、婚生女儿赵馨雨由被告赵某抚养，由原告曹某给付抚养费59532元，限于2021年12月30日前给付30000元，2022年1月25日前给付29532元，待孩子成年后随父随母由其自择；
+　　三、本案诉讼费100元，因适用调解减半收取50元由原告曹某负担。
+落款
+审 判 员 祁　玉　斌
+二〇二一年十二月二十九日
+法官助理     肖朋兵
+书 记 员     陈东欧
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408097519
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1af4231d7e975336e14a0a0b88199812cbdfb.html
+曾祥琼、曾友荣民间借贷纠纷民事一审民事调解书
+曾祥琼、曾友荣民间借贷纠纷民事一审民事调解书
+贵州省黔西市人民法院
+民事调解书(2021)黔0581民初6729号
+当事人　　原告：曾祥琼。
+　　被告：曾友荣。
+　　原告曾祥琼诉被告曾友荣民间借贷纠纷一案，经调解达成协议，根据《最高人民法院关于人民法院在互联网公布裁判文书的规定》第四条第(三)、(四)项之规定，不在互联网公布。
+落款
+审判员 于 娟
+二〇二一年十二月二十七日
+书记员 王小芳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407912511
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce11bf53850062af40ad35e1ad567b79a66bdfb.html
+朝阳市双塔区农村信用合作联社、孙国喜等金融借款合同纠纷民事一审民事调解书
+朝阳市双塔区农村信用合作联社、孙国喜等金融借款合同纠纷民事一审民事调解书
+朝阳市双塔区人民法院
+民事调解书(2021)辽1302民初4185号
+当事人　　原告：朝阳市双塔区农村信用合作联社，住所地朝阳市双塔区竹林路四段1-1号。
+　　法定代表人：张弢，理事长。
+　　委托代理人：杨光。
+　　委托代理人：孙立坤。
+　　被告：孙国喜。
+　　被告：朝阳园晔建筑工程有限公司，住所地朝阳市龙城区联合镇联合村。
+　　法定代表人：林文广，经理。
+　　委托代理人：王木伟，朝阳市双塔区北斗法律服务所法律工作者。
+　　原告朝阳市双塔区农村信用合作联社与被告孙国喜、朝阳园晔建筑工程有限公司金融借款合同纠纷一案，本院于2021年11月10日立案后，依法适用普通程序公开进行了审理。
+原告诉称　　原告朝阳市双塔区农村信用合作联社诉称，被告朝阳园晔建筑工程有限公司与原告签订借款合同，合同约定借款本金4,000,000元，借款期间为2016年12月21日至2018年12月20日止，年利率11.34%(罚息详见借款合同)，用途为流动资金，按季结息。原告依据合同约定发放了贷款，被告没有按照合同约定履行还款付息义务，现贷款已逾期。为维护原告的合法权益，故诉至法院。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告孙国喜、朝阳园晔建筑工程有限公司截止到2021年9月7日共计拖欠原告朝阳市双塔区农村信用合作联社借款本金4,000,000元，借款利息2,333,020元，本息合计6,333,020元，上述款项被告孙国喜、朝阳园晔建筑工程有限公司共同于2021年12月31日前偿还原告朝阳市双塔区农村信用合作联社，并按双方于2016年12月21日签订的《借款合同》约定的利率给付2021年9月8日起至借款本金实际还清之日止的借款利息，利随本清(具体金额以原告朝阳市双塔区农村信用合作联社系统中数据为准)；
+　　二、案件受理费28,066元(原告朝阳市双塔区农村信用合作联社预交，已减半收取)，由被告孙国喜、朝阳园晔建筑工程有限公司共同负担，此款项与本调解协议第一项确定的款项一并给付原告朝阳市双塔区农村信用合作联社。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 长　王凤贺
+人民陪审员　佟力杨
+人民陪审员　刘 红
+二〇二一年十二月二十七日
+书 记 员　蔡 莉
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
 民 事 调 解 书
 （2019）最高法知民终162号
@@ -6402,6 +8003,345 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408448689
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce156ef3aced63409edfb0c9ef95c37dd64bdfb.html
+李某1、李某2继承纠纷民事一审民事调解书
+李某1、李某2继承纠纷民事一审民事调解书
+山东省济宁市兖州区人民法院
+民事调解书(2021)鲁0812民初3209号
+当事人　　原告：李某1。
+　　委托诉讼代理人：徐海燕、王化唐，兖州大安服务所法律工作者。
+　　被告：李某2。
+　　委托诉讼代理人：张鹏，山东邦国律师事务所律师。
+　　原告李某1与被告李某2继承纠纷一案，本院于2021年10月22日立案后，依法适用简易程序公开开庭进行了审理。
+原告诉称　　李某1向本院提出诉讼请求：1.请求依法判令分割原被告父母的遗产，判决被告向原告支付原告应继承的两处房屋拆迁补偿款1240000元，诉讼过程中原告将请求数额变更为1014769.20元；2.本案的受理费由被告负担。事实和理由：李某1、李某2系兄妹关系，其父母即被继承人李宝玉、罗永凤均已去世。2018年10月份，被继承人的房屋被征收补偿，经了解得知，被继承人的房屋分得征收补偿款及拆迁户土地补偿款共计2029538.4元。房屋被征收时，新义村村委会及李某2均未通知李某1办理相关征收补偿事宜，未经李某1同意，由李某2办理了征收补偿事宜。另外被继承人李宝玉名下的另一处房产的补偿款也是李某2领取，三处房产合计补偿款约248万元，按照相关法律规定，李某1认为其应分得二分之一的房屋补偿款即124万，李某2将补偿款领取后占为己有。为维护原告的合法权利，特向本院提起诉讼，望判如所请。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告李某2给付原告李某1涉案房屋拆迁补偿款300000元整，作为原告李某1所享有的父母遗产继承份额，该款项即时给付；
+　　二、原、被告因父母遗产继承问题别无其他纠葛。
+　　案件受理费15960元，减半收取计7980元，由原告负担4980元，被告负担3000元。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审 判 员 刘绪龙
+二〇二一年十二月二十八日
+法官助理 李珍珠
+书 记 员 张瑞雪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408398783
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce10bccb8dd79ab6dbc61f60f5550d1108abdfb.html
+李某、吴某1变更抚养关系纠纷民事一审民事调解书
+李某、吴某1变更抚养关系纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6672号
+当事人　　原告：李某。
+　　被告：吴某1。
+　　原告李某与被告吴某1变更抚养关系纠纷一案。
+落款
+审 判 员 宫家思
+二〇二一年十二月二十九日
+法官助理 董凌霏
+书 记 员 单丽如
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407872141
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce18c0fe573195c05e8f90cd22bfc881670bdfb.html
+李某、张某离婚纠纷民事一审民事调解书
+李某、张某离婚纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6699号
+当事人　　原告李某女，汉族。
+　　被告张某男，汉族。
+　　案由：离婚纠纷
+原告诉称　　原李某向本院提出诉讼请求：1、判令原、被告离婚；2、判令位于鲅鱼圈区房屋归原告所有，该房屋银行贷款有原告负责偿还。事实和理由：原、被告经人介绍相识，于××××年××月××日在铁岭市清河区民政登记结婚，婚后双方无子女。婚后双方经常发生口角，经磨合夫妻感情仍无法维持，现已无和好可能。
+　　原告于2016年8月22日出资购买位于营口市鲅鱼圈区房屋一处，于同年11月15日办理房产证及银行抵押贷款，因该房屋系婚前原告首付购买，双方婚后签订了协议书，约定该房屋产权归原告所有。现除该房屋外，双方再无其他夫妻共同财产，无债权债务争议，故原告诉至法院。
+被告辩称　　被告张某辩称，同意离婚，同意房屋归原告个人所有。双方无其他夫妻共同财产及债权债务争议。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、原告李某与被告张某自愿解除婚姻关系。
+　　二、位于鲅鱼圈区房屋(房权证号：辽(xxx)营口鲅鱼圈不动产证明第xxx号，房屋面积：64.29平方米)归原告李某所有。
+　　三、上述房屋剩余银行贷款由原告李某个人负责偿还。
+　　四、案件受理费已缴450元(减半收取225元)，由原告李某自愿承担。
+　　原、被告均同意上述调解协议，自双方在调解协议上签字时起发生法律效力。
+　　上述协议符合法律规定，本院予以确认。
+落款
+审判员　王富贵
+二〇二一年十二月二十八日
+书记员　白晓娜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407686159
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ab324f6bc1858d83348c75d2e68efb1fbdfb.html
+李某、营口经济技术开发区芦屯沙岗台农机配件商店修理合同纠纷民事一审民事调解书
+李某、营口经济技术开发区芦屯沙岗台农机配件商店修理合同纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初4205号
+当事人　　原告：李某。
+　　委托诉讼代理人：张凤芹，营口市鲅鱼圈区大方法律服务所法律工作者。
+　　被告：营口经济技术开发区芦屯沙岗台农机配件商店，住所地芦屯镇沙岗台村。
+　　经营者：姚玉利。
+　　委托诉讼代理人：姚某。
+　　原告李某诉被告营口经济技术开发区芦屯沙岗台农机配件商店修理合同纠纷一案。
+落款
+审判员　刘楠
+二〇二一年十二月二十八日
+书记员　王丽
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408195133
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce14bf0893ef35fe27bbb6acc130b46ffe1bdfb.html
+李秀华、李建雄承包地征收补偿费用分配纠纷民事一审民事调解书
+李秀华、李建雄承包地征收补偿费用分配纠纷民事一审民事调解书
+湖南省桂东县人民法院
+民事调解书(2021)湘1027民初614号
+当事人　　原告：李秀华。
+　　委托诉讼代理人：扶绍平，桂东县天鹰法律服务所法律工作者，代理权限为一般代理。
+　　被告：李建雄。
+　　委托诉讼代理人：胡建丰，湖南沤源律师事务所律师，代理权限为特别授权。
+审理经过　　原告李秀华诉被告李建雄承包地征收补偿费用分配纠纷一案，本院于2021年12月3日立案后，依法适用简易程序，于2021年12月20日公开开庭进行了审理,原告李秀华及其委托诉讼代理人扶绍平、被告李建雄及其委托诉讼代理人胡建丰到庭参加诉讼。本案现已审理终结。
+　　2
+原告诉称　　原告李秀华向本院提出诉讼请求：1、判令被告给付原告政府征收土地补偿款30390.8元；2、分割政府征收土地留地安置地面积289.228平方米，确认原告享有安置地面积36.1平方米；价值约150898元，二项总计181288.8元；3、本案诉讼费用由被告承担。事实与理由：被告系原告胞兄。1996年，原告所在集体经济组织桂东县沤江镇茅柳村最后一次调整责任田时，原告农户八口人以被告为承包农户代表分得八份田地。1998年，原告与沤江镇草堂村村民周建河结婚，但原告户口一直保留在茅柳村，并且原告也未在草堂村分得田地。2007年，政府开发建设东城一品项目时，征收原、被告农户水田2.85亩；2011年，政府开发建设桂东大道延伸段综合项目时，征收原、被告农户水田4.3807亩。该两次政府征收土地，原、被告农户共获得土地补偿款226294.62元，青苗补偿款16831.97元，以及征收水田留地安置面积289.228平方米。
+　　原告户口一直在沤××镇茅柳村××组，并且从实行家庭承包责任制分田到户开始，原告就基于茅柳村集体经济组织成员身份分得一份田地，故原告认为原、被告农户因政府征收而获得的土地补偿款、青苗补偿款和留地安置地，系基于集体经济组织成员享有承包经营权的土地被政府征收而获得的收益，原告作为该集体经济组织和原、被告农户的成员，依法享有相应的权益即八分之一的份额。经双方协商未果，原告诉至本院，请求判如所请。
+被告辩称　　被告李建雄口头辩称，原告不具备茅柳村村民资格，不应当
+　　3
+　　分配任何被告家庭的土地补偿费用及安置地面积。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成协议如下：
+裁判结果　　一、被告李建雄自愿补偿原告李秀华承包地征收补偿费60000元，原告李秀华尚欠购买被告李建雄瓷砖款11964.50元，两数相抵，被告还应支付原告48035.50元；原告李秀华自签收本文书之日起十日内将自己的户口从被告李建雄处迁出；被告李建雄补偿原告李秀华的款项，在原告李秀华从被告李建雄处迁出户口后二日内交法院转原告李秀华收；
+　　二、其它事项双方无争议。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本案案件受理费3926元，适用简易程序减半收取计1963元，由原告李秀华承担。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审 判 员 郭凌云
+二〇二一年十二月二十七日
+法官助理 曹 江
+书 记 员 扶 艳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408080706
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce120f2a3ca4d8c25f4aa5e58c8b6a2f4a6bdfb.html
+杨哉勇、毕节精神病康复医院等健康权纠纷民事一审民事调解书
+杨哉勇、毕节精神病康复医院等健康权纠纷民事一审民事调解书
+贵州省黔西市人民法院
+民事调解书(2021)黔0581民初4119号
+当事人　　原告：杨哉勇。
+　　委托代理人：杨春祥。系原告父亲，委托权限为特别授权。
+　　委托代理人：漆海，贵州印鼎律师事务所律师，委托权限为特别授权。
+　　被告：毕节精神病康复医院。
+　　负责人：胡国勋，系该院院长。
+　　委托代理人：蔡怀林。系该院副院长，委托权限为特别授权。
+　　委托代理人：王兴，贵州黔信(毕节)律师事务所律师。
+　　被告：黔西市公安局。
+　　负责人：李松，系该局局长。
+　　委托代理人：赵嵩英，贵州穹达律师事务所律师，委托权限为特别授权。
+　　委托代理人：汪莎，贵州穹达律师事务所律师。
+　　原告杨哉勇诉被告毕节精神病康复医院、黔西市公安局生命权、身体权、健康权纠纷一案，经调解达成协议，根据《最高人民法院关于人民法院在互联网公布裁判文书的规定》第四条第(三)、(四)项之规定，不在互联网公布。
+落款
+审判员 于 娟
+二〇二一年十二月三十一日
+书记员 王小芳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407370827
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f8dfe950b89ab02653dd68da51fb30b9bdfb.html
+杨某、单某民间借贷纠纷民事一审民事调解书
+杨某、单某民间借贷纠纷民事一审民事调解书
+山东省栖霞市人民法院
+民事调解书(2021)鲁0686民初3272号
+当事人　　原告：杨某
+　　被告：单某。
+　　原告与被告民间借贷纠纷一案，本院于2021年12月29日立案后，依法适用简易程序公开开庭进行了审理。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　调解协议不公开
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人同意在调解协议上签名或者盖章后发生法律效力。
+落款
+审判员　李翔飞
+二〇二一年十二月二十九日
+书记员　孙瑞霞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407579852
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f68c29f332df9fa435683e759e75758cbdfb.html
+杨某、齐某等机动车交通事故责任纠纷民事一审民事调解书
+杨某、齐某等机动车交通事故责任纠纷民事一审民事调解书
+甘肃省成县人民法院
+民事调解书(2021)甘1221民初1478号
+当事人　　原告：杨某，住成县。
+　　委托诉讼代理人：安某，住成县，系原告配偶。
+　　被告：齐某，住成县。
+　　被告：中国人寿财产保险股份有限公司成县支公司，住所地：成县城关镇体育中心南看台1层。
+　　负责人：方某，职务：经理。
+　　委托诉讼代理人：李某，系该公司职工。
+　　原告杨某与被告齐某、中国人寿财产保险股份有限公司成县支公司(以下简称：人寿保险成县支公司)机动车交通事故责任纠纷一案，本院于2021年10月15日立案后，依法适用简易程序进行了审理。
+原告诉称　　杨某向本院提出诉讼请求：1．请求被告赔偿原告后续治疗费10000元、误工费54000元、护理费45000元、住院伙食费720元、营养费5400元，合计115120元，残疾赔偿金等，待鉴定后另行计算；2．本案诉讼费由被告承担。在审理过程中原告变更第一项诉讼请求为：请求被告赔偿原告一、医疗费：400元。二、误工费：29520元(误工期180天，参照2021年甘肃省农、林、牧、渔业人均工资标准59796.00元／年，每天按照164元计算)。三、护理费：20000元(护理期60天，护理人员系原告丈夫，其从事挖掘机中级操作工)。四、住院伙食补助费：1800元(住院18天，每天100元)。五、营养费：900元(营养期30天，每天30元)。六、残疾赔偿金：67643.6元(甘肃省城镇居民人均可支配收入：33821.8元／年，十级伤残)。七、后续治疗费：17053元。八、精神损害抚慰金：10000元。九、鉴定费：4900元。十、鉴定产生交通费：656元。十一、鉴定产生的住宿费及生活费844元。以上合计：153716.6元。事实与理由：2021年6月28日，被告驾驶×××小轿车，沿支伏路由东向西行驶行驶至支伏路10公里100米倒车时，将原告驾驶的由南向北行驶的×××号摩托车撞倒，造成原告受伤，两车受损的交通事故。经成县交通警察大队认定，被告齐某承担本起事故的全部责任。事发后，原告被送往成县人民医院进行抢救，经成县人民医院诊断，原告的伤情为：1．左肩锁骨脱位固定术；2．全身多处软组织挫伤。原告住院治疗18天后出院，现因赔偿事宜协商未果，原告依法起诉。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、由中国人寿财产保险股份有限公司成县支公司向原告杨某一次性支付误工费29520元、护理费9840元、住院伙食补助费720元、残疾赔偿金67643.6元、后续治疗费11000元等共计118723.6元；
+　　二、由被告齐某向原告杨某一次性支付鉴定费及鉴定产生的交通费共计5556元；
+　　三、原、被告双方再无其他争议；
+　　上列费用于本调解书生效之日起五日内支付。
+　　上述协议不违反法律规定，本院予以确认。
+　　案件受理费2602元，减半收取计1301元，由被告齐某承担。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审 判 员 牛　旭　明
+二〇二一年十二月二十八日
+法官助理     季福星
+书 记 员     何陇育
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407585997
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1feb19f77a445dccc6ecf5f3a2752d3bebdfb.html
+杨某某、孟某某运输合同纠纷民事一审民事调解书
+杨某某、孟某某运输合同纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初7947号
+当事人　　原告：杨某某。
+　　被告：孟某某。
+　　原告杨某某与被告孟某某广运输合同纠纷一案，因本案以调解方式结案，不予上网公开。
+落款
+审判员　郑学东
+二〇二一年十二月二十九日
+书记员　吴玲慧
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407961781
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce186d984e8fd1341876bd8df27b3974148bdfb.html
+杨某某、杨某某1等遗赠纠纷民事一审民事调解书
+杨某某、杨某某1等遗赠纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8604号
+当事人　　原告：杨某某。
+　　委托诉讼代理人：秦金峰，莱州明程法律服务所法律工作者。
+　　被告：杨某某1。
+　　被告：杨某某2。
+　　被告：杨某某3。
+　　原告杨某某与被告杨某某1,杨某某2,杨某某3遗赠纠纷一案，因本案以调解方式结案，不予上网公开。
+落款
+审 判 员　李 昕
+二〇二一年十二月二十九日
+法官助理　锁巧娜
+书 记 员　李 静
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408281838
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce18cc2d3671e68d0194320e2d53d927ef7bdfb.html
+杨秀梅、宋足桂民间借贷纠纷民事一审民事调解书
+杨秀梅、宋足桂民间借贷纠纷民事一审民事调解书
+贵州省贵阳市南明区人民法院
+民事调解书(2021)黔0102民初25524号
+当事人　　原告：杨秀梅。
+　　委托代理人：吴淳，贵州乾锋律师事务所律师。
+　　被告：宋足桂。
+　　原告杨秀梅诉被告宋足桂民间借贷同纠纷一案，本院立案受理后，依法适用简易程序进行了审理，原告诉请：1.依法判令被告向原告偿还本金350000元；2.依法判令被告向原告支付从2014年10月15日起至350000元支付完毕日止的全部利息损失，现暂定计息期间为：2014年10月15日—2021年11月23日(立案之日)，利息损失为381291.7元；(以上1、2项诉请金额共计：731291.7元)3.本案的诉讼费用由被告承担。
+　　本案在审理过程中，经本院委托特邀调解员赵琳主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、宋足桂偿还杨秀梅借款本金300000元及利息250000元，共计550000元，该款宋足桂分两期偿还，第一期于2022年1月20日前支付利息200000元，第二期于2022年3月31日前支付借款本金300000元及利息50000元；
+　　二、若宋足桂任有一期未按上述约定足额履行付款义务，杨秀梅有权就全部剩余款项向法院申请强制执行，并自逾期三十日起，以尚欠借款本金为基数，按年利率15.4%的标准支付逾期利息至借款付清之日；
+　　三、杨秀梅自愿放弃其余诉讼请求；
+　　四、案件受理费11112元减半收取5556元、保全费4176元，由杨秀梅自愿负担。
+　　上述协议,不违反法律规定,本院予以确认。
+　　本调解书经双方当事人签收后,即具有法律效力。
+落款
+审判员　骈冬梅
+二〇二一年十二月二十九日
+书记员　宋润玲
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407240904
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a2a543bff1d0bb6efba713fc751dbedcbdfb.html
+杭州某钢结构安装有限公司、某钢构集团有限公司建设工程合同纠纷民事一审民事调解书
+杭州某钢结构安装有限公司、某钢构集团有限公司建设工程合同纠纷民事一审民事调解书
+山东省烟台市莱山区人民法院
+民事调解书(2021)鲁0613民初2683号
+当事人　　原告杭州某钢结构安装有限公司与被告某钢构集团有限公司建设工程合同纠纷一案，本案调解结案，调解内容不公开。
+落款
+审判员 王 丹
+二〇二一年十二月二十九日
+书记员 宋晓萃
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407180931
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce170116e0ceca16943fab2a6550be046e7bdfb.html
+林某、王某离婚纠纷民事一审民事调解书
+林某、王某离婚纠纷民事一审民事调解书
+山东省栖霞市人民法院
+民事调解书(2021)鲁0686民初3268号
+当事人　　原告：林某
+　　被告：王某
+审理经过　　原告林某与被告王某离婚纠纷一案，本院于2021年12月28日立案后，依法适用简易程序公开开庭进行了审理，现已审理终结。
+原告诉称　　原告林某向本院提出诉讼请求：
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　调解协议不公开
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人同意在调解协议上签名或者盖章后发生法律效力。
+落款
+审判员　李翔飞
+二〇二一年十二月二十八日
+书记员　孙瑞霞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407359855
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1fede058a74db59d9ed02e7b28b081734bdfb.html
+栖霞某银某某村镇银行有限公司、刘某某民事一审民事调解书
+栖霞某银某某村镇银行有限公司、刘某某民事一审民事调解书
+山东省栖霞市人民法院
+民事调解书(2021)鲁0686民初3266号
+当事人　　原告：栖霞某银某某村镇银行有限公司。
+　　诉讼委托代理人：王某某。
+　　被告：刘某某。
+　　本调解协议经各方当事人在笔录上签名或盖章，本院予以确认后即具有法律效力。
+落款
+审判员　孙玉玲
+二〇二一年十二月二十八日
+书记员　林俊澳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407344154
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1b5de805d403192bfef2e2b0f58bece27bdfb.html
+毛某某、李某某离婚纠纷民事一审民事调解书
+毛某某、李某某离婚纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8615号
+当事人　　原告:毛某某。
+　　委托诉讼代理人:陈某,莱州福兴法律服务所法律工作者。
+　　被告:李某某。
+　　原告毛某某与被告李某某离婚纠纷一案，因本案以调解方式结案，内容不予公开。
+落款
+审 判 员　孙 磊
+二〇二一年十二月二十七日
+法官助理　姜宇萱
+书 记 员　侯玥超
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407943035
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce157918a642ccae5e19e199a2c6da435a9bdfb.html
+民事一审民事调解书
+民事一审民事调解书
+山东省烟台市莱山区人民法院
+民事调解书(2021)鲁0613民初2904号
+　　本案调解结案，调解协议不公开。
+落款
+审 判 员 刘尔盛
+二〇二一年十二月三十一日
+法官助理 毛 帅
+书 记 员 栾圣林
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">中华人民共和国最高人民法院
 民 事 调 解 书
 （2014）民提字第215号
@@ -6421,6 +8361,579 @@
 代理审判员　　孙利建
 二〇一四年十一月二日
 书　记　员　　张茜娟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408000166
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f5f95798ae9d89d7d15b39517c1838cdbdfb.html
+汪瑞芳、陈小林等机动车交通事故责任纠纷民事一审民事调解书
+汪瑞芳、陈小林等机动车交通事故责任纠纷民事一审民事调解书
+甘肃省清水县人民法院
+民事调解书(2021)甘0521民初583号
+当事人　　原告：汪瑞芳。
+　　委托诉讼代理人：王建民(系汪瑞芳丈夫)。
+　　委托诉讼代理人：刘满湘，甘肃远湘律师事务所律师。
+　　被告：陈小林。
+　　被告：清水县天森药业科技种植有限公司，住所地：甘肃省天水市清水县松树乡(现松树镇)椅山村九湾里。
+　　法定代表人：李媛，系该公司总经理。
+　　委托诉讼代理人：辛军锋。
+　　委托诉讼代理人：刘冰，甘肃纪元律师事务所律师。
+　　原告汪瑞芳与被告陈小林、清水县天森药业科技种植有限公司机动车交通事故责任纠纷一案，汪瑞芳于2021年4月2日向本院起诉。本院受理后，依法适用简易程序公开开庭进行了审理。
+原告诉称　　汪瑞芳向本院提出诉讼请求：1、请求依法判令陈小林与天森药业公司支付给汪瑞芳医疗费800元，误工费77000元，护理费13860元，交通住宿费3000元，住院伙食补助费3000元、营养费1200元、残疾赔偿金64646.80元、被扶养人生活费5816.34元、后续治疗费15000元、精神抚慰金2000元、鉴定费3200元。以上共计189523.14元；2、本案诉讼费由陈小林与天森药业公司承担。庭审中，汪瑞芳变更第一项诉讼请求中的医疗费为579.6元，住院天数变更为32天，伙食补助费变更为3200元，总计金额变更为189502.74元。事实和理由：2019年3月份，汪瑞芳在天森药业公司打工，上下班均由天森药业公司派车接送。2019年4月26日19时30分许，该公司司机陈小林驾驶甘E66436三轮车载原告回家途中，沿X045线由清水县松树镇天森药业中药材种植基地向清水县松树镇代王村方向行驶300米左转弯时，车厢右侧门突然打开，导致汪瑞芳从车厢掉落受伤。事故发生后，汪瑞芳立即被送到天水市第一人民医院抢救治疗，被诊断为：“肩峰骨折、髂骨骨折、髂臼骨折、骨盆骨折、胸部损伤等”，住院治疗31天后出院。因汪瑞芳伤势过重，出院后继续在家疗养治疗。该事故经清水县公安局交通警察大队于2019年6月11日作出事故认定书，认定陈小林承担此次事故的全部责任。汪瑞芳为维护其合法权益，特诉至法院，请求判如所请。
+　　本案在审理过程中，清水县天森药业科技种植有限公司申请对汪瑞芳的伤残等级、误工期限、护理期限、后续治疗费进行鉴定。经当事人协商确定甘肃信元司法鉴定所为本案的鉴定机构，该鉴定机构于2021年7月25日出具甘信元司鉴所[2021]临鉴字第000701号司法鉴定意见书，鉴定意见为：1.被鉴定人汪瑞芳骨盆损伤伤残等级评定为十级；2.被鉴定人汪瑞芳误工期限评定为150日；3.被鉴定人汪瑞芳护理期限评定为60日；4.被鉴定人汪瑞芳后续治疗费用评定为人民币肆仟(4000)元。
+　　在审理中查明：汪瑞芳的损失如下：1.医疗费为45104.46元。2.误工费24573元。3.护理费为9829.2元。4.交通费619元5.住宿费为200元。6.住院伙食补助费为1240元。7.残疾赔偿金为67643.6元。8.被扶养人生活费为5953.74元。9.后续治疗费为8000元。10.精神损害抚慰金为2000元。11.鉴定费为4000元。以上损失合计为169163元，减去清水县天森药业科技种植有限公司付给汪瑞芳医疗费等51931.4元，下剩117231.6元。
+　　本案审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、清水县天森药业科技种植有限公司同意支付汪瑞芳医疗费等10.3万元，于2022年1月20日前支付汪瑞芳医疗费等5万元，于2022年2月20日前支付汪瑞芳医疗费等5.3万元；
+　　二、案件受理费1890元，减半收取945元，由汪瑞芳负担472.5元，清水县天森药业科技种植有限公司负担472.5元。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审判员　马贵平
+二〇二一年十二月二十九日
+书记员　糟玉英
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408063610
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1fe9145371d4de9ffff69cc66d0637d18bdfb.html
+津市天源物业服务有限公司、鲁礼春物业服务合同纠纷民事一审民事调解书
+津市天源物业服务有限公司、鲁礼春物业服务合同纠纷民事一审民事调解书
+湖南省津市市人民法院
+民事调解书(2021)湘0781民初1037号
+当事人　　原告：津市天源物业服务有限公司，住所地津市市三洲驿办事处桥北社区车胤大道400号。
+　　法定代表人：王娟，该公司总经理。
+　　委托诉讼代理人：晏维。
+　　被告：鲁礼春。
+　　委托诉讼代理人：游刚，津市市名正法律服务所法律工作者。
+　　原告津市天源物业服务有限公司与被告鲁礼春物业服务合同纠纷一案，本院于2021年10月18日立案后，依法进行了审理。
+原告诉称　　原告向本院提出诉讼请求：1.判令鲁礼春支付物业管理费15705元；2.判令鲁礼春支付滞纳金2548元。事实和理由：鲁礼春系津市市水岸银都小区业主，津市天源物业服务有限公司依据合同约定为该小区提供了物业管理服务。津市天源物业服务有限公司依法享有收取物业管理费的权利，鲁礼春应缴纳物业管理费。但鲁礼春自2012年11月1日起没有按期交纳物业费，依据合同约定，鲁礼春还应支付滞纳金。经津市天源物业服务有限公司催收未果，特具状起诉。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、截止2021年12月3日止，鲁礼春共欠津市天源物业服务有限公司物业管理费15705元，于2021年12月31日一次性支付8000元，余款津市天源物业服务有限公司自愿放弃；
+　　二、鲁礼春家中因墙面渗水需要维修，由鲁礼春自行修缮，费用自行负担。今后房屋公共部分如产生新的需要维修的情形，鲁礼春与津市天源物业服务有限公司另行协商处理；
+　　三、鲁礼春自2022年1月1日起按合同约定向津市天源物业
+　　服务有限公司继续缴纳物业管理费；
+　　案件受理费256元，减半收取128元，由鲁礼春负担。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审 判 员 李平章
+二〇二一年十二月三十一日
+法官助理 王茜茜
+书 记 员 刘雨薇
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408216958
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce199820a4cbf6df9f14e635a3d1003d3bebdfb.html
+深圳市金鼠影视传媒有限公司、深圳鲲鹏影视文化传媒有限公司等借款合同纠纷民事一审民事调解书
+深圳市金鼠影视传媒有限公司、深圳鲲鹏影视文化传媒有限公司等借款合同纠纷民事一审民事调解书
+广东省深圳市福田区人民法院
+民事调解书(2021)粤0304民初40103号
+当事人　　原告：深圳市金鼠影视传媒有限公司，住所广东省深圳市宝安区新桥街道沙企社区桥头北路40号一层，统一社会信用代码91440300MA5D89U74X。
+　　法定代表人：王心宁，系该公司执行董事兼总经理。
+　　委托代理人：邓敏敏，北京市浩天信和(深圳)律师事务所律师。
+　　委托代理人：向文驰，北京市浩天信和(深圳)律师事务所实习律师。
+　　被告：深圳鲲鹏影视文化传媒有限公司，住所深圳市福田区南园街道滨江社区滨河大道2001号8楼T-PARK深港影视创意园806室，统一社会信用代码91440300MA5DHXC664。
+　　法定代表人：熊鹏。
+　　被告：熊鹏。
+　　两被告共同委托代理人：陈逸琼，广东润鹏律师事务所律师。
+　　两被告共同委托代理人：江健豪，广东润鹏律师事务所律师。
+　　上列原告深圳市金鼠影视传媒有限公司诉被告深圳鲲鹏影视文化传媒有限公司、熊鹏借款合同纠纷一案，本院于2021年7月21日立案后，依法适用独任制普通程序，公开开庭进行了审理。
+原告诉称　　原告诉请：1、判令二被告共同向原告偿还借款本金人民币240万元；2、判令二被告共同向原告支付借款期间的利息人民币30.8万元(以借款本金240万元为基数，借款期间为1年，按全国银行间同业拆借中心公布的贷款市场报价利率的四倍计算)；3、判令二被告共同向原告支付逾期偿还借款的利息(自拖欠之日起，按全国银行间同业拆借中心公布的贷款市场报价利率的四倍计算至实际清偿之日止)，暂计算至2021年7月15日，逾期利息为人民币7680元；4、判令二被告共同承担本案全部诉讼费。
+　　本案在审理过程中，经本院主持调解，各方当事人自愿达成以下协议：
+裁判结果　　一、被告深圳鲲鹏影视文化传媒有限公司、熊鹏应向原告深圳市金鼠影视传媒有限公司支付借款本金240万元及利息66.88万元，共计款项306.88万元；
+　　二、上述款项被告深圳鲲鹏影视文化传媒有限公司、熊鹏予以分以下四期支付，具体支付方式如下：1.被告深圳鲲鹏影视文化传媒有限公司、熊鹏应于2022年1月6日前向原告深圳市金鼠影视传媒有限公司支付利息15万元；2.被告深圳鲲鹏影视文化传媒有限公司、熊鹏应于2022年2月6日前向原告深圳市金鼠影视传媒有限公司支付利息35万元；3.被告深圳鲲鹏影视文化传媒有限公司、熊鹏应于2022年4月6日前向原告深圳市金鼠影视传媒有限公司支付利息7万元；4.被告深圳鲲鹏影视文化传媒有限公司、熊鹏应于2022年7月6日前向原告深圳市金鼠影视传媒有限公司支付本金240万元及利息9.88万元(该第4期款项如在被告未足额支付的情况下，所付款项先冲抵利息)；
+　　三、如被告深圳鲲鹏影视文化传媒有限公司、熊鹏上述任一期逾期或不足额支付上述款项，则被告深圳鲲鹏影视文化传媒有限公司、熊鹏应于逾期或不足额支付之次日向原告深圳市金鼠影视传媒有限公司一次性支付该期款项之前(含该期款项)所欠全部利息(利息数额按照前款明确金额计算)及剩余本金；
+　　四、上述款项按时支付完毕后，原告深圳市金鼠影视传媒有限公司与被告深圳鲲鹏影视文化传媒有限公司、熊鹏就本案的权利义务关系完全结清。
+　　本案案件受理费28525.44元，保全费5000元，共计33525.44元(已由原告预交)，案件受理费减半收取14262.72元，保全费5000元，共计19262.72元，由被告深圳鲲鹏影视文化传媒有限公司、熊鹏承担(由被告深圳鲲鹏影视文化传媒有限公司、熊鹏于2022年4月6日前径付原告深圳市金鼠影视传媒有限公司)。
+本院查明　　经审查，上述协议符合自愿、合法原则，本院予以确认。
+　　各方当事人一致同意本调解协议自各方在调解笔录上签名即具有法律效力。
+落款
+审判员 杜　 阳
+二〇二一年十二月三十日
+书记员 郭盈(代)
+书记员 黄　 倩
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407263365
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce11f5b1a5707d08f5507673f525f4db1dabdfb.html
+湖南省红人建筑装饰有限公司、酒泉马记手工挂面生态文化村开发有限公司建设工程施工合同纠纷民事一审民事调解书
+湖南省红人建筑装饰有限公司、酒泉马记手工挂面生态文化村开发有限公司建设工程施工合同纠纷民事一审民事调解书
+甘肃省酒泉市肃州区人民法院
+民事调解书(2020)甘0902民初6144号
+当事人　　原告(反诉被告)：湖南省红人建筑装饰有限公司，住所地，湖南省邵阳市北塔区江北办事处北塔村373号，统一社会信用代码914305117828900864。
+　　法定代表人：黄某，该公司总经理。
+　　委托诉讼代理人：李某，甘肃长治律师事务所律师。
+　　被告(反诉原告)：酒泉马记手工挂面生态文化村开发有限公司，住所地，甘肃省酒泉市肃州区银达镇酒怀路44号，统一社会信用代码916209003322422684。
+　　法定代表人：马某，该公司经理。
+　　委托诉讼代理人：朱某，甘肃宪辉律师事务所律师。
+审理经过　　原告湖南省红人建筑装饰有限公司与被告酒泉马记手工挂面生态文化村开发有限公司建设工程施工合同纠纷一案，本院于2020年11月24日立案后，依法适用普通程序，公开开庭进行了审理。原告湖南省红人建筑装饰有限公司的法定代表人黄某及委托诉讼代理人李某、被告酒泉马记手工挂面生态文化村开发有限公司法定代表人马某及委托诉讼代理人朱某到庭参加诉讼，现已审理终结。
+原告诉称　　原告湖南省红人建筑装饰有限公司向本院提出诉讼请求：1．判令被告支付剩余的工程款805335.28元；2．被告支付逾期支付工程款的违约利息148584.36元(2018年6月30日至2020年9月30日，按照年利率8.2％)；3.2020年9月30日之后的违约利息按照年利率8.2％计算至被告付清全部工程款之日4．被告支付提前撤场的可得利益损失50000元；5．确认原告的工程款具有优先支付权；6．本案的诉讼费由被告承担。事实及理由：2017年10月26日，原、被告签订了建筑施工承包合同。双方约定由原告为被告修建钢结构厂房2栋，承包总价款为1616000元，2018年6月30日前完工。因被告不能按时支付工程进度款，导致工程停工。2018年4月27日，双方签订补充协议，约定被告按照约定支付完毕工程进度款后，通知原告开工，但被告未按照约定支付工程进度款。经核算，原告实际完成的工程量为1105335.28元，被告实际支付工程款300000元，剩余805335.28元至今未支付。双方因协商支付事宜无果，引发纠纷。
+　　被告酒泉马记手工挂面生态文化村开发有限公司提出反诉请求：1．反诉被告湖南省红人建筑装饰有限公司赔偿反诉原告损失共计161600元；2．反诉费由反诉被告承担。事实及理由：2017年10月16日，双方签订《建筑施工承包合同》1份，合同对工程概况、工期、价款等权利义务进行了约定。但是在实际施工时，反诉被告存在严重的施工技术障碍，导致工程不合格，我公司又委托他人返工。现因无法协商，引发纠纷。
+　　本案在本院主持调解过程中，原、被告双方自愿达成如下协议：
+裁判结果　　一、被告酒泉马记手工挂面生态文化村开发有限公司下欠原告湖南省红人建筑装饰有限公司工程款390000元，原告湖南省红人建筑装饰有限公司支付被告酒泉马记手工挂面生态文化村开发有限公司钢结构修复费用40000元，上述费用双方互顶后被告酒泉马记手工挂面生态文化村开发有限公司支付原告湖南省红人建筑装饰有限公司工程款350000元，于2022年5月10日前支付50000元，2022年12月30日前支付150000元，2023年3月30日前支付50000元，2023年12月30日前支付100000元，被告如有一期不按时支付，原告可申请被告一次性支付下剩工程款；
+　　二、从2022年1月1日起以相互抵顶后的下剩工程款为本金按年息6％支付利息至付清为止，若被告酒泉马记手工挂面生态文化村开发有限公司不按上述时间按时支付，按年息8.3％支付下剩工程款的利息；
+　　三、原、被告双方缴纳的鉴定费由各自承担；
+　　四、原告湖南省红人建筑装饰有限公司于最后一次付款日同时交付被告酒泉马记手工挂面生态文化村开发有限公司已完工的土建的工程资料，该资料原告湖南省红人建筑装饰有限公司仅负责其公司的签字盖章，其他单位的签字盖章手续由被告酒泉马记手工挂面生态文化村开发有限公司负责，若因被告的原因没有办理监督手续造成的后果由被告酒泉马记手工挂面生态文化村开发有限公司自行负担。
+　　五、原告放弃其他诉讼请求。
+　　六、签订本协议后，原告湖南省红人建筑装饰有限公司对涉案工程质量再不负责，由被告酒泉马记手工挂面生态文化村开发有限公司负责；
+　　七、双方再无其他争议。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费13836元，减半收取6918元，由原告湖南省红人建筑装饰有限公司负担；反诉费1766元，由被告酒泉马记手工挂面生态文化村开发有限公司负担。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 长 陈　　 岩
+人民陪审员      秦军
+人民陪审员     赵艳霞
+二〇二一年十二月二十七日
+法官 助理      孙莹
+书 记 员     茹晶晶
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407680202
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1865bd847c26d92778b245ca6cd171078bdfb.html
+烟台大明凯顿建筑防水有限责任公司、烟台市莱山区万卷培训学校有限公司房屋租赁合同纠纷民事一审民事调解书
+烟台大明凯顿建筑防水有限责任公司、烟台市莱山区万卷培训学校有限公司房屋租赁合同纠纷民事一审民事调解书
+山东省烟台市莱山区人民法院
+民事调解书(2021)鲁0613民初2798号
+当事人　　原告烟台大明凯顿建筑防水有限责任公司与被告烟台市莱山区万卷培训学校有限公司房屋租赁合同纠纷一案，本案调解结案，调解内容不公开。
+落款
+审判员 王 丹
+二〇二一年十二月三十日
+书记员 宋晓萃
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407816219
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ae4004d9678a40c753f2920bb230de29bdfb.html
+烟台艾瑞叉车销售有限公司、张伟等民间借贷纠纷民事一审民事调解书
+烟台艾瑞叉车销售有限公司、张伟等民间借贷纠纷民事一审民事调解书
+山东省烟台市芝罘区人民法院
+民事调解书(2021)鲁0602民初10660号
+当事人　　原告：烟台艾瑞叉车销售有限公司，住所地烟台市芝罘区幸福南路西15号付6号。
+　　法定代表人：李晓飞，该公司执行董事兼总经理。
+　　委托诉讼代理人：赵子翔，山东岱言律师事务所律师。
+　　被告：张伟。
+　　被告：陈丽。
+　　被告：山东六条贸易有限公司，住所地山东省威海市经济技术开发区悦海花园18号-9号。
+　　法定代表人：苏铮，该公司执行董事兼经理。
+　　被告：苏铮。
+　　四被告共同委托诉讼代理人：黄婕，山东齐鲁(威海)律师事务所律师。
+　　原告烟台艾瑞叉车销售有限公司与被告张伟、陈丽、山东六条贸易有限公司、苏铮民间借贷纠纷一案，本院于2021年11月2日受理后，依法适用简易程序，公开开庭进行了审理。
+原告诉称　　原告向本院提出诉讼请求：判决四被告共同偿还原告借款本金1050000元及利息29792.67元(自2021年2月1日起至2021年10月28日止以1050000元为基数按照年利率3.85%计算)，并自2021年10月29日起至实际给付之日止按照全国银行间同业拆借中心公布的贷款市场报价利率计付利息。事实和理由：被告张伟与被告苏铮系夫妻，被告陈丽系被告张伟的母亲。2021年1月21日，被告张伟向原告借款3000000元。同日，原告通过其银行转账向被告山东六条贸易有限公司银行账户转账支付借款本金2050000元，指示案外人张磊通过其个人账户向被告陈丽银行账户转账支付借款本金650000元，通过案外人张伟担任法定代表人的烟台沐鑫商贸有限公司银行账户向被告陈丽银行账户转账支付借款本金300000元。此后，被告偿还原告借款本金2300000元，剩余借款本金未予偿还。原告向四被告追索借款未果，遂状诉至本院。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告张伟、陈丽、山东六条贸易有限公司、苏铮于2021年12月31日前共同偿还原告烟台艾瑞叉车销售有限公司借款本金500000元，于2022年2月28日前偿还原告烟台艾瑞叉车销售有限公司借款本金200000元及借款利息200000元，原告烟台艾瑞叉车销售有限公司自愿放弃其他诉讼请求。
+　　二、如果被告张伟、陈丽、山东六条贸易有限公司、苏铮不能于2022年2月28日前付清原告烟台艾瑞叉车销售有限公司借款本息900000元，则被告张伟、陈丽、山东六条贸易有限公司、苏铮应再另行自2022年3月1日起至实际给付之日止以700000元为基数按照年利率3.8%计付利息。
+　　三、原告烟台艾瑞叉车销售有限公司于2021年12月28日前申请解除对被告张伟、陈丽、山东六条贸易有限公司、苏铮银行账户内存款1150000元的冻结或相应价值财产的查封。
+　　四、案件受理费14518元减半收取7259元，保全费5000元，由被告张伟、陈丽、山东六条贸易有限公司、苏铮自愿负担，款项于2022年2月28日前迳付给原告烟台艾瑞叉车销售有限公司。
+本院查明　　双方当事人一致同意本调解协议自双方在笔录上签名或盖章，经本院确认后即具有法律效力。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员 柳　程　远
+二〇二一年十二月二十七日
+书记员 杜沛优(代)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407909745
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12c129c4f98385b988aeb52eb3f8ad6abbdfb.html
+特变电工沈阳变压器集团有限公司、新东北电气集团超高压有限公司买卖合同纠纷民事一审民事调解书
+特变电工沈阳变压器集团有限公司、新东北电气集团超高压有限公司买卖合同纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6336号
+当事人　　原告：特变电工沈阳变压器集团有限公司，住所地沈阳经济技术开发区开发大路32号。
+　　法定代表人：马旭平，系公司董事长。
+　　委托诉讼代理人：赵某。
+　　被告：新东北电气集团超高压有限公司，住所地辽宁省营口经济技术开发区滨海工业区。
+　　法定代表人：徐永春，系公司董事长。
+　　委托诉讼代理人：彭某。
+　　原告特变电工沈阳变压器集团有限公司诉被告新东北电气集团超高压有限公司买卖合同纠纷一案。
+落款
+审判员　刘楠
+二〇二一年十二月二十八日
+书记员　王丽
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407711200
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1cd9ce7b1d55329a32931b9c421337ca1bdfb.html
+王某1、马某同居关系纠纷民事一审民事调解书
+王某1、马某同居关系纠纷民事一审民事调解书
+甘肃省康乐县人民法院
+民事调解书(2021)甘2922民初2336号
+当事人　　原告:王某1。
+　　被告:马某。
+审理经过　　原告王某1诉被告马某同居关系子女扶养纠纷一案。本院于2021年12月2日受理后，依法适用普通程序，公开开庭进行了审理。原、被告均到庭参加了诉讼，本案现已审理终结。
+原告诉称　　原告王某1的诉讼请求：1.判令原、被告非婚生子王某2由原告扶养，被告一次性向原告支付抚养费5万元;2.判令被告返还彩礼140000元、返还三金15000元;3.本案诉讼费用由被告承担。事实与理由：原、被告经媒人介绍认识，于2018年农历正月初六按照乡俗举办结婚仪式，婚后因年龄原因未办理结婚证。于2019年1月9日生育非婚生女王某2，现年3岁。原、被告系包办婚姻，无感情基础。婚后刚开始原、被告双方感情很好，双方没有大的矛盾。在生育女儿王某2后，原、被告经常因琐事发生争吵。原、被告因双方年龄差距较大，原告及其家人多方面照顾被告，原告父母把被告当做自己的女儿一样对待。但被告在生育女儿王某2后，无任何原因对原告的态度发生了极大转变。女儿王某2一岁左右时，被告以回娘家为由丢下年幼的女儿无故偷跑到昆明，原告报警后辗转多地在昆明市找到，将被告带回家。2020年5月份，二人到宁波务工。2020年7月10日，原被告买飞机票回家，在等待回家途中，被告又趁原告不备再次逃跑至今未归,对年幼的女儿也不管不问。在举行婚礼前，原告向被告送彩礼160000元，被告返还20000元，原告还给被告购买了价值15000元的三金，三金由被告带走。原告家庭困难，为与被告结婚举债累累，目前还欠债80000元，综上所述，原被告在同居期间，并未发生大的矛盾，但被告多次无故离家出走,还对原告恶语相加，拿婚姻当儿戏，拒不对家庭女儿负责等原因致二人感情彻底破裂，二人感情已无挽回的余地，望判如所请。
+被告辩称　　被告辩称：原告所述的结婚时间正确，结婚证也没有办理，婚前原告送给她彩礼14万元与三金属实，三金已经被她卖掉了，孩子现在由男方抚养，她要求抚养孩子，彩礼她愿意返还原告2万元。如果孩子原告坚决要求抚养她也同意，孩子抚养费她愿意承担2万元，她现在在浙江做风扇的知联电子厂上班，他们是2020年7月份分开的。她再原告家没去。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、孩子王某2由原告王某1抚养，由被告马某一次性给付抚养费两万元整。
+　　二、由被告马某返还原告王某1彩礼两万元整。
+　　三、以上一、二项合计由被告马某给付原告王某1四万元整，于2022年1月13日之前付清。
+　　案件受理费100元，减半收取50元，由原告王某1承担。
+　　上述协议不违反法律规定，本院予以确认。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审 判 长　张明清
+人民陪审员　马春兰
+人民陪审员　杨灵君
+二〇二一年十二月二十八日
+书 记 员　马红梅
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408485815
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a48839243acab62e87e6f15b10eb87e0bdfb.html
+王某、郭某1等婚约财产纠纷民事一审民事调解书
+王某、郭某1等婚约财产纠纷民事一审民事调解书
+甘肃省宕昌县人民法院
+民事调解书(2021)甘1223民初1838号
+当事人　　原告：王某。
+　　被告：郭某1。
+　　被告：郭某2。系被告郭某1父亲。
+　　被告：赵某。系被告郭某1母亲。
+　　委托代理人：徐某，甘肃腾谦律师事务所律师。
+　　原告王某诉被告郭某1、郭某2、赵某婚约财产纠纷一案，本院于2021年12月14日立案。
+　　本案审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、由被告郭某1、郭某2、赵某连带返还原告王某彩礼共计25000元，限于2022年6月29日前付清；
+　　二、被告郭某1的陪嫁物品电视机一台，茶几、电视柜、冰箱、洗衣机各一台，沙发一套，梳妆台一个，组合衣柜一套，双人床一张，豪爵牌150两轮摩托车一辆归原告王某所有；
+　　三、购买的首饰钻石戒指一枚，黄金项链一条，黄金手镯一只，铂金耳钉一对归原告王某所有(被告郭某1已当庭向原告王某交付)；
+　　四、本案诉讼费100元，因适用调解减半收取50元由原告王某负担。
+落款
+审 判 员 祁　玉　斌
+二〇二一年十二月二十九日
+法官助理     肖朋兵
+书 记 员      陈曦
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407988179
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1dc465da7e07d49178e25449a7517b559bdfb.html
+王某某、王某某1等农村房屋买卖合同纠纷民事一审民事调解书
+王某某、王某某1等农村房屋买卖合同纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8663号
+当事人　　原告：王某某。
+　　被告：王某某1。
+　　被告：高某某。
+　　原告王某某与被告王某某1、高某某农村房屋买卖合同纠纷一案，因本案以调解方式结案，不予上网公开。
+落款
+审 判 员　李 昕
+二〇二一年十二月三十日
+法官助理　锁巧娜
+书 记 员　李 静
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407952282
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1610700200789438d9fefd861862c6118bdfb.html
+王某涉侵犯公民个人信息罪刑事一审案件刑事附带民事调解书
+王某涉侵犯公民个人信息罪刑事一审案件刑事附带民事调解书
+上海市宝山区人民法院
+刑事附带民事调解书(2021)沪0113刑初602号
+　　附带民事公益诉讼起诉人：上海市宝山区人民检察院。
+　　附带民事公益诉讼被告：王志鑫。
+当事人　　委托诉讼代理人：程某，上海三越律师事务所律师。
+　　附带民事公益诉讼被告：孙某2。
+　　法定代理人：孙某(系被告孙某2之父)。
+　　附带民事公益诉讼被告：孙某，身份事项同上。
+　　附带民事公益诉讼被告：于某(系被告孙洪达之母)。
+　　上列三名附带民事公益诉讼被告的委托诉讼代理人：刘某，上海市沪北律师事务所律师。
+　　附带民事公益诉讼被告：李某2。
+　　法定代理人：李某(被告李欣隆之父)。
+　　附带民事公益诉讼被告：李某，身份事项同上。
+　　附带民事公益诉讼被告：李某3(被告李欣隆之母)。
+　　上列三名附带民事公益诉讼被告的委托诉讼代理人：苗某，上海银星律师事务所律师。
+审理经过　　附带民事公益诉讼起诉人上海市宝山区人民检察院诉附带民事公益诉讼被告王志鑫、孙洪达、孙某、于洪波、李欣隆、李某、李雪琴侵犯公民个人信息民事公益诉讼一案，本院立案受理后，依法组成合议庭，公开开庭进行了审理。
+　　本案在审理过程中，附带民事公益诉讼起诉人上海市宝山区人民检察院与附带民事公益诉讼被告王志鑫、孙洪达、孙某、于洪波、李欣隆、李某、李雪琴自愿达成如下协议：
+裁判结果　　一、被告王志鑫、孙某、于洪波为非法出售公民个人信息600余条、非法获取公民个人信息5亿余条所造成的损害，承担人民币6,000元的赔偿责任；
+　　二、被告王志鑫、孙洪达、李欣隆永久删除其保存的涉案公民个人信息数据；
+　　三、被告王志鑫、孙某、于洪波、李某、李雪琴就其非法出售、获取公民个人信息的行为在全国媒体上公开赔礼道歉。
+　　上述协议，不违反有关法律规定，本院予以确认。
+落款
+审 判 长　周 皓
+人民陪审员　李有君
+人民陪审员　杜建红
+二〇二一年十二月三十日
+书 记 员　范楠楠
+附法律依据附：相关法律条文
+《中华人民共和国民事诉讼法》
+第九十三条人民法院审理民事案件，根据当事人自愿的原则，在事实清楚的基础上，分清是非，进行调解。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408033236
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f2f5edcf35118c5855efbaff0e1547c4bdfb.html
+王梓烨、马娇民间借贷纠纷民事一审民事调解书
+王梓烨、马娇民间借贷纠纷民事一审民事调解书
+沈阳市大东区人民法院
+民事调解书(2021)辽0104民初16611号
+当事人　　原告:王梓烨。
+　　被告：马娇。
+审理经过　　原告王梓烨与被告马娇民间借贷纠纷一案，本院于2021年11月15日受理后，依法由审判员陈陕霞独任审判，公开开庭进行了审理，原告王梓烨，被告马娇均到庭参加诉讼，本案现已审理终结。
+原告诉称　　原告诉称：诉讼请求为：1、请求法院判令被告支付原告欠款人民币5000元(大写：五千元整)。2、诉讼费用全部由被告承担。事实与理由：原告与被告系(楼上楼下邻居)关系。2020年11月14,被告向原告借款金额为人民币10000元。2020年11月16日还款5000元，剩余5000元，至今被告拒不还款。原告在2020年11月19日、同年12月12日、2021年5月1日、7月20日、9月29日、10月29日，原告6次催促被告还款，被告每次都未履行还款义务！10月31号至今微信和被告说话，被告不回复，原告微信留言被告10天之内不还款便起诉解决，被告至今没有还款！据此，为维护原告的合法权益，依照《中华人民共和国民事诉讼法》相关规定诉至贵院，请依法支持原告的诉请。
+被告辩称　　被告辩称：原告所述均属实，借款时间与金额都属实。我当时向原告借钱是因为我理财，后来我被骗了，所以钱实在是还不上。我现在只能等房子卖了把钱还给原告。如果原告着急让我还钱，我也可以每个月开工资还她一半。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告马娇偿还原告王梓烨欠款5000元(于2022年2月起每月还款1000元，至欠款还清止)；
+　　二、原、被告双方无其他纠纷。
+　　案件受理费50元，减半收取25元，由被告承担。
+　　双方当事人一致同意本调解协议，自双方在调解协议笔录上签名或捺印即具有法律效力。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员　陈陕霞
+二〇二一年十二月三十日
+书记员　王佳妮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407956796
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12368e50a1db6dd53198a2875eec12266bdfb.html
+田佑祥、何汉志等追偿权纠纷民事一审民事调解书
+田佑祥、何汉志等追偿权纠纷民事一审民事调解书
+湖南省邵阳市双清区人民法院
+民事调解书(2021)湘0502民初2141号
+当事人　　原告：田佑祥。
+　　原告：何汉志。
+　　被告：湖南金信典当有限责任公司。住所地：长沙市开福区芙蓉北路街道金泰路199号湘江世纪城瑞江苑-1389、-1390房。
+　　法定代表人：凌红昌,系该公司董事长。
+　　委托诉讼代理人：唐高至。系该公司执行董事。
+　　本院于2021年12月13日受理了原告田佑祥、何汉志与被告湖南金信典当有限责任公司追偿权纠纷一案后，于2021年12月30日进行了调解。
+原告诉称　　原告田佑祥、何汉志请求本院判令：1、被告归还因合伙经营业务的欠款人民币39万元给两原告(其中原告田佑祥30万元，何汉志9万元)；2、本案诉讼费用由被告承担。
+　　经本院主持调解，原、被告双方自愿达成以下调解协议：
+裁判结果　　一、被告湖南金信典当有限责任公司自愿偿还原告田佑祥30万元，何汉志9万元；
+　　二、被告湖南金信典当有限责任公司自愿以其在邵阳市双清区人民法院执行局所有执行案件回款中，优先支付两原告上述款项，但该两笔款项最迟在2023年12月31日前支付完毕。如被告湖南金信典当有限责任公司到期未归还该笔款项，其自愿从2024年开始每年承担2万元违约金给两原告(每年12月31日前支付)，直到还清为止；
+　　三、本案诉讼费用3575元，原告田佑祥、何汉志自愿承担；
+　　四、双方再无其它争议。
+　　上述协议不违反法律规定，本院予以确认。
+　　本调解书自双方当事人签收后，即具有法律效力。
+落款
+审 判 员 李荣军
+二〇二一年十二月三十日
+法官助理 姚 威
+书 记 员 刘文波
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407707952
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce14645b06fd0c89d99fb2c458a9acca713bdfb.html
+田某某、张某某离婚纠纷民事一审民事调解书
+田某某、张某某离婚纠纷民事一审民事调解书
+甘肃省康乐县人民法院
+民事调解书(2021)甘2922民初2389号
+当事人　　原告：田某某。
+　　被告：张某某。
+　　原告田某某诉被告张某某离婚纠纷一案，本院于2021年12月8日立案，依法适用简易程序进行了审理。
+原告诉称　　原告向本院提出诉讼请求：1、依法判令原、被告离婚；2、依法判令婚生女孩张某甲由原告抚养，婚生男孩张某乙由被告抚养，抚养费自理；3、本案诉讼费由被告承担。事实和理由：原、被告经人介绍于2004年年底按乡俗举行结婚仪式，2005年10月生育女孩张某甲，2007年3月11日补办结婚登记手续，2008年11月生育男孩张某乙，婚后双方感情一般。2018年6月份，被告在家无故殴打原告，2021年9月，原、被告外出务工，被告又无端对原告实施家暴。被告的家庭暴力行为严重伤害了夫妻感情，原告失去了与被告一起生活的信心。
+被告辩称　　被告张某某口头辩称，同意与原告离婚，要求两个孩子均由自己抚养，原告承担孩子抚养费。
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　被告张某某同意与原告田某某离婚；
+　　两个孩子均由被告张某某抚养，原告一次性给付抚养费50000元(已当庭履行)；
+　　三、其他无争议。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费100元，减半收取50元，由原告负担。
+　　本调解书经各方当事人在调解笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审判员　马忠孝
+二〇二一年十二月二十九日
+书记员　白志杰
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408103409
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce185d022278e0235bd82d56f200879d03bbdfb.html
+罗某、刘某民间借贷纠纷民事一审民事调解书
+罗某、刘某民间借贷纠纷民事一审民事调解书
+甘肃省成县人民法院
+民事调解书(2021)甘1221民初1690号
+当事人　　原告：罗某。
+　　被告：刘某。
+　　原告罗某与被告刘某民间借贷纠纷一案，本院于2021年12月29日立案后，依法适用简易程序公开进行了庭前调解，并达成了调解协议。
+原告诉称　　原告罗某向本院提出诉讼请求：1．请求被告立即归还原告本金40000元及按照同期人民银行市场报价利率承担利息；2．本案诉讼费由被告承担。事实和理由：原被告互相认识，被告于2020年10月24日因做生意向原告借款50000元，原告为帮助被告就同意了，并于当日以通过微信转账支付给了被告。被告当场书写了借条。到期后原告多次向被告索要借款，在推脱到第九个月，被告通过微信向原告转账还款10000元，剩余的40000元被告均以各种理由推脱不还。原告认为，当初同意借款是出于信任，被告应当及时归还，但至今未还。现起诉到法院，望依法判处。
+　　经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　被告刘某欠原告罗某借款本金40000元及利息2000元，由被告刘某在2022年1月30日之前支付10000元，剩余的32000元在2022年3月30日之前付清。
+　　上述协议不违反法律规定，本院予以确认。
+　　案件受理费800元，减半收取400元，原告罗某自愿负担。
+　　本调解书经双方当事人签收后，即具有法律效力。
+落款
+审判员　王访宾
+二〇二一年十二月三十日
+书记员刘瑶瑶
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407223225
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1379c04dad5fff3e5f902852334a1fa0bbdfb.html
+耿德才、陈树桐劳务合同纠纷民事一审民事调解书
+耿德才、陈树桐劳务合同纠纷民事一审民事调解书
+辽宁省彰武县人民法院
+民事调解书(2021)辽0922民初3784号
+当事人　　原告：耿德才。
+　　被告：陈树桐。
+　　原告耿德才与被告陈树桐劳务合同纠纷一案，本院于2021年12月23日立案后，依法适用小额诉讼程序进行了审理。
+原告诉称　　原告耿德才向本院提出诉讼请求：要求被告陈树桐给付劳务费3800元。事实和理由：2019年至2021年间，我在被告处做木工，双方约定日工资为200元，被告曾为我结算过部分工资款，尚欠工资款3800元未给付。2021年2月10日，被告为我出具欠条1份，此款后经我多次催要，至今未获清偿。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告陈树桐于2022年1月15日前给付原告耿德才劳务费3800元。
+　　二、案件受理费50元，减半收取25元，由被告陈树桐负担。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+落款
+审判员 柳 莹
+二〇二一年十二月二十八日
+书记员 田文东
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408393051
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1c0c2818033081d302f0440fb8f63db59bdfb.html
+苏某、高某1等继承纠纷民事一审民事调解书
+苏某、高某1等继承纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6281号
+当事人　　原告：苏某。
+　　原告：高某1。
+　　法定代理人：苏某，系高某1母亲。
+　　被告：高某2。
+　　原告苏某、高某1与被告高某2继承纠纷一案。
+落款
+审 判 员 宫家思
+二〇二一年十二月三十日
+法官助理 董凌霏
+书 记 员 单丽如
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407842566
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d6a00a795ec7de34f3e13e046986dbbfbdfb.html
+营口港务集团有限公司、鲁嘉珉等企业借贷纠纷民事一审民事调解书
+营口港务集团有限公司、鲁嘉珉等企业借贷纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6703号
+当事人　　原告：营口港务集团有限公司，住所地营口市鲅鱼圈营港路1号。
+　　法定代表人：邓仁杰。
+　　委托诉讼代理人：侯春梅、姜秀丽,辽宁睿智律师事务所律师。
+　　被告：鲁嘉珉。
+　　被告：鲁毅。
+　　委托诉讼代理人：鲁嘉珉。
+　　被告：营口市瀚宇传媒有限公司，住所地营口市西市区世纪路。
+　　法定代表人：鲁嘉珉。
+　　原告营口港务集团有限公司与被告鲁嘉珉、鲁毅、营口市瀚宇传媒有限公司借款合同纠纷一案，本院于2021年12月28日立案。
+　　双方当事人一致同意本调解协议双方自愿在调解协议上签字或捺印后即具有法律效力。
+落款
+审判员 韩 娜
+二〇二一年十二月二十八日
+书记员 刘美慧
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407197298
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce167258659fd1902375f32b7edd7f411f9bdfb.html
+董某1、梁某返还原物纠纷民事一审民事调解书
+董某1、梁某返还原物纠纷民事一审民事调解书
+甘肃省成县人民法院
+民事调解书(2021)甘1221民初1658号
+当事人　　原告：董某1(原名董某2)。
+　　委托诉讼代理人：董某3，甘肃仇池律师事务所律师。
+　　被告：梁某。
+审理经过　　原告董某1与被告梁某返还原物纠纷一案，本院于2021年12月7日立案后，依法适用简易程序公开开庭进行了审理。原告董某1及委托诉讼代理人董某3、被告梁某均到庭参加诉讼。本案现已审理终结。
+原告诉称　　原告董某1向本院提出诉讼请求：1、判令被告立即返还原告丰田牌汉兰达(车牌号：甘AM×××)轿车一辆，并按照每天260元承担车辆租金(2019年5月1日至归还日止)；2、判令被告承担案件诉讼费用。事实与理由：2019年4月，被告将原告的一辆丰田牌汉兰达(车牌号：甘AM×××)轿车借去使用，约定使用一星期后归还原告，但事后被告没有按照约定归还车辆。后原告多次索要，被告一直承诺尽快归还，而且每天按照260元承担车辆租金，但至今被告未归还车辆，也未支付车辆租金。为此，特诉至贵院，望依法支持原告诉讼请求。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、由被告梁某于2022年4月1日之前向原告董某1返还丰田牌GTM6×××车辆(车牌号：甘AM×××)一辆，并自2021年7月16日起按照260元/日支付车辆占用费直至归还之日止；
+　　二、双方在本案中再无其他争议。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费4790元，减半收取计2395元，由董某1负担1197.5元，梁某负担1197.5元。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审 判 员 王志薇
+二〇二一年十二月二十七日
+法官助理 马锦阳
+书 记 员 郭红霞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407955487
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1b35fd3b304da0ce7f7cfe3566852e27dbdfb.html
+蔡某某、烟台某酒店管理有限公司劳动争议民事一审民事调解书
+蔡某某、烟台某酒店管理有限公司劳动争议民事一审民事调解书
+山东省烟台市莱山区人民法院
+民事调解书(2021)鲁0613民初2871号
+　　蔡某某与烟台某酒店管理有限公司劳动争议两案，调解结案，调解内容不公开。
+落款
+审判员 王 丹
+二〇二一年十二月三十一日
+书记员 宋晓萃
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407807118
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce19442ba324d023866dc0517e9d3dc4c7cbdfb.html
+蔡礼连、王东来等民间借贷纠纷民事一审民事调解书
+蔡礼连、王东来等民间借贷纠纷民事一审民事调解书
+山东省烟台市芝罘区人民法院
+民事调解书(2021)鲁0602民初10945号
+当事人　　原告：蔡礼连。
+　　委托诉讼代理人：王霞，山东宏邦律师事务所律师。
+　　被告：王东来。
+　　被告：烟台盛东经贸有限公司，住所地烟台市芝罘区黄务街道付家社区。
+　　法定代表人：王东来，该公司董事长。
+　　原告蔡礼连与被告王东来、烟台盛东经贸有限公司民间借贷纠纷一案，本院于2021年11月10日受理后，依法适用简易程序，公开开庭进行了审理。
+原告诉称　　原告向本院提出诉讼请求：1.判决两被告共同偿还原告借款本金270000元；2.判决两被告支付原告保全担保费600元。事实和理由：2014年9月5日，被告王东来向原告借款120000元，原告通过妻子朱素芹银行账户向被告王东来外甥张学智银行账户转账支付借款本金120000元，被告王东来于2017年7月15日向原告出具借条一份，载明：今借到蔡礼连120000元，该款系银行转账，并且经王东来同意转至张学智账户，该借款到账日期为2014年9月5日。2015年3月13日，被告王东来向原告借款50000元，原告通过其外甥女刘晓凤银行账户向被告外甥张学智银行账户转账支付借款本金50000元，被告王东来于2017年7月15日向原告出具借条一份，载明：今借到蔡礼连50000元。2017年9月10日，被告王东来向原告出具欠条一份，载明：截止2017年9月10日，王东来尚欠蔡礼连烟酒款95600元。原告向被告追索上述款项未果，遂状诉至本院。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告王东来于2022年5月30日前偿还原告蔡礼连借款本金90000元,于2022年9月30日前偿还原告蔡礼连借款本金80000元,于2022年12月30日前支付原告蔡礼连货款95600元，原告蔡礼连自愿放弃其他诉讼请求。
+　　二、如果被告王东来不能按上述约定期限付清任何一笔款项，则被告王东来应另行支付原告蔡礼连自2021年11月10日起至实际给付之日止以欠付金额为基数按照年利率3.85%计算的利息，并且原告蔡礼连有权申请执行剩余全部款项。
+　　三、案件受理费5350元减半收取2675元，由被告王东来自愿负担，款项于2022年5月30日前迳付给原告蔡礼连，保全费2020元，由原告蔡礼连自愿负担。
+本院查明　　双方当事人一致同意本调解协议自双方在笔录上签名或盖章，经本院确认后即具有法律效力。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员 柳　程　远
+二〇二一年十二月二十八日
+书记员 杜沛优(代)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407759810
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1291b948e0953f8627139e03fb0bfe255bdfb.html
+薛顶儿、郑吉凯劳务合同纠纷民事一审民事调解书
+薛顶儿、郑吉凯劳务合同纠纷民事一审民事调解书
+山西省稷山县人民法院
+民事调解书(2021)晋0824民初3224号
+当事人　　原告：薛顶儿。
+　　被告：郑吉凯。
+　　案由：劳务合同纠纷
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+　　被告郑吉凯尚欠原告薛顶儿劳务费26500元，分别于2022年1月30日、同年4月30日前给付原告16500元、10000元了结此纠纷；若被告逾一期给付，原告有权一次性申请执行尚欠所有未到期的劳务费并承担相应利息(利息从起诉之日即2021年12月22日起至给付清劳务费之日止，月利率按0.32%计算，执行前若被告有按期给付的劳务费予以扣除)；
+裁判结果　　如被告未按本调解书指定的期间履行给付金钱义务，应当按照《中华人民共和国民事诉讼法》第二百五十三条之规定，加倍支付迟延履行期间的债务利息；
+　　案件受理费减半收取231元，由被告郑吉凯负担。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议笔录上签名、捺印起生效。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员 张 萍
+二〇二一年十二月二十九日
+调解员张经宇
+书记员 邢高阳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407185313
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1316d280268201d726f0ccd751df49b20bdfb.html
+袁刚、胡涛买卖合同纠纷民事一审民事调解书
+袁刚、胡涛买卖合同纠纷民事一审民事调解书
+陕西省铜川市耀州区人民法院
+民事调解书(2021)陕0204民初3776号
+当事人　　原告：袁刚。
+　　被告：胡涛。
+　　原告袁刚与被告胡涛买卖合同纠纷一案，本院于2021年12月14日立案后，依法适用简易程序公开进行了审理。
+原告诉称　　原告袁刚向本院提出诉讼请求：1、请求依法判令被告返还大众牌FV7140FAKBC小轿车一辆，车牌号为xxx；2、请求依法判令被告提前支付的2万元是用车的费用；3、本案诉讼费由被告承担。事实及理由：原告于2019年初从西安汽车培训员驾校任教练，因家庭有事回铜川市耀州区泥阳村，在挂靠的“铜川市永安机动车驾驶员培训有限公司”下属，铜川市新区永安机动车驾校任教练，与被告系打工关系。在驾校任教练时间不长，决定将自己的小车卖掉，被告得知此事，让我将车留到驾校当教练车，被告给原告2万元，该车价值4.5万元，下剩的车款被告至今未支付。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告胡涛支付原告车款20160元，于2022年1月30日前支付原告袁刚车款5000元；2022年3月15日前被告支付原告车款15160元；
+　　二、案件受理费925元，减半收取462.5元，由被告胡涛承担，被告直接支付原告。
+　　上述协议，不违反法律规定，本院予以确认。
+　　本调解书经各方当事人签收后，即具有法律效力。
+落款
+审判员　王建文
+二〇二一年十二月二十七日
+书记员　张 萌
 </t>
   </si>
   <si>
@@ -6448,6 +8961,359 @@
 二〇一九年十月八日
 　　法官助理汤丽妮
 　　书记员王怡
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408049033
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1df916616854b8f4866ce3e60f032e8d7bdfb.html
+贾晓东、杨春林等民间借贷纠纷民事一审民事调解书
+贾晓东、杨春林等民间借贷纠纷民事一审民事调解书
+庆安县人民法院
+民事调解书(2021)黑1224民初3482号
+当事人　　原告：贾晓东，……。
+　　法定代理人／指定代理人／法定代表人／主要负责人：×××，……。
+　　委托诉讼代理人：×××，……。
+　　被告：杨春林；杨德利；邵天鹏，……。
+　　法定代理人／指定代理人／法定代表人／主要负责人：×××，……。
+　　委托诉讼代理人：×××，……。
+　　第三人：，……。
+　　法定代理人／指定代理人／法定代表人／主要负责人：×××，……。
+　　委托诉讼代理人：×××，……。
+　　(以上写明当事人和其他诉讼参加人的姓名或者名称等基本信息)
+　　原告贾晓东与被告杨春林；杨德利；邵天鹏、第三人……民间借贷纠纷一案，本院于2021-12-1立案后，依法适用普通程序，公开／因涉及……(写明不公开开庭的理由)不公开开庭进行了
+　　审理(开庭前调解的，不写开庭情况)。
+　　……(写明当事人的诉讼请求、事实和理由)。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议／当事人自行和解达成如下协议，
+　　请求人民法院确认／经本院委托……(写明受委托单位)主持调解，当事人自愿达成如下协议：
+裁判结果　　一、……；
+　　二、……。
+　　(分项写明调解协议内容)
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费150.0元，由……负担(写明当事人姓名或者名称、负担金额。调解协议包含诉讼费
+　　用负担的，则不写)。
+　　本调解书经各方当事人签收后，即具有法律效力／本调解协议经各方当事人在笔录上签名或者盖章，
+　　本院予以确认后即具有法律效力(各方当事人同意在调解协议上签名或者盖章后发生法律效力的)。
+落款
+审判长　　 
+审判员　孟祥艳
+审判员　　 
+二〇二一年十二月三十一日
+书记员　　 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407783931
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1fc06e1d86350025d68f8ac533386bb41bdfb.html
+赵某、邱某等民间借贷纠纷民事一审民事调解书
+赵某、邱某等民间借贷纠纷民事一审民事调解书
+甘肃省宕昌县人民法院
+民事调解书(2021)甘1223民初1822号
+当事人　　原告：赵某。
+　　委托诉讼代理人：薛某。
+　　委托诉讼代理人：郝某。
+　　被告：邱某。
+　　被告：李某。
+　　原告赵某与被告邱某、李某民间借贷纠纷一案，本院于2021年12月9日立案后，依法适用普通程序公开进行了审理。
+原告诉称　　原告赵某的诉讼请求：1、请求判令二被告共同偿还原告借款本金200万元，利息1705867元，并按年息14.4％承担自2021年12月1日起至实际偿还借款本金之日的借款利息，以上合计：3705867元；2、本案诉讼费、保全费、保函费由被告承担。事实与理由：原被告系朋友关系，2016年被告以资金紧张为由，累计共向原告借款200万元，并于2016年11月4日，二被告向原告出具借条1份，确认了欠付原告200万元的事实，同时双方约定，借款利息按月息2％计算。2018年双方对利息计算方式变更约定为月息1.2％。后原告生意急需资金，但被告一直推诿不予偿还借款本息，给原告生产生活造成了极大的困难。借款期限到期后，原告多次催要无果，故向本院提起本案诉讼。
+　　本案在审理过程中，经人民法院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、由被告邱某偿还原告赵某借款本息共计2400000元，在2022年3月30日之前偿还200000元，在2022年7月30日之前偿还200000元，在2022年12月31日之前偿还400000元，在2023年3月30日之前偿还200000元，在2023年7月30日之前偿还200000元，在2023年12月31日之前偿还400000元，在2024年3月30日之前偿还200000元，在2024年7月30日之前偿还200000元，剩余400000元在2024年12月31日之前一次性还清。
+　　二、若被告邱某未按期履行，则原告可就上述未付款项全部申请人民法院强制执行；
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费36447元，减半收取18223.5元，由被告邱某承担。
+　　本调解书经各方当事人在调解笔录上签名或盖章，本院予以确认后即具有法律效力。
+落款
+审 判 长 曹　龙　刚
+人民陪审员     申学军
+人民陪审员     杨效德
+二〇二一年十二月二十九日
+书 记 员     戴文娟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407798523
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17e40ae5b698fb5a83ebf8b9b8d3c379fbdfb.html
+辛某、王某民间借贷纠纷民事一审民事调解书
+辛某、王某民间借贷纠纷民事一审民事调解书
+山西省稷山县人民法院
+民事调解书(2021)晋0824民初3225号
+当事人　　原告：辛某。
+　　委托诉讼代理人：王某(系原告辛某儿子)。
+　　被告：王某。
+　　被告：王某。
+　　案由：民间借贷纠纷
+　　本案在审理过程中，经本院主持调解，当事人自愿达成如下协议：
+　　被告王某欠原告辛某丈夫王恩龙生前借款18000元及利息(其中12000元该笔借款系被告王某担保)，被告从2022年1月起，逐月月底前至少归还1000元，直至归还清18000元了结此纠纷；若被告逾一期给付，原告有权一次性申请执行所有未到期的借款并承担相应利息(利息从2007年4月20日起至归还清借款之日止，月利率按1%计算，执行前若被告有按期归还的借款予以扣除，逾期后若有归还的款项先扣除利息后再归还本金，且均属于被告王某担保借款款项内的本息)，被告王某负连带偿还12000元及该笔借款借款所产生利息的责任；
+裁判结果　　此调解协议生效之日起，之前二被告与原告丈夫王恩龙生前所有经济往来手续均作废；
+　　如被告未按本调解书指定的期间履行给付金钱义务，应当按照《中华人民共和国民事诉讼法》第二百五十三条之规定，加倍支付迟延履行期间的债务利息；
+　　案件受理费减半收取125元，由被告王某负担。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议笔录上签名、捺印起生效。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员　侯彦登
+二〇二一年十二月二十九日
+调解员张经宇
+书记员　邢高阳
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405820961
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17ea07df9bd287c29a897b92a60c8e3c7bdfb.html
+辽宁海城农村商业银行股份有限公司、高敏等借款合同纠纷民事一审民事调解书
+辽宁海城农村商业银行股份有限公司、高敏等借款合同纠纷民事一审民事调解书
+海城市人民法院
+民事调解书(2021)辽0381民初10988号
+　　原告：辽宁海城农村商业银行股份有限公司，住址：海城市永安路18号。
+　　统一社会信用代码：912103812416072846。
+　　法定代表人：徐明广。
+　　委托代理人：安新，该公司职员。
+　　被告:高敏。
+　　被告:韩腾。
+　　案由：借款合同纠纷。
+　　经查：被告高敏、韩腾因经营彩铝经销、钢结构加工,周转资金不足,于2020年4月26日向原告提出借款申请,双方于2020年4月28日签订了借款合同和对应的抵押合同,合同约定:借款金额为300万元,约定利率为月息9.15%,约期为2020年4月28日至2021年4月27日,并约定如不按期归还贷款本金又未获展期,从逾期之日起,在借款合同载明的贷款利率水平上加收30%。抵押物为韩腾、高敏夫妻名下,位于海城市永安街道办商业网点10处,房权证号为:(1)房权证ＴＡ字第××号;(2)房权证ＴＡ字第××号;(3)房权证ＴＡ字第××号;(4)房权证ＴＡ字第××号;(5)房权证ＴＡ字第××号;(6)房权证ＴＡ字第××号;(7)房权证ＴＡ字第××号;(8)房权证ＴＡ字第××号;(9)房权证ＴＡ字第××号;(10)房权证ＴＡ字第××号。被告签署了借款合同和抵押合同,并办理了相关抵押登记手续,房产抵押冻结通知书:第2020042801号,原告依约发放了贷款。借款到期后,经原告方信贷人员多次催收,被告一直没有履行还款义务，原告诉至本院。经询问，被告表示同意偿还该欠款。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成协议如下：
+　　(一)被告高敏、韩腾欠原告辽宁海城农村商业银行股份有限公司的款项为：1、借款本金300万元；2、以本金300万元年利率9.15%计算的约期内利息；3、以本金300万元计算自还2021年4月28曰起起至实际给付之日止按年利率11.9%计算的逾期利息；上述款项被告高敏、韩腾于2021年12月31日前一次性还清；
+　　(二)原告辽宁海城农村商业银行股份有限公司对抵押物被告韩腾、高敏名下的位于海城市永安街道办商业网点10处,房权证号为:(1)房权证ＴＡ字第××号;(2)房权证ＴＡ字第××号;(3)房权证ＴＡ字第××号;(4)房权证ＴＡ字第××号;(5)房权证ＴＡ字第××号;(6)房权证ＴＡ字第××号;(7)房权证ＴＡ字第××号;(8)房权证ＴＡ字第××号;(9)房权证ＴＡ字第××号;(10)房权证ＴＡ字第××号。的房屋享有优先受偿权
+　　(三)其他无争执。
+　　案件受理费15400元由被告高敏、韩腾负担。此款在本案进入执行程序后由二被告补交。
+　　上述协议符合有关法律规定，本院予以确认。
+　　本调解书经双方当事人签收后，即具有法律效力。
+审判员 吕 东
+二〇二一年十二月二十七日
+书记员 赵彬彬
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408460856
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13bf8c65d72c61588e3d939c5b80e14e3bdfb.html
+邓某、虎某财产损害赔偿纠纷民事一审民事调解书
+邓某、虎某财产损害赔偿纠纷民事一审民事调解书
+甘肃省和政县人民法院
+民事调解书(2021)甘2925民初2134号
+当事人　　原告：邓某。
+　　被告：虎某。
+审理经过　　原告邓某诉被告虎某财产损害赔偿纠纷一案，本院于2021年12月2日受理后，依法适用简易程序公开开庭进行了审理，本案现已审理终结。
+　　2019年被告在××县后山护坡维修工程，被告涉案工程看护工地。工程竣工后承租方归还原告租赁物时，发现原告的钢管、钢模板、扣子等建筑材料被丢失或损坏，被告也承认租赁物丢失损坏的事实，对此，原、被告继承租方对租赁物进行了评估，后被告书写了欠条，被告欠款为8000元，原告索要未果，现诉至本院请求：判令被告赔偿原告财产损失费8000元。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　被告虎某欠原告邓某因财产损害欠款8000元，已给付3000元，剩余的5000元于2022年1月20日前一次性付清。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费200元，减半收取100元，被告虎某自愿承担。
+　　本调解书经当事人签收后，即具有法律效力。
+落款
+审 判 员 乔　文　胜
+二〇二一年十二月二十八日
+法官助理     杨秀珍
+法官助理     刘德胜
+书 记 员     陈启静
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407982308
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce166150e3f9fb47dbe3d26e61309695b33bdfb.html
+郎某某、郎某某1等继承纠纷民事一审民事调解书
+郎某某、郎某某1等继承纠纷民事一审民事调解书
+山东省莱州市人民法院
+民事调解书(2021)鲁0683民初8590号
+当事人　　原告：郎某某。
+　　委托诉讼代理人：赵琳，莱州济世法律服务所法律工作者。
+　　被告：郎某某1。
+　　被告：郎某某2。
+　　被告：朗某某3。
+　　原告郎某某与被告郎某某1,朗某某2,郎某某3继承纠纷一案，因本案以调解方式结案，不予上网公开。
+落款
+审 判 员　李 昕
+二〇二一年十二月二十八日
+法官助理　锁巧娜
+书 记 员　李 静
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408429083
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce19da92ce73dd8a79bde893eba1dfcf90dbdfb.html
+郑州元发置业有限公司房屋买卖合同纠纷民事一审民事调解书
+郑州元发置业有限公司房屋买卖合同纠纷民事一审民事调解书
+河南省郑州市中原区人民法院
+民事调解书(2021)豫0102民初11569号
+当事人　　原告
+　　张建伟。
+　　被告
+　　郑州元发置业有限公司，住所地郑州市中原区桐柏北路某某办公楼某某某某。
+　　法定代表人：黄国兰，该公司董事长。
+　　委托诉讼代理人：杨素华，该公司员工。
+　　案由
+　　房屋买卖合同纠纷
+　　诉讼请求
+　　1.判令被告支付原告然是设施违约金2426.23元，暖气设施违约金2687.28元；2.本案诉讼费用由被告负担。
+　　原告张建伟诉被告郑州元发置业有限公司房屋买卖合同纠纷一案，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告郑州元发置业有限公司于2022年2月28日之前支付原告张建伟燃气设施违约金2426.23元、暖气设施违约金2687.28元，共计5113.51元。
+　　二、原告张建伟与被告郑州元发置业有限公司就本案再无其他纠纷。
+　　上诉协议，不违反法律规定，本院予以确认。
+　　案件受理费已减半收取25元，由被告郑州元发置业有限公司负担。
+　　本调解协议经各方当事人在笔录上签名或盖章，本院予以确认后即具有法律效力。
+落款
+审判员　毛大帅
+二〇二一年十二月二十八日
+书记员　周文玉
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408162718
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce170cb4f39698176a7d23140367c677e3dbdfb.html
+金宪畅、李龙民间借贷纠纷民事一审民事调解书
+金宪畅、李龙民间借贷纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初6670号
+当事人　　原告：金宪畅。
+　　被告：李龙。
+　　案由：民间借贷纠纷
+原告诉称　　原告向本院提出诉讼请求：1、请求判令被告偿还原告借款5万元及利息，利息自2019年3月7日起以5万元为基数按月息1.5分标准至本息付清时止。2、案件受理费由被告承担。事实与理由：2019年3月7日，被告向原告借款5万元，约定2019年6月7日还清，期限届满被告未偿还。2021年8月3日原、被告经协商，被告分30个月每月给付原告2000元，如逾期给付原告有权以5万元为本金起诉至鲅鱼圈区人民法院，被告并支付原告利息，利息自2019年3月7日起以5万元为基数按月息1.5分标准至本息付清时止，已付的利息不在另行计算，被告承担案件受理费、律师费等实现债权产生的费用。还款协议出具后，被告只付3000元的利息，并未按还款协议履行，经原告多次追索无果，原告诉至贵院，请求支持原告诉请。
+　　根据最高人民法院《关于适用简易程序审理民事案件的若干规定》第十四条的规定，本案经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告李龙偿还原告李宪畅借款本息共计55100元(本金42500元、利息12600元)，还款方式：分期偿还，被告李龙自2022年1月起至2025年5月，每月25日前偿还原告李宪畅本息1300元，余款1800元于2025年6月25日前还清。
+　　二、若被告未按约定期限还款，原告可以申请执行剩余全部款项。
+　　案件受理费1050元，减半收取525元，原告自愿承担。
+　　双方当事人一致同意本调解协议的内容自双方在调解协议上签名或捺印后即具有法律效力。
+　　上述协议，不违反法律规定，本院予以确认。
+落款
+审判员 邢 瑞
+二〇二一年十二月二十九日
+书记员 洪嘉伟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407825175
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce10cd61d21ac5f27c03932c2d2e756e6fbbdfb.html
+闫某、肖某等机动车交通事故责任纠纷民事一审民事调解书
+闫某、肖某等机动车交通事故责任纠纷民事一审民事调解书
+山西省稷山县人民法院
+民事调解书(2021)晋0824民初3043号
+当事人　　原告：闫某。
+　　委托诉讼代理人：乔某。
+　　被告：肖某。
+　　被告：中煤财产保险股份有限公司稷山支公司。
+　　委托诉讼代理人：马某。
+　　案由：机动车交通事故责任纠纷
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　一、被告中煤财产保险股份有限公司稷山支公司于2022年1月20日前在晋M6876C货车交强险限额内一次性赔偿原告闫某因交通事故造成的各项损失等共计108000元(包括已垫付的医疗费18000元)；
+　　二、原告放弃对被告肖某承担民事责任的诉讼请求；
+　　三、案件受理费减半收取458元，鉴定费2500元，共计2958元，由原告闫某负担。
+　　上述协议，不违反法律规定，本院予以确认。
+　　双方当事人一致同意，本调解协议经双方当事人在调解协议上签名、捺印起生效。
+落款
+审判员　侯彦登
+二〇二一年十二月三十日
+书记员　胡绍军
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408385970
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce11898c44587fbb395da12f70c743041ecbdfb.html
+陈振东、朱小平民间借贷纠纷民事一审民事调解书
+陈振东、朱小平民间借贷纠纷民事一审民事调解书
+甘肃省康乐县人民法院
+民事调解书(2021)甘2922民初2522号
+当事人　　原告：陈振东。甘肃省渭源县人，农民。
+　　被告：朱小平，农民。
+审理经过　　原告陈振东与被告朱小平民间借贷纠纷一案，本院于2021年12月22日立案后，依法适用简易程序，公开进行了审理。本案现已审理终结。
+原告诉称　　原告陈振东向本院提出的诉讼请求是：1、依法判令被告偿还原告借款20000元及交通费1200元；2、本案诉讼费由被告承担。事实及理由：2017年3月8日，被告以急需交工程保证金为由，向原告借款25000元，书面约定于2017年4月1日还清，并口头约定如不按时还款，被告自愿承担原告每次讨债交通款300元。到期后经原告多次催要，被告于2021年2月11日给付现金3000元，2021年3月3日微信转账2000元，两次已付5000元。剩余20000元，经原告多次催要未果。
+　　本案在审理过程中经本院主持调解，双方当事人自愿达成协议如下：
+裁判结果　　原告陈振东同意被告朱小平于2022年1月30日前一次性给付借款本金20000元。
+　　上述协议不违反法律规定，本院予以确认。
+　　案件受理费330元减半收取165元，由被告朱小平负担。
+　　本调解协议经双方当事人在调解笔录上签名或盖章，本院予以确认后，既具有法律效力。
+落款
+审判长　陈仲祥
+二〇二一年十二月二十八日
+书记员　王俊杰
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407885266
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce10e8c140c73c675a04816b47da147c881bdfb.html
+陈某、周某买卖合同纠纷民事一审民事调解书
+陈某、周某买卖合同纠纷民事一审民事调解书
+甘肃省徽县人民法院
+民事调解书(2021)甘1227民初1326号
+当事人　　原告：陈某。
+　　被告：周某。
+　　原告陈某诉被告周某买卖合同纠纷一案，本院于2021年12月17日立案后，依法适用简易程序进行了审理。
+原告诉称　　原告陈某向本院提出诉讼请求：1.依法判令被告向原告支付材料费欠款15400元；2、本案诉讼费由被告承担。事实与理由：原告系装潢材料的供货商，被告从原告处拉走材料费用共计15400元。2015年12月9日，被告向原告出具欠条一张，写明“今欠陈某材料款15400元，于2016年3月15日还清”。之后，原告一直打电话联系被告催要材料款，被告一直以各种借口推诿，因此成诉。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告周某自愿向原告陈某分期清偿拖欠的材料款15400元，其中于2022年1月20日前偿还3400元，剩余12000元从2022年2月份起于每月月底前偿还1000元至全部还清为止；
+　　二、其他再无争执。
+　　以上协议符合相关法律规定，本院予以确认。
+　　本案诉讼费185元，减半收取92.5元，被告自愿承担。
+　　本调解协议已经各方当事人签字生效。
+落款
+审 判 员 杨波林
+二〇二一年十二月二十九日
+法官助理 王 昭
+书 记 员 李娜娜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407706344
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a6353dbd7bf67111e55d0d3476bd443ebdfb.html
+陈某、李某买卖合同纠纷民事一审民事调解书
+陈某、李某买卖合同纠纷民事一审民事调解书
+甘肃省徽县人民法院
+民事调解书(2021)甘1227民初1321号
+当事人　　原告：陈某。
+　　被告：李某。
+　　原告陈某诉被告李某买卖合同纠纷一案，本院于2021年12月16日立案后，依法适用简易程序进行了审理。
+原告诉称　　原告陈某向本院提出诉讼请求：1、依法判令被告向原告支付材料费欠款18500元。2、本案诉讼费由被告承担。事实与理由：原告系装潢材料的供货商,被告从原告处拉走材料费用共计32000元,2009年6月5日被告向原告出具欠条一张。之后陆续还款13500元,现还欠付18500元。原告多次打电话联系被告催要材料款,被告一直以各种借口推诿,因此成诉。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告李某自愿向原告陈某分期清偿拖欠的材料款18500元，其中于2022年1月20日前支付3500元，于2022年5月31日前支付5000元，于2022年8月31日前支付5000元，剩余5000元于2022年12月30日前付清；
+　　二、其他再无争执。
+　　以上协议符合相关法律规定，本院予以确认。
+　　本案诉讼费263元，减半收取131.5元，被告自愿承担。
+　　本调解协议已经各方当事人签字生效。
+落款
+审 判 员 杨波林
+二〇二一年十二月二十九日
+法官助理 王 昭
+书 记 员 李娜娜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407791517
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e66625cd7a5c55347f94cef676eb6daabdfb.html
+陈某、祝某民间借贷纠纷民事一审民事调解书
+陈某、祝某民间借贷纠纷民事一审民事调解书
+甘肃省徽县人民法院
+民事调解书(2021)甘1227民初1246号
+当事人　　原告：陈某。
+　　被告：祝某。
+　　原告陈某诉被告祝某民间借贷纠纷一案，本院于2021年12月3日立案后，依法适用简易程序公开开庭进行了审理。
+原告诉称　　原告陈某向本院提起诉讼请求：1.请求判令被告偿还原告借款100000元(大写：壹拾万元整)；2.依法判令本案诉讼费用由被告承担。事实与理由：2019年3月27日、2019年4月26日，被告因资金周转困难分两次向原告总共借款15万元，原告考虑到被告为银行职工便同意为其借款，被告向原告分别出具了金额为10万元和5万元的《借条》两张。后被告向原告归还5万元后，剩余10万元至今未还，原告向被告多次要求还款未果，故而成诉。
+　　本案审理过程中，经本院主持调解，当事人自愿达成如下协议：
+裁判结果　　一、被告祝某自愿向原告陈某分期偿还剩余借款6万元整，其中于2022年3月31日前偿还1万元，于2022年12月30日前偿还2万元，剩余3万元于2023年12月30日前一次性还清；
+　　二、原告自愿放弃其他诉讼请求；
+　　三、其他再无争执。
+　　上述协议，不违反法律规定，本院予以确认。
+　　案件受理费2300元，减半收取1150元，被告祝某自愿负担。
+　　本调解协议已经各方当事人在笔录上签字生效。
+落款
+审 判 员 杨波林
+二〇二一年十二月二十八日
+法官助理 田亚亚
+书 记 员 李娜娜
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407789344
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1991b7b1abe3c052c5628d90aeb21994ebdfb.html
+雷某某、梁某某离婚纠纷民事一审民事调解书
+雷某某、梁某某离婚纠纷民事一审民事调解书
+湖南省常宁市人民法院
+民事调解书(2021)湘0482民初3997号
+当事人　　原告：雷某某。
+　　被告：梁某某。
+　　原告雷某某诉被告梁某某离婚纠纷一案，本院于2021年12月27日立案后，依法适用简易程序进行了审理。
+　　双方当事人一致同意本调解协议的内容自双方在调解协议上签字或捺印后即具有法律效力。
+落款
+审 判 员　陶永安
+二〇二一年十二月二十七日
+代理书记员　肖菲剑
+校对责任人：陶永安　　　　　 打印责任人：肖菲剑
 </t>
   </si>
   <si>
@@ -6483,6 +9349,108 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407730856
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce16350a4466f7a13e201e4ba5da51ecb39bdfb.html
+韩某、王某买卖合同纠纷民事一审民事调解书
+韩某、王某买卖合同纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初3072号
+当事人　　原告：韩某，住辽宁省盖州市。
+　　被告：王某，住营口市鲅鱼圈区。
+　　委托诉讼代理人：王某
+　　案由：买卖合同纠纷
+落款
+审判员　李成喜
+二〇二一年十二月三十日
+书记员　刘欣悦
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407864729
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f613f9faae1bb345d39cc3e260ae2a42bdfb.html
+马培文、张妮等财产损害赔偿纠纷民事一审民事调解书
+马培文、张妮等财产损害赔偿纠纷民事一审民事调解书
+广东省深圳市龙岗区人民法院
+民事调解书(2021)粤0307民初34990号
+当事人　　原告：马培文。
+　　被告一：张妮。
+　　被告二：张濠。
+　　被告共同委托代理人：黄映辉，广东瀛尊律师事务所律师，特别授权。
+　　被告共同委托代理人：王铄，广东瀛尊律师事务所律师，特别授权。
+　　原告马培文与被告张妮、张濠财产损害赔偿纠纷一案，本院于2021年10月30日立案后，依法适用简易程序进行了审理。
+原告诉称　　原告马培文向本院提出诉讼请求：1、判令被告赔偿手机费用、手表费用、误工费、往返邮费及交通费、住宿费等共计人民币21352.29元。2、本案诉讼费由被告承担。事实和理由：原告马培文于2021年4月11日13时许，在深圳市大鹏新区xx超市10米远处停车，被告张妮以原告停车妨碍超市人员进出为理由与原告发证口角，并动手打人扇原告巴掌，后被告张妮电话联系张濠，两被告合伙把原告按倒在地多次殴打，并把原告掉落在地的ＩＰＨＯＮＥＸＳＭＡＸ手机故意捡起用力摔烂，无法开机；手表表面刮花。原告的脸、四肢受伤，经法医初步鉴定，造成原告的伤势程度为轻微伤。现提出被告承担如下赔偿：手机费用8000元，手表费用：5000元，误工费5600元，多次往返派出所的交通费用2452.29元，住宿费300元。各项费用合计21352.29元。为维护原告的合法权益，特向人民法院起诉，请法院依法处理。
+　　本案审理过程中，经本院主持调解，当事人自愿达成调解协议。
+　　上述协议，不违反法律规定，本院予以确认。
+　　各方当事人同意在调解协议上签名后发生法律效力。
+落款
+审判员 黄 俊
+二〇二一年十二月二十七日
+书记员 方伟豪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407274657
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12f929157986ed3be9681bcee70fdf037bdfb.html
+马文祥、马忠祥买卖合同纠纷民事一审民事调解书
+马文祥、马忠祥买卖合同纠纷民事一审民事调解书
+甘肃省康乐县人民法院
+民事调解书(2021)甘2922民初2309号
+当事人　　原告：马文祥。
+　　被告：马忠祥。
+审理经过　　原告马文祥诉被告马忠祥买卖合同纠纷一案，本院于2021年11月27日立案后，依法适用简易程序进行了审理。本案现已审理终结。
+原告诉称　　原告马文祥的诉讼请求：1、判决被告返还原告GN1G263号牌小型轿车(车架号：LBERCACBBC)购买费20000元整；(附：中华人民共和国机动车行驶证复印件一份)2、判令被告向原告赔偿车辆维修费3000元整；3、本案诉讼费用由被告承担。事实和理由：原告马文祥与被告马忠祥无任何关系。马忠祥系车牌号xxx号小型轿车(车架号：LBERCACBBC)登记所有人。2021年2月17日被告将自己名下的车牌号GN1G263号小型轿车(车架号：LBERCACBBC)以26000元的价格出售给原告马文祥使用，被告承诺11月份将该车转让过户在原告名下，在合同上签订过户费，上牌费，违章等均由被告马忠祥承担。11月将至，原告马文祥在康乐车辆车管所审车时，需实名制审核，5个违章也未曾处理，严重影响原告马文祥对该车辆的使用权，还有3天，该车辆即将脱审，但是被告马忠祥均以各种借口为由，拒绝配合车辆过户以及违章处理，严重违反了当时签订的《旧机动车买卖合同》(附件：附《旧机动车买卖合同》复印件一份)综上，为保护原告的合法权益，原告特根据《中华人民共和国民法典》和《民事诉讼法》相关规定向贵院提起诉讼。
+被告辩称　　被告马忠祥辩称：他在新疆打工，关于车辆的过户事宜他和原告在电话中商量了，因为疫情的原因，没能回来，期间他让儿子协助原告去处理违章，他是12月8日到的康乐，他回康乐时原告已将他起诉，现在他的想法是他配合原告将车辆过户，五个违章由他处理，但是车管所审车的费用我不承担。
+　　本案在审理过程中，经本院主持调解，双方当事人自愿达成如下协议：
+裁判结果　　被告马忠祥自愿于2022年1月31日将车牌号GN1G263号小型轿车(车架号：LBERCACBBC)的车辆过户在原告马文祥名下，并处理完相关违章，逾期未过户未处理违章，违章处理事宜由原告自行处理，剩余的6000元车款折抵为违约金，原告不再给付被告。
+　　案件受理费375元，减半收取187.5元由被告马忠祥承担。
+　　本调解协议经各方当事人在笔录上签名或者盖章，本院予以确认后即具有法律效力。
+　　上述协议不违反法律规定，本院予以确认。
+落款
+审判员　汪瑞林
+二〇二一年十二月二十八日
+书记员　苏继宏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408041889
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce16ef80f09fd4a177068dd9991b33a3df4bdfb.html
+马某、鞍山某某公司劳务合同纠纷民事一审民事调解书
+马某、鞍山某某公司劳务合同纠纷民事一审民事调解书
+营口市鲅鱼圈区人民法院
+民事调解书(2021)辽0804民初4439号
+当事人　　原告：马某。
+　　被告：鞍山某某公司。
+　　原告马某与被告鞍山某某公司劳务合同纠纷一案，本院立案受理后，依法适用简易程序公开开庭进行审理。
+落款
+审 判 长　丁玉玲
+人民陪审员　赵 宇
+人民陪审员　李春丽
+二〇二一年十二月三十一日
+书 记 员　张 健
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408425112
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a371ad0344f2d7a954768fcb8d52c7ddbdfb.html
+龙云根、邓浩加工合同纠纷一审民事调解书
+龙云根、邓浩加工合同纠纷一审民事调解书
+浙江省温岭市人民法院
+民事调解书(2021)浙1081民初12287号
+当事人　　原告：龙云根。
+　　被告：邓浩。
+　　原告龙云根与被告邓浩加工纠纷一案，本院于2021年12月6日立案后，经本院主持调解，当事人于2021年12月29日自愿达成如下协议：
+裁判结果　　一、被告邓浩分七期支付给原告龙云根加工款35000元，第一期于2021年12月30日前支付给原告5000元，第二期于2022年1月30日前支付给原告5000元，第三期于2022年2月28日前支付给原告5000元，第四期于2022年3月30日前支付给原告5000元，第五期于2022年4月30日前支付给原告5000元，第六期于2022年5月30日前支付给原告5000元，第七期于2022年6月30日前支付给原告5000元；若被告有任意一期逾期支付，则原告有权就43567元扣除已支付部分一并申请执行；
+　　二、本案受理费减半收取337元，由原告龙云根负担168.5元，被告邓浩负担168.5元。
+　　双方一致同意，本调解协议经各方当事人在调解笔录上签名或者按指印后(包括手机端确认)，即具有法律效力。 
+落款
+审判员
+黎莲
+二〇二一年十二月二十九日
+代书记员
+王书杨
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">山东省莱芜市中级人民法院
 执 行 销 案 通 知 书
 （2015）莱中执字第169号
@@ -7252,6 +10220,230 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405526679
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e9437b9b1f56c58fd00b5ace6cd0a144bdfb.html
+严红娟、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令
+严红娟、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令
+陕西省大荔县人民法院(2021)陕0523民督3号
+　　申请人：中国邮政储蓄银行股份有限公司大荔县支行，住所大荔县XX路XX段。统一社会信用代码：XXXXXXXXXXXXXX2841。
+　　负责人：赵军祥，系该行行长。
+　　委托代理人：姜荣荣，系该行职员。
+　　被申请人：严红娟，女，1992年XX月XX日出生，汉族，住所大荔县XX镇XX村XX组，身份证号：610XXXXXXXXXXXXXXX。
+　　申请人中国邮政储蓄银行股份有限公司大荔县支行于向本院申请支付令。申请人中国邮政储蓄银行股份有限公司大荔县支行称，2016年12月26日，被申请人严红娟向申请人申请办理了卡号为XXXXXXXXXXXX9188的信用卡，截止2021年12月14日，逾期未能还款。经申请人多次催收未果。现要求被申请人严红娟给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计25682.46元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人严红娟应当自收到本支付令之日起十五日内给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计25682.46元。
+　　申请费147元，由被申请人严红娟负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　杨冬
+二〇二一年十二月十八日
+书记员高依晗
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408397241
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e2e40e958395efea1bccd13fb874c5ccbdfb.html
+中国农业银行股份有限公司临潭县支行、杨主毛金融借款合同纠纷申请支付令审查民事令
+中国农业银行股份有限公司临潭县支行、杨主毛金融借款合同纠纷申请支付令审查民事令
+甘肃省临潭县人民法院(2021)甘3021民督115号
+　　申请人中国农业银行股份有限公司临潭县支行。
+　　法定代表人温辉荣。
+　　委托代理人敏德海。
+　　被申请人杨主毛，男。
+　　申请人中国农业银行股份有限公司临潭县支行于2021年12月22日向本院申请支付令。中国农业银行股份有限公司临潭县支行称：2015年10月30日中国农业银行股份有限公司临潭县支行与杨主毛签署了《金穗惠农精准扶贫贷款借款合同》，该合同约定中国农业银行股份有限公司临潭县支行向杨主毛提供借款50000元，期限为三年。现还款期限届满，杨主毛拒不履行还款义务。故要求杨主毛向申请人中国农业银行股份有限公司临潭县支行偿还借款本金50000元及利息2051.74元，共计52051.74元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条之规定，特发出如下支付令：
+　　杨主毛自收到本支付令之日起十五日内，向申请人中国农业银行股份有限公司临潭县支行偿还借款本金50000元及利息2051.74元，共计52051.74元。
+　　申请费367元，由杨主毛承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出;逾期不提出书面异议，本支付令即发生法律效力。
+审 判 员 龚国武
+二〇二一年十二月二十九日
+法官助理 孙文辉
+书 记 员 李 静
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.404654969
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce18d6f14869110ac0b86788f28c7dcf637bdfb.html
+中国农业银行股份有限公司白朗嘎东营业所、边某申请支付令督促民事令
+中国农业银行股份有限公司白朗嘎东营业所、边某申请支付令督促民事令
+西藏自治区白朗县人民法院(2021)藏0228民督5号
+　　申请人：中国农业银行股份有限公司白朗嘎东营业所，统一社会信用代码：91540228686815879D。
+　　负责人：罗某
+　　委托诉讼代理人：平某。
+　　被申请人：边某，现住西藏自治区白朗县。
+　　申请人中国农业银行股份有限公司白朗嘎东营业所于2021年12月16日向本院申请支付令。申请人中国农业银行股份有限公司白朗嘎东营业所称，被申请人边某于2017年9月28日向中国农业银行股份有限公司白朗嘎东营业所申请农村个人生产经营贷款人民币200，000.00元，期限三年，到期日2020年09月27日，截止今日未还本金与利息共计人民币198，454.07元。还款方式为一次性利随本清，签订《农户贷款借款合同》上明确规定本贷款到期进行一次性利随本清。我行多次联系被申请人，被申请人没有履行约定的还款义务，经多次催收，被申请人一再以各种理由推脱还款，严重影响我行不良贷款管理工作。基于上述事实，且申请人与被申请人之间并无其他债权债务关系，依据法律的相关规定，申请人特向法院提起申请。请求法院向被申请人发出支付令，督促被申请人给付我行贷款本金人民币173，029.41元、利息25，424.66元，共计人民币198，454.07元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人边某应当自收到本支付令之日起十五日内，给付申请人中国农业银行股份有限公司白朗嘎东营业所贷款本金人民币173，029.41元、利息25，424.66元，共计人民币198，454.07元(壹拾玖万捌仟肆佰伍拾肆元零柒分)。
+　　申请费1，423.03元(壹仟肆佰贰拾叁元零叁分)，由被申请人边某负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 巴 桑　卓 嘎
+二〇二一年十二月十八日
+法官助理    　 片珍
+书 记 员     次旦卓嘎
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407172910
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a4286f2748465a6ce150475d256c30e0bdfb.html
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督499号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向毛双龙发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407174936
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17457b416bb99f80a5c94a7de6e838cbbbdfb.html
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督497号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向姚红波发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407197243
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1be5ef391ec3b022e14d3fa9234cb2fd1bdfb.html
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督502号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向郭劲发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407215135
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ba3af76b33ea665167c6a629092df8eebdfb.html
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+中国建设银行股份有限公司天门分行申请支付令申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督495号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向汪雯发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407142826
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1eea48933309cddb57df2742e95a270c0bdfb.html
+中国邮政储蓄银行股份有限公司延长县支行与任军鹏申请支付令督促程序(支付令)支付令[C]
+中国邮政储蓄银行股份有限公司延长县支行与任军鹏申请支付令督促程序(支付令)支付令[C]
+陕西省延长县人民法院(2021)陕0621民督22号
+　　申请人：中国邮政储蓄银行股份有限公司延长县支行,统一社会信用代码：91610621MA6YJEEJ54。
+　　法定代表人：刘凯，男，该公司负责人。
+　　住所地：陕西省延长槐里坪新区XX路XX居XX号楼6-8、18-20门面房。
+　　委托代理人：冯海涛，男，汉族，1986年XX月XX日出生，陕西省延长县人，公民身份号码：61062XXXX611141617。系该公司员工。
+　　被申请人：任军鹏，男，汉族，1978年XX月XX日出生，现就职延长县公安局森林警察大队柏树林中队，现住延长县XX沟，公民身份号码：61262XXXX80916001X。
+　　申请人中国邮政储蓄银行股份有限公司延长县支行于2021年12月17日向本院申请支付令。申请人中国邮政储蓄银行股份有限公司延长县支行称，被申请人任军鹏于2016年2月23日和申请人达成信用卡领用合约。合约约定：申请人向被申请人发放信用卡，被申请人若激活信用卡，申请人有权收取信用卡年费；被申请人使用信用卡透支消费及圈存交易从交易入账日至还款日期为免息还款期，被申请人在免息还款期内偿还当期已出账单的全部款项，无需支付利息，但若被申请人未能在到期还款日前全额还款，自自透支日起按日利率0.035％-0.05％按复利方式全额持续计算利息，直至其偿还全部欠款为止；被申请人使用信用额度提取现金或者转账，需支付利息手续费；被申请人在到期还款日前未向申请人偿还最低还款额度，视为违约，除需向申请人支付利息外，换需按照最低还款额的5％支付违约金；若由于被申请人违约，申请人为实现债权所支出的律师费、诉讼费等费用由被申请人承担。
+　　被申请人逾期后，申请人不间断通过各种方式向其催收但被申请人一直以种种理由推诿，拒不履偿还义务。故请求依法督促被申请人偿还申请人信用卡欠款本金49995.9元，利息6704.92元、费用(含违约金、卡年费、分期手续费等)8086.52元(利息费用从透支之日2020年9月12日起算至实际清偿之日止，暂算至2021年11月10日)，共计64787.34元。清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。并由被申请人任军鹏承担诉讼费、执行费及由此产生的其他一切费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　一、被申请人任军鹏自收到本支付令之日起十五日内，偿还申请人中国邮政储蓄银行股份有限公司延长县支行信用卡欠款本金49995.9元，利息6704.92元、费用(含违约金、卡年费、分期手续费等)8086.52元(利息费用从透支之日2020年9月12日起算至实际清偿之日止，暂算至2021年11月10日)，共计64787.34元。
+　　二、清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。
+　　申请费473元，由被申请人任军鹏承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员　张 亚 媚
+二〇二一年十二月十七日
+法官助理　 任志飞
+书记员杨源
+20210621221978091661262XXXX8091600120211217
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407114226
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ab811faa203f7e5dbac475718ce1d3dabdfb.html
+中国邮政储蓄银行股份有限公司延长县支行与刘帅申请支付令督促程序(支付令)支付令[C]
+中国邮政储蓄银行股份有限公司延长县支行与刘帅申请支付令督促程序(支付令)支付令[C]
+陕西省延长县人民法院(2021)陕0621民督25号
+　　申请人：中国邮政储蓄银行股份有限公司延长县支行,统一社会信用代码：91610621MA6YJEEJ54。
+　　法定代表人：刘凯，男，该公司负责人。
+　　住所地：陕西省延长槐里坪新区XX路XX居XX号楼6-8、18-20门面房。
+　　委托代理人：冯海涛，男，汉族，1986年XX月XX日出生，陕西省延长县人，公民身份号码：61062XXXX611141617。系该公司员工。
+　　被申请人：刘帅，男，汉族，1992年XX月XX日出生，现就职延长县雷赤镇人民政府，公民身份号码：61062XXXX209271637。
+　　申请人中国邮政储蓄银行股份有限公司延长县支行于2021年12月24日向本院申请支付令。申请人中国邮政储蓄银行股份有限公司延长县支行称，被申请人刘帅于2018年3月9日和申请人达成信用卡领用合约。合约约定：申请人向被申请人发放信用卡，被申请人若激活信用卡，申请人有权收取信用卡年费；被申请人使用信用卡透支消费及圈存交易从交易入账日至还款日期为免息还款期，被申请人在免息还款期内偿还当期已出账单的全部款项，无需支付利息，但若被申请人未能在到期还款日前全额还款，自自透支日起按日利率0.035％-0.05％按复利方式全额持续计算利息，直至其偿还全部欠款为止；被申请人使用信用额度提取现金或者转账，需支付利息手续费；被申请人在到期还款日前未向申请人偿还最低还款额度，视为违约，除需向申请人支付利息外，换需按照最低还款额的5％支付违约金；若由于被申请人违约，申请人为实现债权所支出的律师费、诉讼费等费用由被申请人承担。
+　　被申请人逾期后，申请人不间断通过各种方式向其催收但被申请人一直以种种理由推诿，拒不履偿还义务。故请求依法督促被申请人偿还申请人信用卡欠款本金19990.85元，利息1913.84元、费用(含违约金、卡年费、分期手续费等)1658.08元(利息费用从透支之日2020年6月3日起算至实际清偿之日止，暂算至2021年11月10日)，共计23562.77元。清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。并由被申请人刘帅承担诉讼费、执行费及由此产生的其他一切费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　一、被申请人刘帅自收到本支付令之日起十五日内，偿还申请人中国邮政储蓄银行股份有限公司延长县支行信用卡欠款本金19990.85元，利息1913.84元、费用(含违约金、卡年费、分期手续费等)1658.08元(利息费用从透支之日2020年6月3日起算至实际清偿之日止，暂算至2021年11月10日)，共计23562.77元。
+　　二、清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。
+　　申请费130元，由被申请人刘帅承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员　张 亚 媚
+二〇二一年十二月二十四日
+法官助理　 任志飞
+书记员杨源
+20210621251992092761062XXXX20927163720211224
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407137671
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13941eaee557871679b01761e7aa3ba00bdfb.html
+中国邮政储蓄银行股份有限公司延长县支行与孙瑜娥申请支付令督促程序(支付令)支付令[C]
+中国邮政储蓄银行股份有限公司延长县支行与孙瑜娥申请支付令督促程序(支付令)支付令[C]
+陕西省延长县人民法院(2021)陕0621民督27号
+　　申请人：中国邮政储蓄银行股份有限公司延长县支行,统一社会信用代码：91610621MA6YJEEJ54。
+　　法定代表人：刘凯，男，该公司负责人。
+　　住所地：陕西省延长槐里坪新区XX路XX居XX号楼6-8、18-20门面房。
+　　委托代理人：冯海涛，男，汉族，1986年XX月XX日出生，陕西省延长县人，公民身份号码：61062XXXX611141617。系该公司员工。
+　　被申请人：孙瑜娥，女，汉族，1979年XX月XX日出生，现就职延长县疾病预防控制中心，现住延长县雷家滩，公民身份号码：61062XXXX905130644。
+　　申请人中国邮政储蓄银行股份有限公司延长县支行于2021年12月27日向本院申请支付令。申请人中国邮政储蓄银行股份有限公司延长县支行称，被申请人孙瑜娥于2018年4月9日和申请人达成信用卡领用合约。合约约定：申请人向被申请人发放信用卡，被申请人若激活信用卡，申请人有权收取信用卡年费；被申请人使用信用卡透支消费及圈存交易从交易入账日至还款日期为免息还款期，被申请人在免息还款期内偿还当期已出账单的全部款项，无需支付利息，但若被申请人未能在到期还款日前全额还款，自自透支日起按日利率0.035％-0.05％按复利方式全额持续计算利息，直至其偿还全部欠款为止；被申请人使用信用额度提取现金或者转账，需支付利息手续费；被申请人在到期还款日前未向申请人偿还最低还款额度，视为违约，除需向申请人支付利息外，换需按照最低还款额的5％支付违约金；若由于被申请人违约，申请人为实现债权所支出的律师费、诉讼费等费用由被申请人承担。
+　　被申请人逾期后，申请人不间断通过各种方式向其催收但被申请人一直以种种理由推诿，拒不履偿还义务。故请求依法督促被申请人偿还申请人信用卡欠款本金21684.46元，利息2252.17元、费用(含违约金、卡年费、分期手续费等)3215.52元(利息费用从透支之日2018年7月3日起算至实际清偿之日止，暂算至2021年9月10日)，共计27152.15元。清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。并由被申请人孙瑜娥承担诉讼费、执行费及由此产生的其他一切费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　一、被申请人孙瑜娥自收到本支付令之日起十五日内，偿还申请人中国邮政储蓄银行股份有限公司延长县支行信用卡欠款21684.46元，利息2252.17元、费用(含违约金、卡年费、分期手续费等)3215.52元(利息费用从透支之日2018年7月3日起算至实际清偿之日止，暂算至2021年9月10日)，共计27152.15元。
+　　二、清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。
+　　申请费160元，由被申请人孙瑜娥承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员　张 亚 媚
+二〇二一年十二月二十七日
+法官助理　 任志飞
+书记员杨源
+20210621271979051361062XXXX90513064420211227
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407086856
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f7bc9c84dae14a9524214cb4014d6998bdfb.html
+中国邮政储蓄银行股份有限公司延长县支行与薛对对申请支付令督促程序(支付令)支付令[C]
+中国邮政储蓄银行股份有限公司延长县支行与薛对对申请支付令督促程序(支付令)支付令[C]
+陕西省延长县人民法院(2021)陕0621民督26号
+　　申请人：中国邮政储蓄银行股份有限公司延长县支行,统一社会信用代码：91610621MA6YJEEJ54。
+　　法定代表人：刘凯，男，该公司负责人。
+　　住所地：陕西省延长槐里坪新区XX路XX居XX号楼6-8、18-20门面房。
+　　委托代理人：冯海涛，男，汉族，1986年XX月XX日出生，陕西省延长县人，公民身份号码：61062XXXX611141617。系该公司员工。
+　　被申请人：薛对对，男，汉族，1990年XX月XX日出生，现就职延长县市场和质量监督管理局，现住延长县雷家滩4小区，公民身份号码：61062XXXX009211218。
+　　申请人中国邮政储蓄银行股份有限公司延长县支行于2021年12月27日向本院申请支付令。申请人中国邮政储蓄银行股份有限公司延长县支行称，被申请人薛对对于2018年7月13日和申请人达成信用卡领用合约。合约约定：申请人向被申请人发放信用卡，被申请人若激活信用卡，申请人有权收取信用卡年费；被申请人使用信用卡透支消费及圈存交易从交易入账日至还款日期为免息还款期，被申请人在免息还款期内偿还当期已出账单的全部款项，无需支付利息，但若被申请人未能在到期还款日前全额还款，自自透支日起按日利率0.035％-0.05％按复利方式全额持续计算利息，直至其偿还全部欠款为止；被申请人使用信用额度提取现金或者转账，需支付利息手续费；被申请人在到期还款日前未向申请人偿还最低还款额度，视为违约，除需向申请人支付利息外，换需按照最低还款额的5％支付违约金；若由于被申请人违约，申请人为实现债权所支出的律师费、诉讼费等费用由被申请人承担。
+　　被申请人逾期后，申请人不间断通过各种方式向其催收但被申请人一直以种种理由推诿，拒不履偿还义务。故请求依法督促被申请人偿还申请人信用卡欠款本金24954.78元，利息3200.38元、费用(含违约金、卡年费、分期手续费等)3809.94元(利息费用从透支之日2020年11月3日起算至实际清偿之日止，暂算至2021年11月10日)，共计31965.1元。清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。并由被申请人薛对对承担诉讼费、执行费及由此产生的其他一切费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　一、被申请人薛对对自收到本支付令之日起十五日内，偿还申请人中国邮政储蓄银行股份有限公司延长县支行信用卡欠款本金24954.78元，利息3200.38元、费用(含违约金、卡年费、分期手续费等)3809.94元(利息费用从透支之日2020年11月3日起算至实际清偿之日止，暂算至2021年11月10日)，共计31965.1元。
+　　二、清偿时，以实际清偿日计算本金、利息、费用之和为清偿额。
+　　申请费200元，由被申请人薛对对承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员　张 亚 媚
+二〇二一年十二月二十七日
+法官助理　 任志飞
+书记员杨源
+2021062126916106216541990092161062XXXX00921121820211227
+1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">甘肃省陇南市武都区人民法院
 支 付 令
 （2018）甘1202民督95号
@@ -7270,6 +10462,96 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405842139
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce16feaacb60c687179c50604f672649d0fbdfb.html
+刘智云与黄陵县人民医院遗留问题办协调处理办公室申请支付令督促程序(支付令)支付令
+刘智云与黄陵县人民医院遗留问题办协调处理办公室申请支付令督促程序(支付令)支付令
+陕西省黄陵县人民法院(2021)陕0632民督8号
+　　申请人：刘某某，女。
+　　被申请人：黄陵县人民医院遗留问题协调处理办公室
+　　住所地：黄陵县人民医院
+　　法定代表人：李某某，系该办公室主任
+　　申请人于2021年12月24日向本院申请支付令。申请人刘某某称2016年起，因延安鸿运建筑工程有限公司承建黄陵县人民医院综合楼工程需要，从申请人处采购砂子、水泥等。该工程完工结算后，共欠申请人砂石、水泥款574393元，已支付360000元，剩余214393元一直未给申请人支付。2017年12月12日，延安鸿运建筑工程有限公司向申请人出具委托书，要求被申请人黄陵县人民医院遗留问题协调处理办公室给付申请人214393元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条之规定，特发出如下支付令：
+　　被申请人黄陵县人民医院遗留问题协调处理办公室应当自收到本支付令之日起十五日内，给付申请人刘某某214393元。
+　　申请费1505元，由被申请人黄陵县人民医院遗留问题协调处理办公室负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出;逾期不提出书面异议，本支付令即发生法律效力。
+审判员　曹永明
+二〇二一年十二月二十四日
+书记员张怡潇
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405842281
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1444273bb1aff629301396554a8156d4abdfb.html
+和政县农村信用合作联社、马某2等金融借款合同纠纷督促民事令
+和政县农村信用合作联社、马某2等金融借款合同纠纷督促民事令
+甘肃省和政县人民法院(2021)甘2925民督24号
+　　申请人：和政县农村信用合作联社，统一社会信用代码：916229257623746901．地址：和政县城关镇沈家庄。
+　　法定代表人：王某，系该合作联社理事长。
+　　委托诉讼代理人：马某1，系该社买家集信用社主任。代理权限为特别代理。
+　　被申请人：马某2，男，回族，公民身份号码×××．农民，住和政县。
+　　被申请人：马某3，女，回族，公民身份号码×××．农民，住和政县，系马某2之妻。
+　　申请人和政县农村信用合作联社于2021年12月8日向本院申请支付令。申请人和某称，被申请人马某2以扩大经营规模为由，向申请人申请借款40000元。经审核后，2018年2月21日申请人和政县农村信用合作联社与被申请人签署《农户小额信用贷款自助循环借款合同》，借款40000元，借款期限为24个月，自2018年2月21日至2020年2月20日止，约定贷款年利率为7.2％。合同签订后，申请人依约于2018年2月21日向被申请人马某2发放了贷款40000元。贷款到期后经申请人多次催要，被申请人至今未偿还。现申请人要求被申请人偿还借款本金40000元及截止2021年12月2日的利息11126.57元，共计51126.57元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中国人民共和国民事诉讼法》第二百一十四条、第二百一十六条之规定，特发出如下支付令：
+　　被申请人马某2、马某3应当自收到支付令之日起十五日内，给付申请人和政县农村信用合作联社借款及利息共计51126.57元。
+　　申请费360元，由被申请人马某2、马某3负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 张　　 明
+二〇二一年十二月二十二日
+法官助理     孙进录
+书 记 员     王家珠
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405850225
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1837a48d75557029582e22d93589fd4f8bdfb.html
+和政县农村信用合作联社、马某2等金融借款合同纠纷督促民事令1
+和政县农村信用合作联社、马某2等金融借款合同纠纷督促民事令1
+甘肃省和政县人民法院(2021)甘2925民督23号
+　　申请人：和政县农村信用合作联社，统一社会信用代码：916229257623746901．地址：和政县城关镇沈家庄。
+　　法定代表人：王某，系该合作联社理事长。
+　　委托诉讼代理人：马某1，系该社买家集信用社主任。代理权限为特别代理。
+　　被申请人：马某2，男，回族，公民身份号码×××．农民，住和政县。
+　　被申请人：马某3，女，回族，公民身份号码×××．农民，住和政县，系马某2之妻。
+　　申请人和政县农村信用合作联社于2021年12月8日向本院申请支付令。申请人和政县农村信用合作联社称，被申请人马某2以扩大经营规模为由，向申请人申请借款70000元。经审核后，2018年7月13日申请人和政县农村信用合作联社与被申请人签署《农户小额信用贷款自助循环借款合同》，借款50000元，借款期限为24个月，自2018年7月13日至2020年7月12日止，约定贷款年利率为7.2％。合同签订后，申请人依约于2018年7月13日向被申请人马某2发放了贷款50000元。贷款到期后经申请人多次催要，被申请人至今未偿还。现申请人要求被申请人偿还借款本金50000元及截止2021年12月2日的利息3855元，共计53855元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中国人民共和国民事诉讼法》第二百一十四条、第二百一十六条之规定，特发出如下支付令：
+　　被申请人马某2、马某3应当自收到支付令之日起十五日内，给付申请人和政县农村信用合作联社借款及利息共计53855元。
+　　申请费382元，由被申请人马某2、马某3负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 张　　 明
+二〇二一年十二月二十二日
+法官助理     孙进录
+书 记 员     王家珠
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407120637
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce135b3c7d79b1e7faec0007c7ac1a4950bbdfb.html
+唐博与刘帅申请支付令督促程序(支付令)支付令[C]
+唐博与刘帅申请支付令督促程序(支付令)支付令[C]
+陕西省延长县人民法院(2021)陕0621民督24号
+　　申请人：唐博，男，1995年XX月XX日出生，汉族，住延长县XX村XX社区黑家圪垛。公民身份号码：61062XXXX508211212。
+　　被申请人：刘帅，男，1992年XX月XX日出生，汉族，现在延长县雷赤镇政府。公民身份号码：61062XXXX209271637。
+　　申请人唐博于2021年12月22日向本院申请支付令。申请人唐博称，被申请人刘帅于2019年5月15日向申请人唐博借款60000元，并签订书面借款协议。借款到期后，申请人唐博多次找被申请人刘帅催要，被申请人拒不偿还。故请求依法督促申请人偿还借款本金60000元。并由被申请人刘帅承担申请费。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人刘帅自收到本支付令之日起十五日内，偿还申请人唐博借款本金60000元。
+　　申请费433元，由被申请人刘帅承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员　张 亚 媚
+二〇二一年十二月二十二日
+法官助理　 任志飞
+书记员杨源
+20210621241995082161062XXXX5082112121992092761062XXXX20927163720211222
+1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">甘肃省陇南市武都区人民法院
 支 付 令
 （2018）甘1202民督98号
@@ -7288,6 +10570,489 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407677675
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1cf8dc4d3ba5dd4ed6af938e5c3d020b6bdfb.html
+四川法奥（绵阳）律师事务所、陈烈国等委托合同纠纷申请支付令审查民事令
+四川法奥（绵阳）律师事务所、陈烈国等委托合同纠纷申请支付令审查民事令
+四川省江油市人民法院(2021)川0781民督187号
+　　申请人：四川法奥(绵阳)律师事务所，统一社会信用代码：31510000MD01923379，地址：绵阳市涪城区绵安路35号D区5楼。
+　　法定代表人：夏雨。
+　　被申请人：陈烈国，男，生于1963年10月2日，汉族，住四川省江油市。
+　　被申请人：缪发菊，女，汉族，生于1968年7月29日，汉族，住四川省江油市。
+　　申请人四川法奥(绵阳)律师事务所于2021年12月17日向本院申请支付令。申请人四川法奥(绵阳)律师事务所称：申请人与被申请人陈烈国、缪发菊签订了一、二审委托代理合同，申请人已履行全部代理义务，被申请人仍下欠代理费21000元，经申请人催收无果，根据《中华人民共和国民事诉讼法》第一百八十九条的规定，申请法院发出支付令，督促被申请人陈烈国、缪发菊支付下欠代理费21000.00元。
+　　本院经审查认为，申请人四川法奥(绵阳)律师事务所提出的支付令申请符合法律规定。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，发出如下支付令：
+　　被申请人陈烈国、缪发菊自收到本支付令之日起十五日内，支付申请人四川法奥(绵阳)律师事务所代理费21000.00元。
+　　本案申请费108.00元，由被申请人陈烈国、缪发菊负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　肖兵
+二〇二一年十二月二十日
+书记员　巩琪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408266530
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce14fdb20a417bc81bad63f06b9e974057dbdfb.html
+大连乾丰物业管理有限公司兴隆分公司、曹政申请支付令申请支付令审查民事令
+大连乾丰物业管理有限公司兴隆分公司、曹政申请支付令申请支付令审查民事令
+大连市普兰店区人民法院(2021)辽0214民督11号
+　　申请人：大连乾丰物业管理有限公司兴隆分公司，住所地大连普兰店区金马路某某楼某某某某某某，统一社会信用代码：91210282MA0UB73G3K。
+　　负责人：刘玉春，系该公司经理。
+　　委托诉讼代理人：宋佳之，男，系大连市普兰店区义诚法律服务所法律工作者，住普兰店区。
+　　被申请人：曹政，男，1993年12月30日出生，汉族，户籍地黑龙江省克山县。
+　　申请人大连乾丰物业管理有限公司兴隆分公司于2021年12月16日向本院申请支付令。申请人大连乾丰物业管理有限公司兴隆分公司称，申请人为案涉小区物业服务企业，服务合同约定业主按照房屋面积向申请人支付物业费。被申请人曹政系案涉小区业主，物业面积101.69平方米，收费标准为2.6元/月/平。按约定应向申请人交付2019年7月29日-2021年11月29日两年零四个月期间物业费7402元，但被申请人虽经催交，仍不履行交费义务。故请求法院向被申请人发出支付令，督促被申请人向申请人交付拖欠的物业费7402元。申请费由被申请人承担。
+　　本院经审查认为，申请人大连乾丰物业管理有限公司兴隆分公司的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人曹政应当自收到本支付令之日起十五日内，给付申请人大连乾丰物业管理有限公司兴隆分公司物业费7402元(2019年7月29日-2021年11月29日)。
+　　申请费17元，由被申请人曹政负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　车延滔
+二〇二一年十二月十七日
+书记员　徐祺昱
+附相关法律法规：
+《中华人民共和国民事诉讼法》
+第二百一十四条债权人请求债务人给付金钱、有价证券，符合下列条件的，可以向有管辖权的基层人民法院申请支付令：
+(一)债权人与债务人没有其他债务纠纷的；
+(二)支付令能够送达债务人的。
+申请书应当写明请求给付金钱或者有价证券的数量和所根据的事实、证据。
+第二百一十六条人民法院受理申请后，经审查债权人提供的事实、证据，对债权债务关系明确、合法的，应当在受理之日起十五日内向债务人发出支付令；申请不成立的，裁定予以驳回。
+债务人应当自收到支付令之日起十五日内清偿债务，或者向人民法院提出书面异议。
+债务人在前款规定的期间不提出异议又不履行支付令的，债权人可以向人民法院申请执行。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405597158
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce148f0abd3c685175e9c3247fb715b57a2bdfb.html
+大连亿诚物业管理有限公司、周长明申请支付令申请支付令审查民事令
+大连亿诚物业管理有限公司、周长明申请支付令申请支付令审查民事令
+大连市普兰店区人民法院(2021)辽0214民督16号
+　　申请人：大连亿诚物业管理有限公司，住所地大连普兰店经济开发区兴申街5号，统一社会信用代码912102825549918547。
+　　法定代表人：张世田，系该公司经理。
+　　委托诉讼代理人：宋佳之，男，系大连市普兰店区义诚法律服务所法律工作者，住大连市普兰店区。
+　　被申请人：周长明，男，1990年1月5日出生，汉族，现住大连市普兰店区。
+　　申请人大连亿诚物业管理有限公司于2021年12月20日向本院申请支付令。申请人大连亿诚物业管理有限公司称，申请人为案涉小区物业服务企业，服务合同约定业主按照房屋面积向申请人支付物业费。被申请人周长明系案涉小区业主，物业面积80.82平方米，收费标准为1.5元/月/平。按约定应向申请人交付2019年6月1日-2022年5月31日三年期间物业费4365元，但被申请人虽经催交，仍不履行交费义务。故请求法院向被申请人发出支付令，督促被申请人向申请人交付拖欠的物业费4365元，申请费由被申请人承担。
+　　本院经审查认为，申请人大连亿诚物业管理有限公司的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人周长明应当自收到本支付令之日起十五日内，给付申请人大连亿诚物业管理有限公司物业费4365元(2019年6月1日-2022年5月31日)。
+　　申请费17元，由被申请人周长明负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　车延滔
+二〇二一年十二月二十日
+书记员　徐祺昱
+附相关法律法规：
+《中华人民共和国民事诉讼法》
+第二百一十四条债权人请求债务人给付金钱、有价证券，符合下列条件的，可以向有管辖权的基层人民法院申请支付令：
+(一)债权人与债务人没有其他债务纠纷的；
+(二)支付令能够送达债务人的。
+申请书应当写明请求给付金钱或者有价证券的数量和所根据的事实、证据。
+第二百一十六条人民法院受理申请后，经审查债权人提供的事实、证据，对债权债务关系明确、合法的，应当在受理之日起十五日内向债务人发出支付令；申请不成立的，裁定予以驳回。
+债务人应当自收到支付令之日起十五日内清偿债务，或者向人民法院提出书面异议。
+债务人在前款规定的期间不提出异议又不履行支付令的，债权人可以向人民法院申请执行。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407154224
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e0658c79f43460a2aaad5d5892ce4e5abdfb.html
+大连亿诚物业管理有限公司、姜嘉庆申请支付令申请支付令审查民事令
+大连亿诚物业管理有限公司、姜嘉庆申请支付令申请支付令审查民事令
+大连市普兰店区人民法院(2021)辽0214民督15号
+　　申请人：大连亿诚物业管理有限公司，住所地大连普兰店经济开发区兴申街5号，统一社会信用代码912102825549918547。
+　　法定代表人：张世田，系该公司经理。
+　　委托诉讼代理人：宋佳之，男，系大连市普兰店区义诚法律服务所法律工作者，住大连市普兰店区。
+　　被申请人：姜嘉庆，男，1992年5月11日出生，满族，现住大连市普兰店区。
+　　申请人大连亿诚物业管理有限公司于2021年12月20日向本院申请支付令。申请人大连亿诚物业管理有限公司称，申请人为案涉小区物业服务企业，服务合同约定业主按照房屋面积向申请人支付物业费。被申请人姜嘉庆系案涉小区业主，物业面积102.39平方米，收费标准为1.3元/月/平。按约定应向申请人交付2019年12月1日-2021年11月30日两年期间物业费3194元，但被申请人虽经催交，仍不履行交费义务。故请求法院向被申请人发出支付令，督促被申请人向申请人交付拖欠的物业费3194元，申请费由被申请人承担。
+　　本院经审查认为，申请人大连亿诚物业管理有限公司的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人姜嘉庆应当自收到本支付令之日起十五日内，给付申请人大连亿诚物业管理有限公司物业费3194元(2019年12月1日-2021年11月30日)。
+　　申请费17元，由被申请人姜嘉庆负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　车延滔
+二〇二一年十二月二十日
+书记员　徐祺昱
+附相关法律法规：
+《中华人民共和国民事诉讼法》
+第二百一十四条债权人请求债务人给付金钱、有价证券，符合下列条件的，可以向有管辖权的基层人民法院申请支付令：
+(一)债权人与债务人没有其他债务纠纷的；
+(二)支付令能够送达债务人的。
+申请书应当写明请求给付金钱或者有价证券的数量和所根据的事实、证据。
+第二百一十六条人民法院受理申请后，经审查债权人提供的事实、证据，对债权债务关系明确、合法的，应当在受理之日起十五日内向债务人发出支付令；申请不成立的，裁定予以驳回。
+债务人应当自收到支付令之日起十五日内清偿债务，或者向人民法院提出书面异议。
+债务人在前款规定的期间不提出异议又不履行支付令的，债权人可以向人民法院申请执行。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407899136
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e6e99a5b20fe45052ae697a6b0b6f2efbdfb.html
+大连长海美丽家园物业管理有限公司、计红娟申请支付令申请支付令审查民事令
+大连长海美丽家园物业管理有限公司、计红娟申请支付令申请支付令审查民事令
+辽宁省长海县人民法院(2021)辽0224民督10号
+　　申请人：大连长海美丽家园物业管理有限公司，住所地辽宁省长海县大长山岛镇东山D园31号1单元201室。
+　　法定代表人：王炜，该公司经理。
+　　委托诉讼代理人：王秀英，女，1976年8月21日出生，汉族，辽宁省长海县人，该公司职工，住辽宁省长海县。
+　　被申请人：计红娟，女，1989年3月25日出生，汉族，住辽宁省长海县。
+　　申请人大连长海美丽家园物业管理有限公司与被申请人计红娟申请支付令一案，本院于2021年12月13日立案后，于2021年12月21日发出(2021)辽0224民督10号支付令，限令被申请人在收到支付令之日起十五日内清偿债务，或者向本院提出书面异议。本支付令送达后，被申请人向本院提交书面异议。
+　　本院经审查认为，被申请人向本院提交书面异议，督促程序应予终结。
+　　依照《中华人民共和国民事诉讼法》第二百一十七条规定，裁定如下：
+　　终结本案的督促程序。
+　　本院(2021)辽0224民督10号支付令自行失效。
+　　申请费17元，由申请人大连长海美丽家园物业管理有限公司负担。
+审判员　代丁利
+二〇二一年十二月二十八日
+书记员　刘春彬
+附相关法律条文：
+《中华人民共和国民事诉讼法》
+第二百一十七条人民法院收到债务人提出的书面异议后，经审查，异议成立的，应当裁定终结督促程序，支付令自行失效。
+支付令失效的，转入诉讼程序，但申请支付令的一方当事人不同意提起诉讼的除外。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407646748
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce105e52ecfc68d263ec1d3f34f1a3f890ebdfb.html
+大连长海美丽家园物业管理有限公司、许陆军申请支付令申请支付令审查民事令
+大连长海美丽家园物业管理有限公司、许陆军申请支付令申请支付令审查民事令
+辽宁省长海县人民法院(2021)辽0224民督8号
+　　申请人：大连长海美丽家园物业管理有限公司，住所地辽宁省长海县大长山岛镇东山D园31号1单元201室。
+　　法定代表人：王炜，该公司经理。
+　　委托诉讼代理人：王秀英，女，1976年8月21日出生，汉族，辽宁省长海县人，该公司职工，住辽宁省长海县。
+　　被申请人：许陆军，男，1955年9月21日出生，汉族，住辽宁省长海县。
+　　申请人大连长海美丽家园物业管理有限公司与被申请人许陆军申请支付令一案，本院于2021年12月13日立案后，于2021年12月21日发出(2021)辽0224民督8号支付令，限令被申请人在收到支付令之日起十五日内清偿债务，或者向本院提出书面异议。本支付令送达后，被申请人向本院提交书面异议。
+　　本院经审查认为，被申请人向本院提交书面异议，督促程序应予终结。
+　　依照《中华人民共和国民事诉讼法》第二百一十七条规定，裁定如下：
+　　终结本案的督促程序。
+　　本院(2021)辽0224民督8号支付令自行失效。
+　　申请费17元，由申请人大连长海美丽家园物业管理有限公司负担。
+审判员　代丁利
+二〇二一年十二月二十三日
+书记员　刘春彬
+附相关法律条文：
+《中华人民共和国民事诉讼法》
+第二百一十七条人民法院收到债务人提出的书面异议后，经审查，异议成立的，应当裁定终结督促程序，支付令自行失效。
+支付令失效的，转入诉讼程序，但申请支付令的一方当事人不同意提起诉讼的除外。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405484579
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce16f8ac71da0b99df482fe1ec17e5fbe59bdfb.html
+孙永青、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+孙永青、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+陕西省大荔县人民法院(2021)陕0523民督21号
+　　申请人：中国邮政储蓄银行股份有限公司大荔县支行，住所大荔县XX路XX段。统一社会信用代码：XXXXXXXXXXXXXX2841。
+　　负责人：赵军祥，系该行行长。
+　　委托代理人：姜荣荣，系该行职员。
+　　被申请人：孙永青，男，1972年XX月XX日出生，汉族，住所大荔县XX镇XX小区XX号楼XX单元XX，身份证号：612XXXXXXXXXXXXXXX。
+　　申请人中国邮政储蓄银行股份有限公司大荔县支行于向本院申请支付令。申请人中国邮政储蓄银行股份有限公司大荔县支行称，2019年1月25日，被申请人孙永青向申请人申请办理了卡号为XXXXXXXXXXXX9294的信用卡，截止2021年12月14日，逾期未能还款。经申请人多次催收未果。现要求被申请人孙永青给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计12466.43元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人孙永青应当自收到本支付令之日起十五日内给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计12466.43元。
+　　申请费37元，由被申请人孙永青负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　杨冬
+二〇二一年十二月十八日
+书记员高依晗
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407866800
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ec113ca0aeb9bc5ef8686a97a4aa12abbdfb.html
+孙萍、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+孙萍、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+陕西省大荔县人民法院(2021)陕0523民督32号
+　　申请人：中国邮政储蓄银行股份有限公司大荔县支行，住所大荔县同州路中段。统一社会信用代码：916105236779102841。
+　　负责人：赵军祥，系该行行长。
+　　委托诉讼代理人：姜荣荣，系该行职员。
+　　申请人：中国邮政储蓄银行股份有限公司大荔县支行，。
+　　被申请人：孙萍，女性，1982年07月09日出生，汉族，住所大荔县城关镇二圣巷19号，居民身份证号：61052319820709166X。
+　　申请人中国邮政储蓄银行股份有限公司大荔县支行于2021年12月21日向本院申请支付令。申请人中国邮政储蓄银行股份有限公司大荔县支行称，2017年7月26日，被申请人孙萍向申请人申请办理了卡号为6259190157197298的信用卡，截止2021年12月14日，逾期未能还款。经申请人多次催收未果。现要求被申请人孙萍给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计11492.03元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人孙萍应当自收到本支付令之日起十五日内给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计11492.03元。
+　　申请费29元，由被申请人孙萍负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　杨冬
+二〇二一年十二月二十三日
+书记员高依晗
+申请人中国邮政储蓄银行股份有限公司大荔县支行称，……(概述申请人提供的债权债务关系的事实、证据)。要求被申请人孙萍给付申请人中国邮政储蓄银行股份有限公司大荔县支行……(写明请求给付的金钱或者有价证券的名称和数量)。
+本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+被申请人孙萍应当自收到本支付令之日起十五日内，给付申请人中国邮政储蓄银行股份有限公司大荔县支行……(写明应给付的金钱或者有价证券的名称和数量)。
+申请费……元，由被申请人孙萍负担。
+被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+1            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407901992
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f269d84247dac5a531127b1bf6b52c85bdfb.html
+察布查尔锡伯自治县中天锦宏物业服务有限公司、何孝军申请支付令督促民事令
+察布查尔锡伯自治县中天锦宏物业服务有限公司、何孝军申请支付令督促民事令
+新疆维吾尔自治区察布查尔锡伯自治县人民法院(2021)新4022民督6号
+　　申请人：察布查尔锡伯自治县中天锦宏物业服务有限公司，住所地察布查尔锡伯自治县新城区学府南路锦宏商业街锦宏名都小区A区3-113室。
+　　法定代表人：易恒羽，系该公司执行董事。
+　　委托诉讼代理人：王小丽，女，系该公司经理。
+　　被申请人：何孝军，男，1974年1月30日出生，锡伯族，住新疆维吾尔自治区伊犁哈萨克自治州察布查尔锡伯自治县。
+　　申请人察布查尔锡伯自治县中天锦宏物业服务有限公司于2021年12月29日向本院申请支付令。申请人察布查尔锡伯自治县中天锦宏物业服务有限公司称，被申请人购买的xxx房屋，于2016年10月入住，入住后被申请人享受了我公司提供的物业服务，但自2018年7月1日开始欠缴物业费，根据我公司与被申请人签订的《前期物业服务协议》约定，物业费为0.6元／月／平方米，业主方逾期支付物业费的，物业公司有权要求业主方补交，并按业主方六个月应缴物业服务费用总额每日千分之一的标准收取违约金。我公司按照协议内容提供物业服务项目，但被申请人一再拒交2018年7月1日至2020年12月31日物业费1910.81元(物业费1615.5元＋违约金295.31元)，经我公司多次催要至今未给付。要求被申请人何孝军给付申请人察布查尔锡伯自治县中天锦宏物业服务有限公司物业服务费1615.5元及违约金295.31元，合计1910.81元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人何孝军应当自收到本支付令之日起十五日内，给付申请人察布查尔锡伯自治县中天锦宏物业服务有限公司物业服务费及违约金295.31元共计1910.81元。
+　　申请费17元，由被申请人何孝军负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 骆　家　刚
+二〇二一年十二月二十九日
+法官助理     何媛媛
+书 记 员      马荣
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407856142
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17e5dfd3428a2dcd357b2c45e4cca213abdfb.html
+察布查尔锡伯自治县中天锦宏物业服务有限公司、姜辉申请支付令督促民事令
+察布查尔锡伯自治县中天锦宏物业服务有限公司、姜辉申请支付令督促民事令
+新疆维吾尔自治区察布查尔锡伯自治县人民法院(2021)新4022民督7号
+　　申请人：察布查尔锡伯自治县中天锦宏物业服务有限公司，住所地察布查尔锡伯自治县新城区学府南路锦宏商业街锦宏名都小区A区3-113室。
+　　法定代表人：易恒羽，系该公司执行董事。
+　　委托诉讼代理人：王小丽，女，系该公司经理。
+　　被申请人：姜辉，男，1982年4月20日出生，汉族，住新疆维吾尔自治区伊犁哈萨克自治州察布查尔锡伯自治县。
+　　申请人察布查尔锡伯自治县中天锦宏物业服务有限公司于2021年12月29日向本院申请支付令。申请人察布查尔锡伯自治县中天锦宏物业服务有限公司称，被申请人购买的xxx室，于2017年4月入住，入住后被申请人享受了我公司提供的物业服务，但自2017年8月1日开始欠缴物业费，根据我公司与被申请人签订的《前期物业服务协议》约定，物业费为0.6元／月／平方米，业主方逾期支付物业费的，物业公司有权要求业主方补交，并按业主方六个月应缴物业服务费用总额每日千分之一的标准收取违约金。我公司按照协议内容提供物业服务项目，但被申请人一再拒交2017年8月1日至2020年12月31日物业费2574.55元(物业费2176.97元＋违约金397.58元)，经我公司多次催要至今未给付。要求被申请人姜辉给付申请人察布查尔锡伯自治县中天锦宏物业服务有限公司物业服务费2176.97元及违约金397.58元，合计2574.55元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人姜辉应当自收到本支付令之日起十五日内，给付申请人察布查尔锡伯自治县中天锦宏物业服务有限公司物业服务费及违约金共计2574.55元。
+　　申请费17元，由被申请人姜辉负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 骆　家　刚
+二〇二一年十二月二十九日
+法官助理     何媛媛
+书 记 员      马荣
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407802450
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1be57d3d69f9950caef1d3eeba222298abdfb.html
+察布查尔锡伯自治县中天锦宏物业服务有限公司、漆亮申请支付令督促民事令
+察布查尔锡伯自治县中天锦宏物业服务有限公司、漆亮申请支付令督促民事令
+新疆维吾尔自治区察布查尔锡伯自治县人民法院(2021)新4022民督5号
+　　申请人：察布查尔锡伯自治县中天锦宏物业服务有限公司，住所地察布查尔锡伯自治县新城区学府南路锦宏商业街锦宏名都小区A区3-113室。
+　　法定代表人：易恒羽，系该公司执行董事。
+　　委托诉讼代理人：王小丽，女，系该公司经理。
+　　被申请人：漆亮，男，1992年5月26日出生，汉族，住新疆维吾尔自治区伊犁哈萨克自治州察布查尔锡伯自治县。
+　　申请人察布查尔锡伯自治县中天锦宏物业服务有限公司于2021年12月29日向本院申请支付令。申请人察布查尔锡伯自治县中天锦宏物业服务有限公司称，被申请人购买的xxx室，于2017年7月入住，入住后被申请人享受了我公司提供的物业服务，但自2018年7月1日开始欠缴物业费，根据我公司与被申请人签订的《前期物业服务协议》约定，物业费为0.6元／月／平方米，业主方逾期支付物业费的，物业公司有权要求业主方补交，并按业主方六个月应缴物业服务费用总额每日千分之一的标准收取违约金。我公司按照协议内容提供物业服务项目，但被申请人一再拒交2018年7月1日至2020年12月31日物业费2580.76元(物业费2181.9元＋违约金398.86元)，经我公司多次催要至今未给付。要求被申请人漆亮给付申请人察布查尔锡伯自治县中天锦宏物业服务有限公司物业服务费2181.9元及违约金398.86元，合计2580.76元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人漆亮应当自收到本支付令之日起十五日内，给付申请人察布查尔锡伯自治县中天锦宏物业服务有限公司物业服务费及违约金共计2580.76元。
+　　申请费17元，由被申请人漆亮负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 骆　家　刚
+二〇二一年十二月二十九日
+法官助理     何媛媛
+书 记 员      马荣
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407646435
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce132cf8cccbd4686711232876b4469b874bdfb.html
+张群与郭明月申请支付令督促程序(支付令)支付令[C]
+张群与郭明月申请支付令督促程序(支付令)支付令[C]
+陕西省平利县人民法院(2021)陕0926民督95号
+　　申请人：张群，男，住西安市碑林区。
+　　委托诉讼代理人：张吉平，男，住平利县.系申请人父亲。
+　　被申请人：郭明月，男，住平利县。
+　　申请人张群于2021年12月27日向本院申请支付令，请求人民法院下达支付令,督促被申请人郭明月支付申请人60000元整。事实与理由：申请人与被申请人系同学关系，2014年11月，申请人与被申请人协商一致：申请人将其在安康市汉滨区XX大道XX号XX市场内的“绿可木专卖店”转让给被申请人，被申请人应向申请人支付转让费110000元。被申请人受让“绿可木专卖店”后，以其资金困难为由仅于2016年6月12日支付了转让费10000元。2017年1月26日，申请人与被申请人协商一致，将被申请人尚欠的剩余转让费转为借款，被申请人当场出具借条一份，约定被申请人最迟两年内(即2019年1月25日前)向申请人归还100000元。之后被申请人仍不按时履行归还借款的义务，经申请人多次催告，被申请人才分别于2019年4月5日、2020年10月22日、2021年8月26日向申请人归还了借款20000元、10000元、10000元，至今尚欠60000元拒不归还给申请人。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人郭明月应当自收到本支付令之日起十五日内，支付申请人张群欠款60000元。
+　　申请费433元，由被申请人郭明月负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出，逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　王国胜
+二〇二一年十二月二十七日
+书记员宋波
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407918376
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12a9d326356a3d838795846184c6ec116bdfb.html
+扶余市农村信用合作联社、于福臣借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、于福臣借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督91号
+　　申请人：扶余市农村信用合作联社，住所地吉林省扶余市。
+　　法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：赵春红，系扶余市农村信用合作联社三岔河信用社职员。
+　　被申请人：于福臣，男，1977年8月1日生，汉族，农民，现住吉林省扶余市。
+　　申请人扶余市农村信用合作联社于2021年12月22日向本院申请支付令。申请人扶余市农村信用合作联社称，被申请人于福臣于2009年1月10日在申请人扶余市农村信用合作联社三岔河信用社贷款50,000元，利率为10.1775‰，贷款期限到2009年12月25日。贷款方式为联保。到期后，被申请人未偿还贷款。要求被申请人于福臣偿还申请人扶余市农村信用合作联社贷款本金50,000元及至给付之日止的利息和罚息。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人于福臣应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金50,000元及按合同约定支付利息和罚息至给付之日止。
+　　申请费366元，由被申请人于福臣负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　李玉林
+二〇二一年十二月二十三日
+书记员　张佳莹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407710422
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a1dce6c493288ff73bd21e098e04f618bdfb.html
+扶余市农村信用合作联社、刘守富借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、刘守富借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督96号
+　　申请人：扶余市农村信用合作联社，住所地吉林省扶余市三岔河镇新区太祖路。
+　　法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：苏瑞喜，系扶余市农村信用合作联社三岔河信用社职员。
+　　被申请人：刘守富，男，1963年3月30日生，汉族，农民，现住吉林省扶余市。
+　　申请人扶余市农村信用合作联社于2021年12月22日向本院申请支付令。申请人扶余市农村信用合作联社称，被申请人刘守富于2012年12月28日在申请人扶余市农村信用合作联社三岔河信用社贷款30,000元，利率为10.59‰，贷款期限到2013年12月27日。贷款方式为联保。到期后，被申请人未偿还贷款。要求被申请人刘守富偿还申请人扶余市农村信用合作联社贷款本金30,000元及至给付之日止的利息和罚息。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人刘守富应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金30,000元及按合同约定支付利息和罚息至给付之日止。
+　　申请费212元，由被申请人刘守富负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　李玉林
+二〇二一年十二月二十三日
+书记员　张佳莹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407664271
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce128afc77646170f242f28b087b81b4d82bdfb.html
+扶余市农村信用合作联社、吕忠元借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、吕忠元借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督92号
+　　申请人：扶余市农村信用合作联社，住所地扶余市。
+　　法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：苏瑞喜，系扶余市农村信用合作联三岔河信用社职员。
+　　被申请人：吕忠元，男，1975年9月16日生，汉族，农民，现住吉林省扶余市。
+　　申请人扶余市农村信用合作联社于2021年12月22日向本院申请支付令。申请人称，被申请人吕忠元于2017年11月21日在其处贷款30,000元，利率为7.975‰，贷款期限到2018年11月20日。贷款方式为联保。到期后，被申请人未偿还贷款。要求被申请人吕忠元偿还贷款本金30,000元及相应利息(含罚息)，起诉日到给付日利息另算。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人吕忠元应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金30,000元及按合同约定支付利息和罚息至给付之日止。
+　　申请费240元，由被申请人吕忠元负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　李玉林
+二〇二一年十二月二十三日
+书记员　张佳莹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407785426
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce18c1b3fd3b477fa9b0132e7e8f42b9be8bdfb.html
+扶余市农村信用合作联社、吕忠元借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、吕忠元借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督93号
+　　申请人：扶余市农村信用合作联社，住所地扶余市法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：苏瑞喜，系扶余市农村信用合作联三岔河信用社职员。
+　　被申请人：吕忠元，男，1975年9月16日生，汉族，农民，现住吉林省扶余市。
+　　申请人扶余市农村信用合作联社于2021年12月22日向本院申请支付令。申请人称，被申请人吕忠元于2017年11月21日在其处贷款6,000元，利率为7.6125‰，贷款期限到2018年11月20日。贷款方式为信用。到期后，被申请人未偿还贷款。要求被申请人吕忠元偿还贷款本金6,000元及相应利息(含罚息)，起诉日到给付日利息另算。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人吕忠元应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金6,000元及按合同约定支付利息和罚息至给付之日止。
+　　申请费17元，由被申请人吕忠元负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　李玉林
+二〇二一年十二月二十三日
+书记员　张佳莹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407864730
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce189b626962fc969ff4e845aa1b72ae220bdfb.html
+扶余市农村信用合作联社、杜思发借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、杜思发借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督76号
+　　申请人：扶余市农村信用合作联社，住所地吉林省扶余市。
+　　法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：于海涛，男，1983年01月20日出生，汉族，现住吉林省扶余市鼎浩米兰花都小区，系扶余市农村信用合作联社蔡家沟信用社员工。
+　　被申请人：杜思发，男，1974年09月10日出生，汉族，现住吉林省扶余市。
+　　申请人扶余市农村信用合作联社于2021年12月16日向本院申请支付令。申请人扶余市农村信用合作联社称，被申请人杜思发于2016年02月15日在申请人扶余市农村信用合作联社蔡家沟信用社贷款1笔金额为30，000.00元，利率为7.286250‰，约期至2017年02月15日，贷款方式为信用。到期后，经申请人多次催要，被申请人杜思发未偿还贷款。要求被申请人杜思发立即给付申请人扶余市农村信用合作联社贷款本金30，000.00元及到给付日止的相应利息、罚息。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人杜思发应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金30，000.00元及按合同约定支付利息和罚息至给付之日止。
+　　申请费351元，由被申请人杜思发负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　张立君
+二〇二一年十二月二十日
+书记员　吴 迪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407371462
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d240c9507b3f30d8282fdf7b1469094abdfb.html
+扶余市农村信用合作联社、王庆芳借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、王庆芳借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督75号
+　　申请人：扶余市农村信用合作联社，住所地扶余市三岔河镇新区太祖路。
+　　法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：于海涛，系扶余市农村信用合作联社蔡粗家沟信用社职员。
+　　被申请人：王庆芳，女，1962年5月28日生，汉族，农民，现住吉林省松原市。
+　　申请人扶余市农村信用合作联社于2021年12月16日向本院申请支付令。申请人扶余市农村信用合作联社称，被申请人王庆芳于2015年12月25日在申请人扶余市农村信用合作联社蔡家沟信用社贷款1笔金额为40000元，利率为7.956250‰，约期为2017年03月25日到期。贷款方式为信用。现被申请人王庆芳未按照合同约定偿还贷款，要求被申请人王庆芳给付申请人扶余市农村信用合作联社贷款本金40000元及到给付日止的相应利息、罚息。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人王庆芳应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金40000元及按合同约定支付相应利息、罚息至给付之日止。
+　　申请费641元，由被申请人王庆芳负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员 卢 欣
+二〇二一年十二月二十日
+书记员 李佳倩
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407661642
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce151ca84e4cfea961c846db7d9cd91fc52bdfb.html
+扶余市农村信用合作联社、魏武英借款合同纠纷申请支付令审查民事令
+扶余市农村信用合作联社、魏武英借款合同纠纷申请支付令审查民事令
+吉林省扶余市人民法院(2021)吉0781民督97号
+　　申请人：扶余市农村信用合作联社，住所地扶余市。
+　　法定代表人：张金辉，系理事长。
+　　委托诉讼代理人：赵春红，系扶余市农村信用合作联三岔河信用社职员。
+　　被申请人：魏武英，女，1969年4月11日生，汉族，农民，现住吉林省扶余市。
+　　申请人扶余市农村信用合作联社于2021年12月22日向本院申请支付令。申请人称，被申请人魏武英于2008年3月27日在其处贷款50,000元，利率为13.0725‰，贷款期限到2009年3月27日。贷款方式为联保。到期后，被申请人未偿还贷款。要求被申请人魏武英偿还贷款本金50,000元及相应利息(含罚息)。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人魏武英应当自收到本支付令之日起十五日内，给付申请人扶余市农村信用合作联社贷款本金50,000元及按合同约定支付利息和罚息至给付之日止。
+　　申请费366元，由被申请人魏武英负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　李玉林
+二〇二一年十二月二十三日
+书记员　张佳莹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407116222
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1aaa92553ed85f435030a040f8468ef90bdfb.html
+曹某、尹某申请支付令民事审判监督民事令
+曹某、尹某申请支付令民事审判监督民事令
+甘肃省西和县人民法院(2021)甘1225民督78号
+　　申请人：曹某，男，汉族，住西和县，司机。
+　　身份证号：×××。
+　　被申请人：尹某，男，汉族，住西和县。
+　　身份证号：×××。
+　　申请人曹某于2021年12月21日向本院申请支付令。申请人曹某称，双方系朋友关系，因被申请人生意周转需要，于2019年1月开始多次向申请人借款，期间被申请人也还过一部分，后于2021年2月8日双方结算后被申请人尚欠申请人157000元，并于当日出具了借条一张，还款日期为2021年6月份。2021年7月7日，被申请人分两次给申请人归还了57000元，至今尚有100000元未还，申请人多次催要，但被申请人至今未还。现要求被申请人尹某支付申请人曹某借款100000元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人尹某应当自收到本支付令之日起十五日内，给付申请人曹某借款100000元。
+　　申请费767元，由被申请人尹某负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员 李　志　翔
+二〇二一年十二月二十三日
+书记员     董英福
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408244226
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1c399e99b51e200e3fd313d2857d3c873bdfb.html
+李景立、安新县朱公堤村卓航制鞋厂承揽合同纠纷申请支付令审查民事令
+李景立、安新县朱公堤村卓航制鞋厂承揽合同纠纷申请支付令审查民事令
+河北省安新县人民法院(2021)冀0632民督2号
+　　申请人：李景立，男，1969年12月21日出生，汉族，农民，住河北省容城县白龙村。
+　　被申请人：安新县朱公堤村卓航制鞋厂，住所地河北省安新县三台镇朱公堤村。统一社会信用代码92130632MA0A08FT0L。
+　　经营者：顾世俊，男，1975年11月3日出生，汉族，住河北省安新县三台镇朱公堤村。
+　　申请人李景立于2021年12月20日向本院申请支付令。申请人李景立称，申请人经营刺绣加工，被申请人于2017年至2018年期间委托申请人为其经营的制鞋厂从事刺绣加工业务。经对账，被申请人尚欠申请人43,568元未还，被申请人向申请人出具欠款票据。要求被申请人给付申请人李景立加工费43,568元。
+　　本院经审查认为，申请人李景立的申请符合法律规定。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人安新县朱公堤村卓航制鞋厂自收到本支付令之日起十五日内，给付申请人李景立加工费43,568元。
+　　申请费296元，由被申请人安新县朱公堤村卓航制鞋厂负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　侯杰
+二〇二一年十二月二十日
+书记员　马静
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">甘肃省陇南市武都区人民法院
 支 付 令
 (2018)甘1202民督101号
@@ -7302,6 +11067,159 @@
 二〇一八年八月十七日
 　　                                                                                                              法官助理   李宋军
 　　                                                                                                               书记员    尹鹏飞
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405455410
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13dbe0165d0125294299c565228bc9f9dbdfb.html
+杨明、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+杨明、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+陕西省大荔县人民法院(2021)陕0523民督19号
+　　申请人：中国邮政储蓄银行股份有限公司大荔县支行，住所大荔县XX路XX段。统一社会信用代码：XXXXXXXXXXXXXX2841。
+　　负责人：赵军祥，系该行行长。
+　　委托代理人：姜荣荣，系该行职员。
+　　被申请人：杨明，男，1991年XX月XX日出生，汉族，住所渭南市临渭区XX路XX号XX小区，身份证号：610XXXXXXXXXXXXXXX。
+　　申请人中国邮政储蓄银行股份有限公司大荔县支行于向本院申请支付令。申请人中国邮政储蓄银行股份有限公司大荔县支行称，2017年3月9日，被申请人杨明向申请人申请办理了卡号为XXXXXXXXXXXX7380的信用卡，截止2021年12月14日，逾期未能还款。经申请人多次催收未果。现要求被申请人杨明给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计9665.57元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人杨明应当自收到本支付令之日起十五日内给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计9665.57元。
+　　申请费17元，由被申请人杨明负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　杨冬
+二〇二一年十二月十八日
+书记员高依晗
+1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407659947
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce14433133296ffc8d5bb5b95510fdec325bdfb.html
+杨晓凤、谭永峰借款合同纠纷申请支付令审查民事令
+杨晓凤、谭永峰借款合同纠纷申请支付令审查民事令
+湖南省泸溪县人民法院(2021)湘3122民督2号
+　　申请人:杨晓凤，女，1964年11月1日出生，湖南省泸溪县人，住湖南省泸溪县。
+　　被申请人:谭永峰，男，1982年11月8日出生，湖南省泸溪县人，户籍地湖南省泸溪县。
+　　申请人杨晓凤于2021年12月23日向本院申请支付令。申请人杨晓凤称，被申请人谭永峰于2015年3月14日向申请人杨晓凤借款人民币200000元，约定借款期限为六个月，申请人杨晓凤当天通过银行转账的方式给被申请人谭永峰进行了转款，被申请人谭永峰给申请人杨晓凤出具了借据。借款到期后，被申请人谭永峰强调一直处于扩大规模发展生产状态，于2021年9月15日在原借据上亲笔写下续借至2021年9月15日的续借期限，并答应马上还借款。事至今已过去三个月(按月息1.2分计息，三个月利息为7200元)，被申请人谭永峰电话微信口头答应还款，但却没有履约。综上，申请人杨晓凤与被申请人谭永峰之间债务关系明显，没有其他债务纠纷，申请人杨晓凤特向法院提出申请，请求法院向被申请人谭永峰发出支付令，督促被申请人谭永峰向申请人杨晓凤偿付借款本息207200元。
+　　本院审查认为，申请人杨晓凤的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条之规定，特发出如下支付令：
+　　被申请人谭永峰应当自收到本支付令之日起十五日内给付申请人杨晓凤借款本息207200元。
+　　申请费计人民币1469元，由被申请人谭永峰负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员　印家武
+二〇二一年十二月二十五日
+代理书记员　许志昆
+附相关法律条文：
+《中华人民共和国民事诉讼法》
+第二百一十四条债权人请求债务人给付金钱、有价证券，符合下列条件的，可以向有管辖权的基层人民法院申请支付令：
+(一)债权人与债务人没有其他债务纠纷的；
+(二)支付令能够送达债务人的。
+申请书应当写明请求给付金钱或者有价证券的数量和所根据的事实、证据。
+第二百一十六条人民法院受理申请后，经审查债权人提供的事实、证据，对债权债务关系明确、合法的，应当在受理之日起十五日内向债务人发出支付令；申请不成立的，裁定予以驳回。
+债务人应当自收到支付令之日起十五日内清偿债务，或者向人民法院提出书面异议。
+债务人在前款规定的期间不提出异议又不履行支付令的，债权人可以向人民法院申请执行。            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407847605
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce167c72514a37d45cf24943408787e1c33bdfb.html
+林仁礼、白桂珍等申请支付令民事审判监督民事令
+林仁礼、白桂珍等申请支付令民事审判监督民事令
+吉林省镇赉县人民法院(2021)吉0821民督22号
+　　申请人：林仁礼，男，1965年9月24日生，汉族，农民，住镇赉县。
+　　被申请人：白桂珍，女，1968年10月6日生，汉族，农民，住镇赉县。
+　　被申请人：王宝祥，男，1968年1月12日生，汉族，农民，住镇赉县。
+　　申请人林仁礼于2021年12月17日向本院申请支付令。被申请人白桂珍、王宝祥于2019年12月末在申请人林仁礼处借款6500元用于生活所需，并出具借据一枚，二被申请人在欠款人处签字。此款到期后，经申请人林仁礼多次催要未果，故申请支付令。
+　　本院经审查认为，申请人的申请符合《中华人民共和国民事诉讼法》第二百一十四条规定的条件，依照《中华人民共和国民事诉讼法》第二百一十六条规定，特发出如下支付令：
+　　被申请人白桂珍、王宝祥自收到本支付令之日起十五日内，给付申请人林仁礼人民币6500元。
+　　申请费17元，由被申请人白桂珍、王宝祥负担。
+　　被申请人有异议的，应当自收到本支付令之日起十五日内向本院提出书面异议；逾期不提出书面异议，本支付令即发生法律效力。
+审判员 王　正　刚
+二〇二一年十二月十七日
+书记员     高若恒
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407124899
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1493646df2eba8b5258f1e4f3554550aebdfb.html
+某某银行某某有限公司某某分行、李某某都等借款合同纠纷申请支付令审查民事令
+某某银行某某有限公司某某分行、李某某都等借款合同纠纷申请支付令审查民事令
+甘肃省东乡族自治县人民法院(2021)甘2926民督47号
+　　申请人某某银行某某有限公司某某分行。
+　　被申请人李某某都，男
+　　被申请人李某龙，男
+　　申请人某某银行某某有限公司某某分行于2021年12月20日向本院申请支付令。申请人某某银行某某有限公司某某分行称，2018年12月7日，被申请人李某某都向申请人某某银行某某有限公司某某分行借款45000元，由李某龙做担保，承担连带偿还责任，该借款于2021年12月7日到期。借款到期后，被申请人李某某都未按约定履行还款义务。现向人民法院申请支付令，要求被申请人李某某都、李某龙偿还借款本金35993.57元，利息64.08元，本息合计36057.65元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人李某某都、李某龙应当自收到本支付令之日起十五日内，给付申请人某某银行某某有限公司某某分行借款本金35993.57元，利息64.08元，本息合计36057.65元。
+　　申请费350元，由被申请人李某某都负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　马正龙
+二〇二一年十二月二十一日
+书记员　周进龙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407090536
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17bb8283990cd31cdd444ebf5fa1c5f53bdfb.html
+某某银行某某有限公司某某分行、马某苏等借款合同纠纷申请支付令审查民事令
+某某银行某某有限公司某某分行、马某苏等借款合同纠纷申请支付令审查民事令
+甘肃省东乡族自治县人民法院(2021)甘2926民督48号
+　　申请人某某银行某某有限公司某某分行。
+　　被申请人马某苏，男。
+　　被申请人马某某者，女。
+　　申请人某某银行某某有限公司某某分行于2021年12月20日向本院申请支付令。申请人某某银行某某有限公司某某分行称，2018年12月7日，被申请人马某苏向申请人某某银行某某有限公司某某分行借款45000元，由马某某者做担保，承担连带偿还责任，该借款于2021年12月7日到期。借款到期后，被申请人马某苏未按约定履行还款义务。现向人民法院申请支付令，要求被申请人马某苏、马某某者偿还借款本金45000元，利息80.19元，本息合计45080.19元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人马某苏、马某某者应当自收到本支付令之日起十五日内，给付申请人某某银行某某有限公司某某分行借款本金45000元，利息80.19元，本息合计45080.19元。
+　　申请费463元，由被申请人马某苏负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　马正龙
+二〇二一年十二月二十一日
+书记员　周进龙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407103282
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce117ebae2824a0da6b4df1a00f2572e5fabdfb.html
+某某银行某某有限公司某某分行、马某龙等借款合同纠纷申请支付令审查民事令
+某某银行某某有限公司某某分行、马某龙等借款合同纠纷申请支付令审查民事令
+甘肃省东乡族自治县人民法院(2021)甘2926民督49号
+　　申请人某某银行某某有限公司某某分行。
+　　被申请人马某龙，男。
+　　被申请人马某某麦，女。
+　　申请人某某银行某某有限公司某某分行于2021年12月20日向本院申请支付令。申请人某某银行某某有限公司某某分行称，2018年12月7日，被申请人马某龙向申请人某某银行某某有限公司某某分行借款45000元，由马某某麦做担保，承担连带偿还责任，该借款于2021年12月7日到期。借款到期后，被申请人马某龙未按约定履行还款义务。现向人民法院申请支付令，要求被申请人马某龙、马某某麦偿还借款本金45000元，利息80.19元，本息合计45080.19元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人马某龙、马某某麦应当自收到本支付令之日起十五日内，给付申请人某某银行某某有限公司某某分行借款本金45000元，利息80.19元，本息合计45080.19元。
+　　申请费463元，由被申请人马某龙负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　马正龙
+二〇二一年十二月二十一日
+书记员　周进龙
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408437718
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d179f07fd110216deba0999af77d31f4bdfb.html
+浙江台州黄岩恒升村镇银行股份有限公司头陀支行、吴浴智等申请支付令申请支付令审查民事令
+浙江台州黄岩恒升村镇银行股份有限公司头陀支行、吴浴智等申请支付令申请支付令审查民事令
+台州市黄岩区人民法院(2021)浙1003民督698号
+　　申请人：浙江台州黄岩恒升村镇银行股份有限公司头陀支行，统一社会信用代码91331003MA28G1RK3X，住所地：台州市黄岩区头陀镇头陀居头陀商会大厦101室。
+　　代表人：李锦锁，该支行行长。
+　　委托诉讼代理人：赵旭海，浙江桔洲律师事务所律师。
+　　被申请人：吴浴智，男，1979年3月20日出生，汉族，住台州市黄岩区。
+　　被申请人：何卫军，男，1980年2月16日出生，汉族，住台州市黄岩区。
+　　申请人浙江台州黄岩恒升村镇银行股份有限公司头陀支行于2021年12月20日向本院申请支付令。申请人称，2020年11月10日，被申请人吴浴智由被申请人何卫军担保向申请人申请贷款100000元，各方签订《个人保证借款合同》一份，约定借款期限自2020年11月10日起至2021年11月9日止，借款年利率10.08％，按季付息，每季末月20日为结息日，次日为付息日，逾期归还贷款本金加收50％的罚息利率计收罚息，未按期支付利息的按罚息利率计算复息，且申请人有权提前收回贷款，实现债权的费用包括律师费、差旅费、诉讼费和其他合理费用，均由借款人承担。被申请人何卫军负连带保证责任，保证范围为贷款本金、利息(包括罚息、复息、生效法律文书确定的迟延履行期间的债务利息等)、违约金、损害赔偿金和实现债权及担保权利的费用(包括诉讼费、律师代理费、催讨差旅费和其他合理费用)，保证期限为借款期限届满起三年。合同签订后，申请人按约发放了贷款。后被申请人吴浴智没有按约履行还本付息义务，被申请人何卫军亦未履行保证责任。申请人为实现债权支付了律师代理费2000元。现要求被申请人吴浴智返还申请人借款本金100000元及支付截至2021年12月15日止的利息、罚息、复息2735.05元，并支付自2021年12月16日起至实际返还之日止按借款合同约定利率计算的罚息、复息，以及律师代理费2000元；被申请人何卫军负连带责任。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人吴浴智应当自收到本支付令之日起十五日内，返还申请人浙江台州黄岩恒升村镇银行股份有限公司头陀支行借款本金100000元及支付截至2021年12月15日止的利息、罚息、复息2735.05元，并支付自2021年12月16日起至实际返还之日止按借款合同约定利率计算的罚息、复息，以及律师代理费2000元；被申请人何卫军负连带责任。被申请人何卫军承担保证责任后，有权向被申请人吴浴智追偿。
+　　申请费798元，由被申请人吴浴智、何卫军负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。 
+审判员
+尤高云
+二〇二一年十二月二十日
+法官助理
+王之昱
+代书记员
+郑娴樱
 </t>
   </si>
   <si>
@@ -7372,6 +11290,28 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408122772
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f9c7d85141e92901de6f7fba6bbba3cdbdfb.html
+王某、马某等申请支付令民事审判监督民事令
+王某、马某等申请支付令民事审判监督民事令
+甘肃省临夏市人民法院(2021)甘2901民督76号
+　　申请人：王某。
+　　被申请人：马某。
+　　被申请人：临夏市南园清真食品有限责任公司。
+　　法定代表人：马某。
+　　被申请人：临夏市爱丽福清真食品有限责任公司。
+　　法定代表人：马某。
+　　申请人王某于2021年12月23日向本院申请支付令，称申请人与被申请人马某系熟人关系，其系被申请人临夏市南园清真食品有限责任公司(以下简称南园公司)，被申请人临夏县爱丽福清真食品有限责任公司(以下简称爱丽福公司)的法定代表人。于2015年年初被申请人将爱丽福公司修建工程项目包工包料承包给申请人，双方约定工程款按照工程进度支付。申请人按照约定按期完成了主体工程量，后双方对账务核算后，被申请人拖欠申请人工程款合计650000元(并立有书面欠条)。后经申请人多次催要，其均以种种理由和借口拒绝向申请人偿还拖欠的工程款至今。为保护申请人的合法财产权益，故向法院提出支付令的申请，要求被申请人偿还拖欠的工程款650000元。
+　　本院认为，申请人的申请符合《中华人民共和国民事诉讼法》第二百一十四条的规定，本院依照该法第二百一十六条之规定，特发出如下支付令：
+　　被申请人马某、被申请人临夏市南园清真食品有限责任公司、被申请人临夏市爱丽福清真食品有限责任公司自收到支付令之日起十五日内，向申请人王某偿还拖欠的工程款650000元。
+　　案件受理费3433元，由被申请人马某、临夏市南园清真食品有限责任公司、临夏市爱丽福清真食品有限责任公司负担。
+　　被申请人如有异议，应当自收到支付令之日起十五日内，向本院书面提出异议，逾期不提出书面异议，本支付令即发生法律效力。
+审判员 马　彦　虎
+二〇二一年十二月二十三日
+书记员     妥文萍
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">甘肃省陇南市武都区人民法院
 支 付 令
 (2018)甘1202民督94号
@@ -7386,6 +11326,171 @@
 二〇一八年八月二日
 　　                                                                                                              法官助理   何  丹
 　　                                                                                                              书记员     王  鑫
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408496697
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e2eefeba04145fd98f8654a6e9a80179bdfb.html
+王飞、四川久新建筑劳务有限公司借款合同纠纷申请支付令审查民事令
+王飞、四川久新建筑劳务有限公司借款合同纠纷申请支付令审查民事令
+四川省三台县人民法院(2021)川0722民督5号
+　　申请人：王飞，男，1987年11月19日出生，汉族，住河南省南阳市卧龙区。
+　　委托诉讼代理人：周峰波，河南育滨律师事务所律师，特别授权。
+　　被申请人：四川久新建筑劳务有限公司，住所地：四川省绵阳市三台县潼川镇银杏路喜洋洋时代广场某某商住楼，社会信用代码：91510721MA624DBU2C。
+　　法定代表人：胡元久，系该公司执行董事。
+　　申请人王飞于2021年12月16日向本院申请支付令。申请人王飞称，2020年5月6日，被申请人租赁申请人18号吊车，每月28000元，申请人组织民工班组进入被申请人承包的郑万高铁湖北段9标二分部郑万高铁兴山车站多线特大桥项目工地做工。截止2020年11月9日，申请人班组共产生的租赁款为171732元，被申请人已支付17000元，下欠154732元，被申请人承诺在2021年2月10日之前付清，但拒不支付。申请人2021年4月12日向湖北省兴山人民法院起诉，诉前双方和解，并签订了《付款协议书》，协议约定付款到期后，申请人多次向被申请人催要欠款，但被申请人仅支付80000元后不再按约定继续还款。现请求人民法院依法向被申请人发出支付令，督促其立即支付欠申请人的借款及利息94732元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人四川久新建筑劳务有限公司应当自收到本支付令之日起十五日内，给付申请人王飞欠款94732元。
+　　申请费723元，由被申请人四川久新建筑劳务有限公司负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审 判 员 李义和
+二〇二一年十二月十七日
+法官助理 侯灵林
+书 记 员 张 丹
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407148368
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce195b9ee7ad72c57ec36ccc2418e5f862ebdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督509号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向汪新德发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407148671
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce10386ba5f4be8f825d8ba8579210a6ff8bdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督501号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向李丹发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407175712
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17e5345d1d6945983ec59545db14e1773bdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督507号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向卢磊发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407195614
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d167ca885ba5f07a04656ce07d9c315fbdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督500号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向宋凯发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407195863
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1081953ba0e86f61feadb4abab5cc5156bdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督508号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向陈家敏发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407197516
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e53304da091ed878bc51dd7be1ce3a6abdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督503号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向郭劲发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407212134
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1fc4a4ab29f25d57bf68ea379b7b3012dbdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督504号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向秦春燕发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407216355
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce19db3ba9a4c2cdeef66c71c266ecd78b3bdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督496号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向代志来发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407218098
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1954283a0a379bca8b3d2b018e1428b3bbdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督506号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向刘志祥发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407220049
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce171362235c06130bf25201c0cace888c4bdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督505号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向王新容发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407223421
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce16d839a949b25a374e16a0d46a8176555bdfb.html
+申请支付令审查民事通知书
+申请支付令审查民事通知书
+湖北省天门市人民法院
+不予受理支付令申请通知书(2021)鄂9006民督498号
+　　中国建设银行股份有限公司天门分行：
+　　你方请求本院向喻文杰发出支付令的申请书，本院于2021年12月20日收到。经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条、《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十四日
 </t>
   </si>
   <si>
@@ -7404,6 +11509,389 @@
 审判员　德庆卓嘎
 二〇一八年八月一日
 书记员　白玛卓嘎
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407965156
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce149949cd1b0dd53870ed03c0add49d472bdfb.html
+胡普中与程波申请支付令督促程序(支付令)支付令
+胡普中与程波申请支付令督促程序(支付令)支付令
+重庆市长寿区人民法院(2021)渝0115民督8号
+　　申请人：胡普中，男，1965年7月21日出生，汉族，住重庆市长寿区。
+　　被申请人：程波，男，1967年12月24日出生，汉族，住重庆市长寿区。
+　　申请人胡普中于2021年12月22日向本院申请支付令。申请人胡普中称，2015年12月22日，被申请人程波以承建长寿区人民法院审判大楼工程为由向申请人借款1000000元，并出具借条一张，载明借款金额1000000元，借期4年，利息从借款之日起按年利率24%计算。申请人于当日通过中国工商银行X账户向被申请人程波在重庆农村商业银行X账户转账800000元，同月24日，在申请人的请求下，申请人的哥哥胡金锋从其交通银行X账户向被申请人程波在重庆农村商业银行X账户转账200000元，合计1000000元。后被申请人以资金困难为由未偿还借款本息，经申请人催收未果。故请求人民法院向被申请人发出支付令，要求被申请人返还申请人借款1000000元及利息(以本金1000000元为基数，从2015年12月22日起按年利率24%计算至2020年8月19日，从2020年8月20日起按LPR的四倍计算至本金全部付清时止)。
+　　本院经审查认为，申请人胡普中的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人程波应当自收到本支付令之日起十五日内，给付申请人胡普中借款借款1000000元及利息(以本金1000000元为基数，从2015年12月22日起按年利率24%计算至2020年8月19日，从2020年8月20日起按LPR的四倍计算至本金全部付清时止)。
+　　申请费8773.33元，由被申请人程波负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　徐志
+二〇二一年十二月二十四日
+书记员余星颖
+-1-
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408068519
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce18a526189fe5f7afa1a0357966e6e1e73bdfb.html
+脱某、席某民间借贷纠纷督促民事令
+脱某、席某民间借贷纠纷督促民事令
+甘肃省泾川县人民法院(2021)甘0821民督5号
+　　申请人：脱某，男，汉族，1987年11月20日出生，甘肃省泾川县人。
+　　被申请人：席某，女，汉族，1977年9月2日出生，陕西省长武县人。
+　　申请人脱某于2021年12月28日向本院提出支付令申请。
+　　要求被申请人席某归还借款本金50000元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件，依据《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条之规定，特发出如下支付令：
+　　被申请人席某应当自收到支付令之日起十五日内，归还申请人脱某借款本金50000元。
+　　申请费433元，由被申请人席某承担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院提出书面异议，逾期不提出书面异议，本支付令即发生法律效力。
+审判员 卢　靖　云
+二〇二一年十二月三十一日
+书记员     吕小娟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405706967
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce174c89c757f25f062332bd640067582c3bdfb.html
+蒋某、周某1等装饰装修合同纠纷民事审判监督民事令
+蒋某、周某1等装饰装修合同纠纷民事审判监督民事令
+甘肃省临夏市人民法院(2021)甘2901民督72号
+　　申请人：蒋某，男，汉族，装修工人，住临夏市。
+　　被申请人：周某1，男，现年58岁，回族，居民，住临夏市。
+　　被申请人：周某2，女，现年31岁，回族，居民，住址同上，系被申请人周学胜女儿。
+　　申请人蒋某于2021年12月16日向本院申请支付令。申请人蒋某称，2020年7月15日，申请人与二被申请人协商达成一致，由申请人包工包料装修被申请人在临夏市××区房一套，同日申请人与第二被申请人签署了总价为12.5万元的房屋装修协议书。装修协议约定了装修项目、所用材料、施工工期、付款方式、违约及赔偿责任。申请人从2020年7月18日开工，到同年7月22日左右第二被申请人按照协议付款40000元，施工到中期的同年8月26日第二被申请人付款40000元。到同年9月28日房屋装修施工全部完成，由第二被申请人和其母亲做了细致全面的验收，经双方确认无误后，申请人将装修好的楼房交付给第二被申请人。当时应该付清剩余的45000元尾款，但是第二被申请人说，我们先要请阿訇到新家念经还要请客，等这些事情办完之后就给你付款。之后，申请人向被申请人联系要剩余装修款时，被申请人提出卫生间门口的壁纸起泡，要求返工重做，几天之后重新粘贴的壁布又起泡。申请人再次重新粘贴壁布，几天之后又起泡。申请人仔细分析原因，这是因为在做了卫生间地面瓷砖的时候，第一被申请人过来查看后说：看着卫生间里面的地面比门口高，里面的水可能流到门外。申请人说不会，第一申请人就让放水试试。于是按照被申请人的要求，在还没有彻底完工的卫生间里放了水，经过现场试验证明，门口高里面底，水流地漏很利索。由于这次按照被申请人的要求在没有完工的卫生间放水实验，使水渗透到卫生间门外的墙面，之后在贴壁布时看着表面干爽，其实墙里还在潮湿，导致壁布起泡。申请人就向被申请人说明原因，只能再等一段时间让墙体彻底干了之后才能重贴壁布。于是在2020年11月15日，第二申请人向申请人支付了25000元装修费，剩余20000元当时没有支付，说是等贴好壁纸之后再付20000元。第一被申请人给申请人书写了一张20000元欠条。当时被申请人欠款不付已经属于违约行为，但是申请人是外乡人，只能是忍气吞声了。2021年5月份，申请人联系被申请人，要求重贴返潮的壁布，被申请人说是忙的很，以后再说。之后联系了几次，都是说没有时间，以后再说。直到2021年10月20日左右，被申请人才说是有时间，申请人就重新粘贴了返潮的壁布。在申请人重新贴好壁布后，申请人提出支付尚欠的20000元装修费时，被申请人提出各种理由拒绝支付欠款。其实造成卫生间壁布返潮起泡的直接原因就是第一被申请人固执要求放水实验，致使装修未完工的干爽墙面受潮，导致潮湿墙面粘贴壁布返潮起泡，使申请人返工三次造成申请人一定的经济损失。并且申请人垫付的周转资金是向他人民间借贷，每万每月支付利息100元。现在由于被申请人的无故拖欠，申请人已经白白支付借贷利息2400元，再次给申请人造成经济损失。基于以上事实，依据法律规定规定，请求人民法院依法向被申请人发出支付令，督促被申请人立即支付20000元欠款。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六规定，特发出如下支付令：
+　　被申请人周某1、周某2应当自收到支付令之日起十五日内，给付申请人装修款20000元。
+　　申请费100元，由被申请人周某1、周某2负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员 马　淑　燕
+二〇二一年十二月二十日
+书记员     马赫
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408023970
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce186173d403e6f2ccc82b31682156eaa04bdfb.html
+辽宁兴城农村商业银行股份有限公司、冷庆娥等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、冷庆娥等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督8号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：冷庆娥，女，1968年6月4日出生，汉族，住兴城市。
+　　被申请人：裴作军，男，1967年4月13日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年9月22日，被申请人冷庆娥、裴作军以养羊之借款用途从申请人处借款45000元，借款到期日2016年9月21日，借期内执行年利率11.88%。同时借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款出借后，被申请人只偿还本金1001.28元，偿还利息364.16元，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人冷庆娥、裴作军给付申请人兴城农商行借款本金43998.72元及相应利息(截止到2021年11月28日共欠利息52442.00元；以43998.72元为基数，自2021年11月29日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人冷庆娥、裴作军应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金43998.72元及相应利息(截止到2021年11月28日共欠利息52442.00元；以43998.72元为基数，自2021年11月29日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费300.00元，申请人缓交，由被申请人冷庆娥、裴作军共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十三日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408019699
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1b2b2cb9e1ead575713e374a3944591dbbdfb.html
+辽宁兴城农村商业银行股份有限公司、刘俊宝等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、刘俊宝等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督18号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：刘俊宝，男，1966年3月1日出生，汉族，住兴城市。
+　　被申请人：高杰，女，1969年11月24日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2013年12月23日，被申请人刘俊宝、高杰以养羊之借款用途从申请人处借款5万元，借款到期日2015年12月22日，借期内执行年利率11.88%。同时，借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款出借后，被申请人未按约定还本付息，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人刘俊宝、高杰给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2013年12月23日起至2015年12月22日止，按借期内利率11.88%计息；自2015年12月23日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人刘俊宝、高杰应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及相应利息(利息以5万元本金为基数，自2013年12月23日起至2015年12月22日止，按借期内利率11.88%计息；自2015年12月23日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费350.00元，申请人缓交，由被申请人刘俊宝、高杰共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408018810
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce198cc7fa038dbebc846eea4fe31512367bdfb.html
+辽宁兴城农村商业银行股份有限公司、姜焕玲申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、姜焕玲申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督13号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：姜焕玲，女，1957年4月14日出生，汉族，住兴城市。。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的商业银行。2016年4月28日，申请人下属刘台子支行与被申请人签订合同编号为兴农商银行2016年流贷字第2900023号《农户小额信用借款合同》，被申请人以种地为贷款用途向申请人借款5万元，贷款期限自2016年4月28日至2018年4月27日，实际放款日与到期日以借据为准；借款利率为年利率11.88%，按年结息；未按约定还款日归还贷款本金的，对逾期本金从逾期之日起按合同约定的借期内利率基础上加收50%计收罚息。合同签订后，申请人于次日即2016年4月29日向被申请人发放了5万元贷款。贷款逾期后，申请人多次派员催收，但被申请人至今本息分文未付。鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人姜焕玲给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2016年4月29日起至2018年4月28日止，按借期内利率11.88%计息；自2018年4月29日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人姜焕玲应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及相应利息(利息以5万元本金为基数，自2016年4月29日起至2018年4月28日止，按借期内利率11.88%计息；自2018年4月29日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费350.00元，申请人缓交，由被申请人姜焕玲负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408160791
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce129b721264a4b55f0725c8b756b34936ebdfb.html
+辽宁兴城农村商业银行股份有限公司、孙海玲申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、孙海玲申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督17号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：孙海玲，女，1973年4月22日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2017年5月12日，被申请人孙海玲以购买化肥之借款用途从申请人处借款5万元，借款到期日2019年5月11日，借期内执行年利率11.88%。同时，借款凭证约定从逾期之日起按规定加罚利息。现该笔信用借款出借后，被申请人未按约定还本付息，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人孙海玲给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2017年5月12日起至2019年5月11日止，按借期内利率11.88%计息；自2019年5月12日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人孙海玲应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及利息(利息以5万元本金为基数，自2017年5月12日起至2019年5月11日止，按借期内利率11.88%计息；自2019年5月12日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费350.00元，申请人缓交，由被申请人孙海玲负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408166241
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce19c8aa513047af04f2702f2e954a7ebfebdfb.html
+辽宁兴城农村商业银行股份有限公司、张志明等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、张志明等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督11号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：张志明，男，1972年7月25日出生，汉族，住兴城市。
+　　被申请人：邵桂芹，女，1971年8月7日出生，汉族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2018年6月21日，被申请人张志明以包地之借款用途从申请人处借款5万元，借款到期日2020年6月20日，借期内执行年利率11.16%。同时借款凭证约定从逾期之日起按规定加罚利息。现该笔信用借款出借后，被申请人本息至今分文付，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人张志明给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2018年6月21日起至2020年6月20日止，按借期内利率11.16%计息；自2020年6月21日起至付清之日止，按逾期罚息利率16.74%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人张志明应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及相应利息(利息以5万元本金为基数，自2018年6月21日起至2020年6月20日止，按借期内利率11.16%计息；自2020年6月21日起至付清之日止，按逾期罚息利率16.74%计息)。
+　　申请费350.00元，申请人缓交，由被申请人张志明负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408032435
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15c65f607087ef263b440767d575fa20fbdfb.html
+辽宁兴城农村商业银行股份有限公司、张齐申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、张齐申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督16号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：张齐，男，1983年4月9日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2016年12月29日，被申请人张齐以养鱼之借款用途从申请人处借款5万元，借款到期日2018年12月28日，借期内执行年利率11.88%。同时，借款凭证约定从逾期之日起按规定加罚利息。现该笔信用借款出借后，被申请人未按约定还本付息，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人张齐给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2016年12月29日起至2018年12月28日止，按借期内利率11.88%计息；自2018年12月29日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人张齐应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及利息(利息以5万元本金为基数，自2016年12月29日起至2018年12月28日止，按借期内利率11.88%计息；自2018年12月29日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费350.00元，申请人缓交，由被申请人张齐负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408132125
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce186d6a11fb63c4b91be15bd8be80b9ef0bdfb.html
+辽宁兴城农村商业银行股份有限公司、李丽玲等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、李丽玲等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督19号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：李丽玲，女，1969年8月4日出生，汉族，住兴城市。
+　　被申请人：杨英顺，男，1965年4月15日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年12月12日，被申请人李丽玲、杨英顺以购买花生种之借款用途从申请人处借款5万元，借款到期日2016年12月12日，借期内执行年利率11.88%，同时，借款凭证约定从逾期之日起按规定加罚利息50%。该笔信用借款到期后，被申请人未按约定还本付息，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人李丽玲、杨英顺给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2014年12月15日起至2016年12月12日止，按借期内利率11.88%计息；自2016年12月13日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人李丽玲、杨英顺应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及相应利息(利息以5万元本金为基数，自2014年12月15日起至2016年12月12日止，按借期内利率11.88%计息；自2016年12月13日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费350.00元，申请人缓交，由被申请人李丽玲、杨英顺负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408126654
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce191db4d59fbaa9121e9250dd4925fc647bdfb.html
+辽宁兴城农村商业银行股份有限公司、李壮等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、李壮等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督15号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：李壮，男，1981年3月15日出生，汉族，住兴城市。
+　　被申请人：李艳丽，女，1981年12月25日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2018年9月11日，被申请人李壮、李艳丽夫妻二人以养鱼之借款用途从申请人处借款10万元，分两笔5万元借款，借款到期日2019年9月11日，借期内执行年利率11.16%。同时，借款凭证约定从逾期之日起按规定加罚利息。现该笔信用借款出借后，被申请人本息至今分文付。鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人李壮、李艳丽给付申请人兴城农商行借款本金10万元及相应利息(利息以10万元本金为基数，自2018年9月12日起至2019年9月11日止，按借期内利率11.16%计息；自2018年9月12日起至付清之日止，按逾期罚息利率16.74%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人李壮、李艳丽应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金10万元及相应利息(利息以10万元本金为基数，自2018年9月12日起至2019年9月11日止，按借期内利率11.16%计息；自2018年9月12日起至付清之日止，按逾期罚息利率16.74%计息)。
+　　申请费766.00元，申请人缓交，由被申请人李壮、李艳丽共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408126661
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d3aa01c8e49325cc1d5df7173862693abdfb.html
+辽宁兴城农村商业银行股份有限公司、李德成等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、李德成等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督6号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市.
+　　被申请人：李德成，男，1972年7月2日出生，满族，住兴城市.
+　　被申请人：王玉玲，女，1969年3月15日出生，汉族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年11月24日，被申请人李德成、王玉玲以养猪之借款用途从申请人处借款5万元，借款到期日2016年11月23日，借期内执行年利率11.88%。同时借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款出借后，被申请人未偿还本金，只偿还利息100元，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人李德成、王玉玲给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2014年11月24日起至2016年11月23日止，按借期内利率11.88%计息；自2016年11月24日起至付清之日止，按逾期罚息利率17.82%计息，并扣除已付利息100元)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人李德成、王玉玲应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及利息(利息以5万元本金为基数，自2014年11月24日起至2016年11月23日止，按借期内利率11.88%计息；自2016年11月24日起至付清之日止，按逾期罚息利率17.82%计息，并扣除已付利息100元)。
+　　申请费350.00元，申请人缓交，由被申请人李德成、王玉玲共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十三日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408148054
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce13520fa154ff8b06275549abad8aadae7bdfb.html
+辽宁兴城农村商业银行股份有限公司、殷敬珍等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、殷敬珍等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督10号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：殷敬珍，女，1967年10月27日出生，满族，住兴城市。
+　　被申请人：高占军，男，1966年2月22日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年8月15日，被申请人殷敬珍、高占军以养猪之借款用途从申请人处借款5万元，借款到期日2016年8月14日，借期内执行年利率11.88%。同时借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款出借后，被申请人未偿还本金，只偿还利息2111.24元，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人殷敬珍、高占军给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元为基数，自2014年8月15日起至2016年8月14日止，按借期内利率11.88%计息；自2016年8月15日起至付清之日止，按逾期罚息利率17.82%计息，并扣除已付利息2111.24元)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人殷敬珍、高占军应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及相应利息(利息以5万元为基数，自2014年8月15日起至2016年8月14日止，按借期内利率11.88%计息；自2016年8月15日起至付清之日止，按逾期罚息利率17.82%计息，并扣除已付利息2111.24元)。
+　　申请费350.00元，申请人缓交，由被申请人殷敬珍、高占军共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408030389
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce104aec8d4a51f30012afc6dfbd3d7f0f0bdfb.html
+辽宁兴城农村商业银行股份有限公司、裴海月等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、裴海月等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督7号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：裴海月，女，1982年12月21日出生，满族，住兴城市。
+　　被申请人：冷春强，男，1980年5月4日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年9月18日，被申请人裴海月、冷春强以养猪之借款用途从申请人处借款25000元，借款到期日2016年9月17日，借期内执行年利率11.88%。同时借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款出借后，被申请人只偿还本金483.05元，偿还利息10元，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人裴海月、冷春强给付申请人兴城农商行借款本金24516.95元及相应利息(截止到2021年11月28日共欠利息29380.97元；以24516.95元为基数，自2021年11月29日起至付清之日止，按逾期罚息利率17.82%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人裴海月、冷春强应当自���到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金24516.95元及相应利息(截止到2021年11月28日共欠利息29380.97元；以24516.95元为基数，自2021年11月29日起至付清之日止，按逾期罚息利率17.82%计息)。
+　　申请费138.00元，申请人缓交，由被申请人裴海月、冷春强共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十三日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408164694
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce108483f9be9bb07ada96a44ab1e830121bdfb.html
+辽宁兴城农村商业银行股份有限公司、谷学森申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、谷学森申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督9号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：谷学森，男，1963年11月5日出生，汉族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2015年9月25日，被申请人谷学森以养牛之借款用途从申请人处借款5万元，借款到期日2017年9月24日，借期内执行年利率11.88%。同时借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款出借后，被申请人未偿还本金，只偿还利息1502.5元，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人谷学森给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2015年9月25日起至2017年9月24日止，按借期内利率11.88%计息；自2017年9月25日起至付清之日止，按逾期罚息利率17.82%计息，并扣除已付利息1502.5元)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人谷学森应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及利息(利息以5万元本金为基数，自2015年9月25日起至2017年9月24日止，按借期内利率11.88%计息；自2017年9月25日起至付清之日止，按逾期罚息利率17.82%计息，并扣除已付利息1502.5元)。
+　　申请费350.00元，申请人缓交，由被申请人谷学森负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十三日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408044153
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1050fe470b932689b3eabed99b71b05c9bdfb.html
+辽宁兴城农村商业银行股份有限公司、贾立秋申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、贾立秋申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督12号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：贾立秋，男，1969年8月7日出生，汉族，住葫芦岛市龙港区。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年5月7日，被申请人贾立秋以养猪之借款用途从申请人处借款5万元，借款到期日2016年5月6日，借期内执行年利率11.16%。同时借款凭证约定从逾期之日起按规定加罚利息。现该笔信用借款出借后，被申请人本息至今分文付，经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人贾立秋给付申请人兴城农商行借款本金5万元及相应利息(利息以5万元本金为基数，自2014年5月7日起至2016年5月6日止，按借期内利率11.16%计息；自2016年5月7日起至付清之日止，按逾期罚息利率16.74%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人贾立秋应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金5万元及相应利息(利息以5万元本金为基数，自2014年5月7日起至2016年5月6日止，按借期内利率11.16%计息；自2016年5月7日起至付清之日止，按逾期罚息利率16.74%计息)。
+　　申请费350.00元，申请人缓交，由被申请人贾立秋负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.408129403
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15b2e34e78efd07b78c4567108e43689cbdfb.html
+辽宁兴城农村商业银行股份有限公司、韩宝侠等申请支付令申请支付令审查民事令
+辽宁兴城农村商业银行股份有限公司、韩宝侠等申请支付令申请支付令审查民事令
+兴城市人民法院(2021)辽1481民督14号
+　　申请人：辽宁兴城农村商业银行股份有限公司，住所地：兴城市兴海南路二段137号。
+　　统一社会信用代码：9121140070177421X7。
+　　法定代表人：胡士臣，男，1963年10月1日出生，汉族，董事长，住葫芦岛市。
+　　被申请人：韩宝侠，女，1959年12月29日出生，汉族，住兴城市。
+　　被申请人：于忠水，男，1956年9月1日出生，满族，住兴城市。
+　　申请人辽宁兴城农村商业银行股份有限公司(以下简称兴城农商行)于2021年12月22日向本院申请支付令。申请人兴城农商行称，申请人系依法批准设立从事信贷业务的金融机构。2014年7月16日，被申请人韩宝侠、于忠水以养羊之借款用途从申请人处借款2万元，借款到期日2016年7月15日，借期内执行年利率11.16%。同时，借款凭证约定从逾期之日起按规定加罚利息50%。现该笔信用借款到期后，被申请人未按约定还本付息，还款0.5万元。经催收无果，鉴于双方借贷权利义务清晰，为提高不良贷款清收效率，根据《中华人民共和国民事诉讼法》第二百一十四条之规定，特向贵院申请支付令。要求被申请人韩宝侠、于忠水给付申请人兴城农商行借款本金1.5万元及相应利息(利息以2万元为基数，自2014年7月16日起至2016年7月15日止，按借期内利率11.16%计息；自2016年7月16日起至付清之日止，按逾期罚息利率16.74%计息)。由被申请人负担诉讼费用。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。
+　　依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人韩宝侠、于忠水应当自收到本支付令之日起十五日内，给付申请人辽宁兴城农村商业银行股份有限公司借款本金1.5万元及相应利息(利息以2万元为基数，自2014年7月16日起至2016年7月15日止，按借期内利率11.16%计息；自2016年7月16日起至付清之日止，按逾期罚息利率16.74%计息)。
+　　申请费58.00元，申请人缓交，由被申请人韩宝侠、于忠水共同负担，于本支付令生效之日起七日内向本院缴纳，逾期未予缴纳依法强制执行。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　胡志书
+二〇二一年十二月二十四日
+书记员　徐大森
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407661981
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1198826119051311c3f67416a471a47a7bdfb.html
+陆朋、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+陆朋、中国邮政储蓄银行股份有限公司大荔县支行申请支付令申请支付令审查支付令[C]
+陕西省大荔县人民法院(2021)陕0523民督46号
+　　申请人：中国邮政储蓄银行股份有限公司大荔县支行，住所大荔县XX路XX段。统一社会信用代码：XXXXXXXXXXXXXX2841。
+　　负责人：赵军祥，系该行行长。
+　　委托诉讼代理人：姜荣荣，系该行职员。
+　　被申请人：陆朋，男，1982年XX月XX日出生，汉族，住所大荔县XX街道XX巷XX号。身份证号：610XXXXXXXXXXXXXXX。
+　　申请人中国邮政储蓄银行股份有限公司大荔县支行于向本院申请支付令。申请人中国邮政储蓄银行股份有限公司大荔县支行称，2017年7月26日，被申请人陆朋向申请人申请办理了卡号为XXXXXXXXXXXX5797的信用卡，截止2021年12月14日，逾期未能还款。经申请人多次催收未果。现要求被申请人陆朋给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计7356.43元。
+　　本院经审查认为，申请人的申请符合民事诉讼法规定的条件。依照《中华人民共和国民事诉讼法》第二百一十四条、第二百一十六条规定，特发出如下支付令：
+　　被申请人陆朋应当自收到本支付令之日起十五日内给付申请人中国邮政储蓄银行股份有限公司大荔县支行截止2021年12月14日积欠本息合计7356.43元。
+　　申请费17元，由被申请人陆朋负担。
+　　被申请人如有异议，应当自收到本支付令之日起十五日内向本院书面提出；逾期不提出书面异议的，本支付令即发生法律效力。
+审判员　杨冬
+二〇二一年十二月二十三日
+书记员高依晗
+1
 </t>
   </si>
   <si>
@@ -7554,6 +12042,477 @@
 审判员　普布次仁
 二〇一八年八月十五日
 书记员　白玛卓嘎
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405218253
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1281d4c6c99099c7f5349eead86b584b9bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督186号
+　　鸡泽县人和电脑门市：
+　　你方请求本院向王晓峰发出支付令的申请书，本院于2021年12月15日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月十七日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405268075
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce10d1fb5ed439ad24769d4142a7bf630a4bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督195号
+　　鸡泽县人和电脑门市：
+本院查明　　你方请求本院向王玉平发出支付令的申请书，本院于2021年12月15日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月十七日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405496221
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1db089a3d725fa02de733d6306d2d3345bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督149号
+　　鸡泽县人和电脑门市：
+本院查明　　你方请求本院向秦灯亭发出支付令的申请书，本院于2021年12月15日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月十七日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405521734
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1377701e5ffb890ef2cee12a6a699c592bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督145号
+　　鸡泽县人和电脑门市：
+本院查明　　你方请求本院向范志平发出支付令的申请书，本院于2021年12月15日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月十七日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405524149
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce103a00ffdafd02a1d108469b249e0fe5dbdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督172号
+　　鸡泽县人和电脑门市：
+本院查明　　你方请求本院向孙秀通发出支付令的申请书，本院于2021年12月15日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月十七日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.405559030
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce15738b66f0a2ddfaab142ee37b60bdfe2bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督147号
+　　鸡泽县人和电脑门市：
+本院查明　　你方请求本院向张秀玲发出支付令的申请书，本院于2021年12月15日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月十七日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407649762
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1714907cddaa58ce2c9f63d35a5db2866bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督206号
+本院查明　　你方请求本院向韩松发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督206号
+鸡泽县人和电脑门市：
+你方请求本院向韩松发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407662746
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1148546cad3a5bd4b1d30e4409038cd86bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督214号
+本院查明　　你方请求本院向刘秀荣发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督214号
+鸡泽县人和电脑门市：
+你方请求本院向刘秀荣发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407746795
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1c8c06a58777f2a01e42af0d413763b73bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督220号
+本院查明　　你方请求本院向刘海见发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督220号
+鸡泽县人和电脑门市：
+你方请求本院向刘海见发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407754347
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f01b0a624d5d63a98567eb4129222392bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督204号
+本院查明　　你方请求本院向刘晓伟发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督204号
+鸡泽县人和电脑门市：
+你方请求本院向刘晓伟发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407758238
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1d217ce74a65525503bb41377deb34342bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督216号
+本院查明　　你方请求本院向王俊美发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督216号
+鸡泽县人和电脑门市：
+你方请求本院向王俊美发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407761000
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f228b39714086eee9c563c93a22b0f22bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督207号
+本院查明　　你方请求本院向杨金岭发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督207号
+鸡泽县人和电脑门市：
+你方请求本院向杨金岭发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407763683
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1f19bc5666b8a5796ab77c6cb0a47098fbdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督213号
+　　鸡泽县人和电脑门市：
+本院查明　　你方请求本院向王爱力发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407763822
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1ca3d0c47e6789f92c564b109d555bb9bbdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督221号
+本院查明　　你方请求本院向王庆文发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督221号
+鸡泽县人和电脑门市：
+你方请求本院向王庆文发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407765479
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1534b7b8283ff54d7d3afa9d8343bd993bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督215号
+本院查明　　你方请求本院向戚建虎发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督215号
+鸡泽县人和电脑门市：
+你方请求本院向戚建虎发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407767699
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1333290a0342ec7a7bc9a66902cb580d4bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督211号
+本院查明　　你方请求本院向张贵龙发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督211号
+鸡泽县人和电脑门市：
+你方请求本院向张贵龙发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407770484
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1e9a0a5a2bc161ab2d49973a51d9aa639bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督209号
+本院查明　　你方请求本院向吴志朋发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督209号
+鸡泽县人和电脑门市：
+你方请求本院向吴志朋发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407778864
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a7b38e913f07eb2071ab03fba886f431bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督208号
+本院查明　　你方请求本院向李凯发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督208号
+鸡泽县人和电脑门市：
+你方请求本院向李凯发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407786937
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce17086d259905529d60e6311b8b5b671e0bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督202号
+本院查明　　你方请求本院向霍伟冬发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督202号
+鸡泽县人和电脑门市：
+你方请求本院向霍伟冬发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407841242
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1a73ec85bb05e962bd0ae554716b6a58abdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督212号
+本院查明　　你方请求本院向马鸿鹰发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督212号
+鸡泽县人和电脑门市：
+你方请求本院向马鸿鹰发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407843865
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce12825a2ab826dc9762acce15886d0c032bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督222号
+本院查明　　你方请求本院向郭付钦发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督222号
+鸡泽县人和电脑门市：
+你方请求本院向郭付钦发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407849648
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1cf965b39d6cedf42528f4f5f85cc0b04bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督223号
+本院查明　　你方请求本院向睢连莹发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督223号
+鸡泽县人和电脑门市：
+你方请求本院向睢连莹发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407858587
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce11063c1e6273220f94c3517478cf9fb02bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督205号
+本院查明　　你方请求本院向王兰涛发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督205号
+鸡泽县人和电脑门市：
+你方请求本院向王兰涛发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407861464
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce11fbed1fc64eb2980b660f068378957c8bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督217号
+本院查明　　你方请求本院向韩志彬发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督217号
+鸡泽县人和电脑门市：
+你方请求本院向韩志彬发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407892122
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce1abde0e96ed451709a20cd2fa9c4d0d6dbdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督218号
+本院查明　　你方请求本院向焦士华发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督218号
+鸡泽县人和电脑门市：
+你方请求本院向焦士华发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    北大法宝【法宝引证码】 CLI.C.407930495
+原文链接：https://www.pkulaw.com/pfnl/95b2ca8d4055fce153d164d0a9cf671e3cfd0f2baeded943bdfb.html
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人和电脑门市申请支付令审查民事通知书
+鸡泽县人民法院
+不予受理支付令申请通知书(2021)冀0431民督210号
+本院查明　　你方请求本院向刘贵强发出支付令的申请书，本院于收到，经审查认为，你方的申请不符合《中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+　　特此通知。
+二〇二一年十二月二十一日
+鸡泽县人民法院
+不 予 受 理 支 付 令 申 请 通知书
+(2021)冀0431民督210号
+鸡泽县人和电脑门市：
+你方请求本院向刘贵强发出支付令的申请书，本院于2021年12月17日收到，经审查认为，你方的申请不符合《
+中华人民共和国民事诉讼法》第二百一十四条，《最高人民法院关于适用的解释》第四百二十九条规定的条件，本院决定不予受理。
+特此通知。
+二〇二一年十二月二十一日            
 </t>
   </si>
 </sst>
@@ -7912,7 +12871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7934,7 +12893,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7945,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7956,7 +12915,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7967,7 +12926,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7978,7 +12937,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7989,7 +12948,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8000,7 +12959,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8011,7 +12970,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8022,7 +12981,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8033,7 +12992,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8044,7 +13003,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8055,7 +13014,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8066,7 +13025,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>287</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8077,7 +13036,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8088,7 +13047,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8099,7 +13058,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8110,7 +13069,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>291</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8121,7 +13080,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>292</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8132,7 +13091,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8143,7 +13102,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8154,7 +13113,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8165,7 +13124,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8176,7 +13135,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8187,7 +13146,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8198,7 +13157,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8209,7 +13168,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8220,7 +13179,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8231,7 +13190,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>302</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8242,7 +13201,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8253,7 +13212,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8264,7 +13223,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>305</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8275,7 +13234,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8286,7 +13245,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8297,7 +13256,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>308</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8308,7 +13267,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>309</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8319,7 +13278,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8330,7 +13289,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8341,7 +13300,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8352,7 +13311,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>313</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8363,7 +13322,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8374,7 +13333,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8385,7 +13344,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>316</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8396,7 +13355,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>317</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8407,7 +13366,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>318</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8418,7 +13377,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>319</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8429,7 +13388,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8440,7 +13399,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>321</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8451,7 +13410,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8462,7 +13421,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>323</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8473,7 +13432,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8484,7 +13443,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>325</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8495,7 +13454,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8506,7 +13465,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8517,7 +13476,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>328</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8528,7 +13487,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>329</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8539,7 +13498,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8550,7 +13509,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8561,7 +13520,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>332</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8572,7 +13531,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>333</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8583,7 +13542,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8594,7 +13553,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8605,7 +13564,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8616,7 +13575,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8627,7 +13586,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>338</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8638,7 +13597,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>339</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8649,7 +13608,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8660,7 +13619,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8671,7 +13630,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8682,7 +13641,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>343</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8693,7 +13652,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>344</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8704,7 +13663,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8715,7 +13674,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8726,7 +13685,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>347</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8737,7 +13696,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>348</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8748,7 +13707,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8759,7 +13718,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8770,7 +13729,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>351</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8781,7 +13740,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>352</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8792,7 +13751,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>353</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8803,7 +13762,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8814,7 +13773,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>355</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8825,7 +13784,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8836,7 +13795,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8847,7 +13806,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8858,7 +13817,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8869,7 +13828,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8880,7 +13839,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8891,7 +13850,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8902,7 +13861,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8913,7 +13872,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8924,7 +13883,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>365</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8935,7 +13894,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -8946,7 +13905,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8957,7 +13916,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>368</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8968,7 +13927,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>369</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8979,7 +13938,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>370</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8990,7 +13949,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>371</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9001,7 +13960,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9012,7 +13971,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9023,7 +13982,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9034,7 +13993,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>375</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9045,7 +14004,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>376</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9056,7 +14015,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>377</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9067,7 +14026,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9078,7 +14037,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>379</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9089,7 +14048,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>380</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -9100,7 +14059,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>380</v>
+        <v>580</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9111,7 +14070,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9122,7 +14081,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>582</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9133,7 +14092,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>583</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9144,7 +14103,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9155,7 +14114,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>385</v>
+        <v>585</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9166,7 +14125,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9177,7 +14136,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>587</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9188,7 +14147,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9199,7 +14158,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>389</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9210,7 +14169,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -9221,7 +14180,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9232,7 +14191,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>392</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -9243,7 +14202,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>393</v>
+        <v>593</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9254,7 +14213,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>394</v>
+        <v>594</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9265,7 +14224,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>395</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9276,7 +14235,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>396</v>
+        <v>596</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9287,7 +14246,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9298,7 +14257,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>598</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9309,7 +14268,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>599</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9320,7 +14279,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9331,7 +14290,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9342,7 +14301,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9353,7 +14312,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9364,7 +14323,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>404</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9375,7 +14334,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9386,7 +14345,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9397,7 +14356,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>406</v>
+        <v>606</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9408,7 +14367,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>407</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9419,7 +14378,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>408</v>
+        <v>608</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9430,7 +14389,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>609</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9441,7 +14400,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>410</v>
+        <v>610</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9452,7 +14411,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>611</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9463,7 +14422,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>412</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9474,7 +14433,7 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>413</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -9485,7 +14444,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>414</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9496,7 +14455,7 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>415</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9507,7 +14466,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>416</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9518,7 +14477,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>417</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9529,7 +14488,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>418</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9540,7 +14499,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>419</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9551,7 +14510,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>420</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9562,7 +14521,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>421</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9573,7 +14532,7 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>422</v>
+        <v>622</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -9584,7 +14543,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>423</v>
+        <v>623</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -9595,7 +14554,7 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>424</v>
+        <v>624</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -9606,7 +14565,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>425</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -9617,7 +14576,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>426</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -9628,7 +14587,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>427</v>
+        <v>627</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -9639,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>428</v>
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -9650,7 +14609,7 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>429</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -9661,7 +14620,7 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -9672,7 +14631,7 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>431</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -9683,7 +14642,7 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>432</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -9694,7 +14653,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>433</v>
+        <v>633</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -9705,7 +14664,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>434</v>
+        <v>634</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -9716,7 +14675,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>435</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -9727,7 +14686,7 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>436</v>
+        <v>636</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -9738,7 +14697,7 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>437</v>
+        <v>637</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -9749,7 +14708,7 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>438</v>
+        <v>638</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -9760,7 +14719,7 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>439</v>
+        <v>639</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -9771,7 +14730,7 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>440</v>
+        <v>640</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -9782,7 +14741,7 @@
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>441</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -9793,7 +14752,7 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>442</v>
+        <v>642</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -9804,7 +14763,7 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>443</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -9815,7 +14774,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>444</v>
+        <v>644</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -9826,7 +14785,7 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>445</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -9837,7 +14796,7 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>446</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -9848,7 +14807,7 @@
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>446</v>
+        <v>646</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -9859,7 +14818,7 @@
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>447</v>
+        <v>647</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -9870,7 +14829,7 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>448</v>
+        <v>648</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -9881,7 +14840,7 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>449</v>
+        <v>649</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -9892,7 +14851,7 @@
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>450</v>
+        <v>650</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -9903,7 +14862,7 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>451</v>
+        <v>651</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -9914,7 +14873,7 @@
         <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>452</v>
+        <v>652</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -9925,7 +14884,7 @@
         <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>453</v>
+        <v>653</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -9936,7 +14895,7 @@
         <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>454</v>
+        <v>654</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -9947,7 +14906,7 @@
         <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>455</v>
+        <v>655</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -9958,7 +14917,7 @@
         <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>456</v>
+        <v>656</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -9969,7 +14928,7 @@
         <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>457</v>
+        <v>657</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -9980,7 +14939,7 @@
         <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>458</v>
+        <v>658</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -9991,7 +14950,7 @@
         <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>459</v>
+        <v>659</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -10002,7 +14961,7 @@
         <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>460</v>
+        <v>660</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -10013,7 +14972,7 @@
         <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>461</v>
+        <v>661</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -10024,7 +14983,7 @@
         <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>462</v>
+        <v>662</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -10035,7 +14994,7 @@
         <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>463</v>
+        <v>663</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -10046,7 +15005,7 @@
         <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>464</v>
+        <v>664</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -10057,7 +15016,7 @@
         <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>465</v>
+        <v>665</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -10068,7 +15027,7 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>466</v>
+        <v>666</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -10079,7 +15038,7 @@
         <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>467</v>
+        <v>667</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -10090,7 +15049,7 @@
         <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>468</v>
+        <v>668</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -10101,7 +15060,7 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>469</v>
+        <v>669</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -10112,7 +15071,7 @@
         <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>470</v>
+        <v>670</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -10123,7 +15082,7 @@
         <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>471</v>
+        <v>671</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -10134,7 +15093,7 @@
         <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>472</v>
+        <v>672</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -10145,7 +15104,7 @@
         <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>473</v>
+        <v>673</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -10156,7 +15115,7 @@
         <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>474</v>
+        <v>674</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -10167,7 +15126,7 @@
         <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>475</v>
+        <v>675</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -10178,7 +15137,7 @@
         <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>476</v>
+        <v>676</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -10189,7 +15148,7 @@
         <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>477</v>
+        <v>677</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -10200,7 +15159,7 @@
         <v>208</v>
       </c>
       <c r="C208" t="s">
-        <v>478</v>
+        <v>678</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -10211,7 +15170,7 @@
         <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>479</v>
+        <v>679</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -10222,7 +15181,7 @@
         <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>480</v>
+        <v>680</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10233,7 +15192,7 @@
         <v>211</v>
       </c>
       <c r="C211" t="s">
-        <v>481</v>
+        <v>681</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -10244,7 +15203,7 @@
         <v>212</v>
       </c>
       <c r="C212" t="s">
-        <v>482</v>
+        <v>682</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10255,7 +15214,7 @@
         <v>213</v>
       </c>
       <c r="C213" t="s">
-        <v>483</v>
+        <v>683</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10266,7 +15225,7 @@
         <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>484</v>
+        <v>684</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -10277,7 +15236,7 @@
         <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>485</v>
+        <v>685</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -10288,7 +15247,7 @@
         <v>216</v>
       </c>
       <c r="C216" t="s">
-        <v>486</v>
+        <v>686</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10299,7 +15258,7 @@
         <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>487</v>
+        <v>687</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -10310,7 +15269,7 @@
         <v>218</v>
       </c>
       <c r="C218" t="s">
-        <v>488</v>
+        <v>688</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -10321,7 +15280,7 @@
         <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>489</v>
+        <v>689</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10332,7 +15291,7 @@
         <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>490</v>
+        <v>690</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -10343,7 +15302,7 @@
         <v>221</v>
       </c>
       <c r="C221" t="s">
-        <v>491</v>
+        <v>691</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10354,7 +15313,7 @@
         <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>492</v>
+        <v>692</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10365,7 +15324,7 @@
         <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>493</v>
+        <v>693</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -10376,7 +15335,7 @@
         <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>494</v>
+        <v>694</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10387,7 +15346,7 @@
         <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>495</v>
+        <v>695</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10398,7 +15357,7 @@
         <v>226</v>
       </c>
       <c r="C226" t="s">
-        <v>496</v>
+        <v>696</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10409,7 +15368,7 @@
         <v>227</v>
       </c>
       <c r="C227" t="s">
-        <v>497</v>
+        <v>697</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10420,7 +15379,7 @@
         <v>228</v>
       </c>
       <c r="C228" t="s">
-        <v>498</v>
+        <v>698</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10431,7 +15390,7 @@
         <v>229</v>
       </c>
       <c r="C229" t="s">
-        <v>499</v>
+        <v>699</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10442,7 +15401,7 @@
         <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -10453,7 +15412,7 @@
         <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>501</v>
+        <v>701</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -10464,7 +15423,7 @@
         <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>502</v>
+        <v>702</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -10475,7 +15434,7 @@
         <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>503</v>
+        <v>703</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -10486,7 +15445,7 @@
         <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>504</v>
+        <v>704</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -10497,7 +15456,7 @@
         <v>235</v>
       </c>
       <c r="C235" t="s">
-        <v>505</v>
+        <v>705</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -10508,7 +15467,7 @@
         <v>236</v>
       </c>
       <c r="C236" t="s">
-        <v>506</v>
+        <v>706</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -10519,7 +15478,7 @@
         <v>237</v>
       </c>
       <c r="C237" t="s">
-        <v>507</v>
+        <v>707</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -10530,7 +15489,7 @@
         <v>238</v>
       </c>
       <c r="C238" t="s">
-        <v>508</v>
+        <v>708</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -10541,7 +15500,7 @@
         <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>509</v>
+        <v>709</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -10552,7 +15511,7 @@
         <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>510</v>
+        <v>710</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -10563,7 +15522,7 @@
         <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>511</v>
+        <v>711</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -10574,7 +15533,7 @@
         <v>242</v>
       </c>
       <c r="C242" t="s">
-        <v>512</v>
+        <v>712</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -10585,7 +15544,7 @@
         <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>513</v>
+        <v>713</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -10596,7 +15555,7 @@
         <v>244</v>
       </c>
       <c r="C244" t="s">
-        <v>514</v>
+        <v>714</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -10607,7 +15566,7 @@
         <v>245</v>
       </c>
       <c r="C245" t="s">
-        <v>515</v>
+        <v>715</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -10618,7 +15577,7 @@
         <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>516</v>
+        <v>716</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -10629,7 +15588,7 @@
         <v>247</v>
       </c>
       <c r="C247" t="s">
-        <v>517</v>
+        <v>717</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -10640,7 +15599,7 @@
         <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>518</v>
+        <v>718</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -10651,7 +15610,7 @@
         <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>519</v>
+        <v>719</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -10662,7 +15621,7 @@
         <v>250</v>
       </c>
       <c r="C250" t="s">
-        <v>520</v>
+        <v>720</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -10673,7 +15632,7 @@
         <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>521</v>
+        <v>721</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -10684,7 +15643,7 @@
         <v>252</v>
       </c>
       <c r="C252" t="s">
-        <v>522</v>
+        <v>722</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -10695,7 +15654,7 @@
         <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>523</v>
+        <v>723</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -10706,7 +15665,7 @@
         <v>254</v>
       </c>
       <c r="C254" t="s">
-        <v>524</v>
+        <v>724</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -10717,7 +15676,7 @@
         <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>525</v>
+        <v>725</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -10728,7 +15687,7 @@
         <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>526</v>
+        <v>726</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -10739,7 +15698,7 @@
         <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>527</v>
+        <v>727</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -10750,7 +15709,7 @@
         <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>528</v>
+        <v>728</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -10761,7 +15720,7 @@
         <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>529</v>
+        <v>729</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -10772,7 +15731,7 @@
         <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>530</v>
+        <v>730</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -10783,7 +15742,7 @@
         <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>531</v>
+        <v>731</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -10794,7 +15753,7 @@
         <v>262</v>
       </c>
       <c r="C262" t="s">
-        <v>532</v>
+        <v>732</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -10805,7 +15764,7 @@
         <v>263</v>
       </c>
       <c r="C263" t="s">
-        <v>533</v>
+        <v>733</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -10816,7 +15775,7 @@
         <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>534</v>
+        <v>734</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -10827,7 +15786,7 @@
         <v>265</v>
       </c>
       <c r="C265" t="s">
-        <v>535</v>
+        <v>735</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -10838,7 +15797,7 @@
         <v>266</v>
       </c>
       <c r="C266" t="s">
-        <v>536</v>
+        <v>736</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -10849,7 +15808,7 @@
         <v>267</v>
       </c>
       <c r="C267" t="s">
-        <v>537</v>
+        <v>737</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -10860,7 +15819,7 @@
         <v>268</v>
       </c>
       <c r="C268" t="s">
-        <v>538</v>
+        <v>738</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -10871,7 +15830,7 @@
         <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>539</v>
+        <v>739</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -10882,7 +15841,7 @@
         <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>540</v>
+        <v>740</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -10893,7 +15852,7 @@
         <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>541</v>
+        <v>741</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -10904,7 +15863,7 @@
         <v>272</v>
       </c>
       <c r="C272" t="s">
-        <v>542</v>
+        <v>742</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -10915,7 +15874,7 @@
         <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>543</v>
+        <v>743</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -10926,7 +15885,2207 @@
         <v>274</v>
       </c>
       <c r="C274" t="s">
-        <v>544</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+      <c r="C275" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+      <c r="C276" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+      <c r="C277" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+      <c r="C278" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+      <c r="C279" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+      <c r="C280" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+      <c r="C282" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+      <c r="C283" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+      <c r="C284" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+      <c r="C285" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+      <c r="C286" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+      <c r="C288" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+      <c r="C289" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+      <c r="C290" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+      <c r="C292" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+      <c r="C293" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="C294" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+      <c r="C295" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+      <c r="C297" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+      <c r="C298" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+      <c r="C300" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+      <c r="C303" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+      <c r="C306" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+      <c r="C307" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+      <c r="C308" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+      <c r="C326" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+      <c r="C327" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+      <c r="C328" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+      <c r="C329" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+      <c r="C330" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+      <c r="C331" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+      <c r="C334" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+      <c r="C335" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+      <c r="C336" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+      <c r="C338" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+      <c r="C339" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+      <c r="C340" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+      <c r="C341" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+      <c r="C342" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+      <c r="C343" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+      <c r="C344" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+      <c r="C345" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+      <c r="C346" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+      <c r="C347" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+      <c r="C349" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+      <c r="C351" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+      <c r="C352" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+      <c r="C353" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+      <c r="C354" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+      <c r="C356" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+      <c r="C357" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+      <c r="C359" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+      <c r="C360" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+      <c r="C361" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+      <c r="C362" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+      <c r="C363" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+      <c r="C364" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+      <c r="C365" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+      <c r="C366" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+      <c r="C369" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+      <c r="C370" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+      <c r="C372" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+      <c r="C373" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+      <c r="C374" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C375" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+      <c r="C376" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+      <c r="C377" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+      <c r="C379" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+      <c r="C380" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+      <c r="C382" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+      <c r="C383" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+      <c r="C384" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+      <c r="C385" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+      <c r="C388" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+      <c r="C389" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>390</v>
+      </c>
+      <c r="C390" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+      <c r="C391" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>392</v>
+      </c>
+      <c r="C392" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>393</v>
+      </c>
+      <c r="C393" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>394</v>
+      </c>
+      <c r="C394" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>395</v>
+      </c>
+      <c r="C395" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>396</v>
+      </c>
+      <c r="C396" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+      <c r="C397" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>398</v>
+      </c>
+      <c r="C398" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>399</v>
+      </c>
+      <c r="C399" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>400</v>
+      </c>
+      <c r="C400" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>401</v>
+      </c>
+      <c r="C401" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>402</v>
+      </c>
+      <c r="C402" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>403</v>
+      </c>
+      <c r="C403" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>404</v>
+      </c>
+      <c r="C404" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>405</v>
+      </c>
+      <c r="C405" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>406</v>
+      </c>
+      <c r="C406" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>407</v>
+      </c>
+      <c r="C407" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>408</v>
+      </c>
+      <c r="C408" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>409</v>
+      </c>
+      <c r="C409" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>410</v>
+      </c>
+      <c r="C410" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>411</v>
+      </c>
+      <c r="C411" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>412</v>
+      </c>
+      <c r="C412" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>413</v>
+      </c>
+      <c r="C413" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>414</v>
+      </c>
+      <c r="C414" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>415</v>
+      </c>
+      <c r="C415" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>416</v>
+      </c>
+      <c r="C416" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>417</v>
+      </c>
+      <c r="C417" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>418</v>
+      </c>
+      <c r="C418" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>419</v>
+      </c>
+      <c r="C419" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>420</v>
+      </c>
+      <c r="C420" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>421</v>
+      </c>
+      <c r="C421" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>422</v>
+      </c>
+      <c r="C422" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>423</v>
+      </c>
+      <c r="C423" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>424</v>
+      </c>
+      <c r="C424" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>425</v>
+      </c>
+      <c r="C425" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>426</v>
+      </c>
+      <c r="C426" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>427</v>
+      </c>
+      <c r="C427" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>428</v>
+      </c>
+      <c r="C428" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>429</v>
+      </c>
+      <c r="C429" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>430</v>
+      </c>
+      <c r="C430" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>431</v>
+      </c>
+      <c r="C431" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>432</v>
+      </c>
+      <c r="C432" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>433</v>
+      </c>
+      <c r="C433" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>434</v>
+      </c>
+      <c r="C434" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+      <c r="C435" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>436</v>
+      </c>
+      <c r="C436" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>437</v>
+      </c>
+      <c r="C437" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
+      </c>
+      <c r="C438" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>439</v>
+      </c>
+      <c r="C439" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>440</v>
+      </c>
+      <c r="C440" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>441</v>
+      </c>
+      <c r="C441" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>442</v>
+      </c>
+      <c r="C442" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>443</v>
+      </c>
+      <c r="C443" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>444</v>
+      </c>
+      <c r="C444" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>445</v>
+      </c>
+      <c r="C445" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>446</v>
+      </c>
+      <c r="C446" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>447</v>
+      </c>
+      <c r="C447" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>448</v>
+      </c>
+      <c r="C448" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>449</v>
+      </c>
+      <c r="C449" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>450</v>
+      </c>
+      <c r="C450" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>451</v>
+      </c>
+      <c r="C451" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>452</v>
+      </c>
+      <c r="C452" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>453</v>
+      </c>
+      <c r="C453" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>454</v>
+      </c>
+      <c r="C454" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>455</v>
+      </c>
+      <c r="C455" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>456</v>
+      </c>
+      <c r="C456" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>457</v>
+      </c>
+      <c r="C457" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>458</v>
+      </c>
+      <c r="C458" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>459</v>
+      </c>
+      <c r="C459" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>460</v>
+      </c>
+      <c r="C460" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>461</v>
+      </c>
+      <c r="C461" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>462</v>
+      </c>
+      <c r="C462" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>463</v>
+      </c>
+      <c r="C463" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>464</v>
+      </c>
+      <c r="C464" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>465</v>
+      </c>
+      <c r="C465" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>466</v>
+      </c>
+      <c r="C466" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>467</v>
+      </c>
+      <c r="C467" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>468</v>
+      </c>
+      <c r="C468" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>469</v>
+      </c>
+      <c r="C469" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>470</v>
+      </c>
+      <c r="C470" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>471</v>
+      </c>
+      <c r="C471" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>472</v>
+      </c>
+      <c r="C472" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>473</v>
+      </c>
+      <c r="C473" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>474</v>
+      </c>
+      <c r="C474" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>
